--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 34758-2024</t>
+          <t>A 5766-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45526</v>
+        <v>46051.63847222222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,22 +765,17 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -795,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,124 +799,129 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Nästrot
+Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 34758-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Dofttaggsvamp
 Fjällig taggsvamp s.str.
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 5766-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46051.63847222222</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Nästrot
-Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 35334-2024</t>
+          <t>A 60736-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45530</v>
+        <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,13 +1300,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1315,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1340,31 +1335,35 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
         <v/>
       </c>
     </row>
@@ -1378,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1462,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,14 +1545,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 60736-2022</t>
+          <t>A 35334-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44913</v>
+        <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,8 +1564,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1575,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1600,35 +1604,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9349-2022</t>
+          <t>A 45742-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44616</v>
+        <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2005,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45742-2021</t>
+          <t>A 9349-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44441</v>
+        <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,14 +3688,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 45736-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45002</v>
+        <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3745,14 +3745,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 45738-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3802,14 +3802,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45736-2021</t>
+          <t>A 73265-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44441.41650462963</v>
+        <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45738-2021</t>
+          <t>A 23020-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44441</v>
+        <v>44719.37579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 46701-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44441</v>
+        <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3973,14 +3973,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 73265-2021</t>
+          <t>A 72240-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44550.83846064815</v>
+        <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4030,14 +4030,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23020-2022</t>
+          <t>A 25094-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44719.37579861111</v>
+        <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4087,14 +4087,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46701-2021</t>
+          <t>A 23451-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44445</v>
+        <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4144,14 +4144,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 6947-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4163,8 +4163,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4201,14 +4206,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 72240-2021</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44544</v>
+        <v>45525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4220,8 +4225,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4258,14 +4268,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45166</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4277,8 +4287,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>10.3</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4315,14 +4330,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45278</v>
+        <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4355,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4377,14 +4392,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4396,13 +4411,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4439,14 +4449,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4459,7 +4469,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4496,14 +4506,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>44747</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4516,7 +4526,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4553,14 +4563,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44272</v>
+        <v>45002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4583,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4610,14 +4620,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45477</v>
+        <v>45614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4630,7 +4640,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4667,14 +4677,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4687,7 +4697,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4724,14 +4734,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>45762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4743,8 +4753,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4781,14 +4796,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45600</v>
+        <v>45635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4801,7 +4816,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4838,14 +4853,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45127</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4857,13 +4872,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4900,14 +4910,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4919,8 +4929,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4957,14 +4972,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45723</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4977,7 +4992,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5014,14 +5029,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5033,8 +5048,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5071,14 +5091,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45526</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5096,7 +5116,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5133,14 +5153,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5153,7 +5173,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5190,14 +5210,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45533</v>
+        <v>45530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5209,8 +5229,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5247,14 +5272,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45894</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5267,7 +5292,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5304,14 +5329,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45891</v>
+        <v>45148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,11 +5350,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5366,14 +5391,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45091</v>
+        <v>45618</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5386,7 +5411,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5423,14 +5448,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45821</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5443,7 +5468,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5480,14 +5505,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45049.555625</v>
+        <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5500,7 +5525,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5537,14 +5562,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44542</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5556,8 +5581,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5594,14 +5624,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5619,7 +5649,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5656,14 +5686,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45831</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5675,8 +5705,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5713,14 +5748,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45971</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5732,8 +5767,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>13.6</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5770,14 +5810,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45971</v>
+        <v>45593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5790,7 +5830,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5827,14 +5867,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45971</v>
+        <v>45891</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5846,8 +5886,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5884,14 +5929,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5905,11 +5950,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5946,14 +5991,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44876</v>
+        <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5966,7 +6011,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6003,14 +6048,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45897</v>
+        <v>45012</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6024,11 +6069,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6065,14 +6110,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45971</v>
+        <v>45821</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6085,7 +6130,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6122,14 +6167,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45971</v>
+        <v>45894</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6142,7 +6187,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6179,14 +6224,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45971</v>
+        <v>45897</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6198,8 +6243,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>14.2</v>
+        <v>5.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6236,14 +6286,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44894</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6261,7 +6311,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6298,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45905</v>
+        <v>45147</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6317,8 +6367,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6355,14 +6410,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45789</v>
+        <v>44269</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6380,7 +6435,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.4</v>
+        <v>18.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6417,14 +6472,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45789</v>
+        <v>45439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6436,13 +6491,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6479,14 +6529,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>44944</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6499,7 +6549,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6536,14 +6586,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6556,7 +6606,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>12.5</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6593,14 +6643,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>44272</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6650,14 +6700,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>45789</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6669,8 +6719,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6707,14 +6762,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45446</v>
+        <v>45701</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6726,8 +6781,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6764,14 +6824,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45905</v>
+        <v>45789</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6785,11 +6845,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.2</v>
+        <v>7.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6826,14 +6886,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25094-2024</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45462</v>
+        <v>45716</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6845,8 +6905,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6883,14 +6948,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>45905</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6903,7 +6968,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>12.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6940,14 +7005,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45147</v>
+        <v>45337</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6959,13 +7024,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7002,14 +7062,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45530</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7021,13 +7081,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7064,14 +7119,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7084,7 +7139,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7121,14 +7176,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44523</v>
+        <v>45127</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7140,8 +7195,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7178,14 +7238,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>45127</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,11 +7259,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7240,14 +7300,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45905</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7259,13 +7319,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7302,14 +7357,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45476</v>
+        <v>45905</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7321,8 +7376,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7359,14 +7419,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44535</v>
+        <v>45476</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7439,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7416,14 +7476,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>45924</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7435,13 +7495,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7478,14 +7533,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7498,7 +7553,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7535,14 +7590,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45924</v>
+        <v>45446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7555,7 +7610,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7592,14 +7647,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7613,11 +7668,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7654,14 +7709,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45527</v>
+        <v>45359</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7675,11 +7730,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7716,14 +7771,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46030</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7791,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7773,14 +7828,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44662</v>
+        <v>44517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7848,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.8</v>
+        <v>17.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7837,7 +7892,7 @@
         <v>45926.60765046296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,14 +7947,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>45835</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7911,13 +7966,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7954,14 +8004,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>45551</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7974,7 +8024,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8011,14 +8061,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8030,8 +8080,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8068,14 +8123,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45415</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8087,8 +8142,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8125,14 +8185,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45148</v>
+        <v>45932</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8144,13 +8204,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8187,14 +8242,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8207,7 +8262,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8244,14 +8299,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>44441</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8264,7 +8319,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8301,14 +8356,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8321,7 +8376,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8358,14 +8413,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>45932</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8378,7 +8433,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8415,14 +8470,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45978.60586805556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8434,13 +8489,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8477,14 +8527,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8496,8 +8546,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8534,14 +8589,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45932</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8554,7 +8609,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8591,14 +8646,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44517</v>
+        <v>45251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8611,7 +8666,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>17.2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8648,14 +8703,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45272</v>
+        <v>45148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8667,8 +8722,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8705,14 +8765,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45527</v>
+        <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8726,11 +8786,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8767,14 +8827,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8786,8 +8846,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8824,14 +8889,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45978.60586805556</v>
+        <v>45527</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8843,8 +8908,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8881,14 +8951,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>45527</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8900,8 +8970,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8938,14 +9013,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8957,13 +9032,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9000,14 +9070,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9020,7 +9090,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>8.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9057,14 +9127,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44880</v>
+        <v>45632</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9076,13 +9146,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>17.7</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9119,14 +9184,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45127</v>
+        <v>45600</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9138,13 +9203,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9181,14 +9241,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45127</v>
+        <v>45950</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9200,13 +9260,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9243,14 +9298,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45950</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9263,7 +9318,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9300,14 +9355,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45442</v>
+        <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9320,7 +9375,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9357,14 +9412,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45399</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9376,8 +9431,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>9.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9414,14 +9474,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9434,7 +9494,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9471,14 +9531,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>44662</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9490,13 +9550,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>9.1</v>
+        <v>3.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9533,14 +9588,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45251</v>
+        <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9553,7 +9608,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9590,14 +9645,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9610,7 +9665,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9647,14 +9702,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>44523</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9667,7 +9722,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9704,14 +9759,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45012</v>
+        <v>45241</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9723,13 +9778,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9766,14 +9816,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44916</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9786,7 +9836,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>10.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9823,14 +9873,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44970</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9843,7 +9893,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9880,14 +9930,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9900,7 +9950,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9937,14 +9987,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 63799-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>45278</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9956,8 +10006,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9994,14 +10049,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>45723</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10013,13 +10068,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10056,14 +10106,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>45287</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10075,8 +10125,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>4.1</v>
+        <v>11.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10113,14 +10168,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44269</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10132,13 +10187,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>18.8</v>
+        <v>1.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10175,14 +10225,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 23451-2024</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45453.64371527778</v>
+        <v>44524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10195,7 +10245,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10232,14 +10282,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>45623</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10252,7 +10302,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10289,14 +10339,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45632</v>
+        <v>45497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10309,7 +10359,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10346,14 +10396,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45359</v>
+        <v>45148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10371,7 +10421,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10408,14 +10458,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45623</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10428,7 +10478,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10465,14 +10515,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44902</v>
+        <v>45447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10484,8 +10534,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10522,14 +10577,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45099</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10542,7 +10597,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10579,14 +10634,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45119</v>
+        <v>44970</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10598,13 +10653,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10641,14 +10691,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45085</v>
+        <v>45477</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10661,7 +10711,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10698,14 +10748,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45600</v>
+        <v>45971</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10717,13 +10767,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10760,14 +10805,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>45971</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10780,7 +10825,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>14.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10817,14 +10862,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45127</v>
+        <v>45404</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10836,13 +10881,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10879,14 +10919,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45593</v>
+        <v>45971</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10898,13 +10938,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>7.9</v>
+        <v>13.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10941,14 +10976,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44524</v>
+        <v>45971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10961,7 +10996,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10998,14 +11033,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45166</v>
+        <v>45971</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11017,13 +11052,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11060,14 +11090,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45971</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11079,13 +11109,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11122,14 +11147,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45415</v>
+        <v>45744</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11141,13 +11166,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11184,14 +11204,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44461</v>
+        <v>45667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11204,7 +11224,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11241,14 +11261,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45593</v>
+        <v>45119</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,8 +11280,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11298,14 +11323,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45124</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,13 +11342,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11360,14 +11380,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45593</v>
+        <v>45439</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11400,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>7</v>
+        <v>11.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11417,14 +11437,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11437,7 +11457,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11474,14 +11494,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45148</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11493,13 +11513,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11536,14 +11551,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45148</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11555,13 +11570,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11598,14 +11608,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44970</v>
+        <v>44697</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11618,7 +11628,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11655,14 +11665,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45635</v>
+        <v>45905</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11674,8 +11684,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11712,14 +11727,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45439</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11732,7 +11747,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>9.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11769,14 +11784,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45701</v>
+        <v>44902</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11788,13 +11803,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11831,14 +11841,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45127</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11852,11 +11862,11 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11893,14 +11903,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44578</v>
+        <v>44987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11912,13 +11922,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11955,14 +11960,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45551</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11974,8 +11979,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12012,14 +12022,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44581</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12031,8 +12041,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12069,14 +12084,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45614</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12088,8 +12103,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12126,14 +12146,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44697</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12146,7 +12166,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12190,7 +12210,7 @@
         <v>45558</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12240,14 +12260,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45765</v>
+        <v>44880</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12259,8 +12279,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>4.8</v>
+        <v>17.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12297,14 +12322,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12317,7 +12342,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12354,14 +12379,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44638</v>
+        <v>46030</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12374,7 +12399,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12411,14 +12436,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45148</v>
+        <v>44894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,11 +12457,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12473,14 +12498,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45614</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12493,7 +12518,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12530,14 +12555,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45709</v>
+        <v>45237</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12549,13 +12574,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12592,14 +12612,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>44550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12612,7 +12632,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12649,14 +12669,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12668,13 +12688,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>11</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12711,14 +12726,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45762</v>
+        <v>44970</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12730,13 +12745,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12773,14 +12783,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44823</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12803,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>16.5</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12830,14 +12840,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45279</v>
+        <v>45478.305</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12849,8 +12859,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>0.1</v>
+        <v>4.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12887,14 +12902,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45525</v>
+        <v>45399</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12906,13 +12921,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12949,14 +12959,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45378</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12968,13 +12978,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13011,14 +13016,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45237</v>
+        <v>45272</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13031,7 +13036,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13068,14 +13073,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44550</v>
+        <v>44876</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13088,7 +13093,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13125,14 +13130,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13145,7 +13150,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13182,14 +13187,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44915</v>
+        <v>45148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13201,8 +13206,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13239,14 +13249,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>44578</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13258,8 +13268,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13296,14 +13311,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45567</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13317,11 +13332,11 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9.4</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13358,14 +13373,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>45442</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13378,7 +13393,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13415,14 +13430,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13435,7 +13450,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13472,14 +13487,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13492,7 +13507,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13529,14 +13544,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13549,7 +13564,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13586,14 +13601,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45439</v>
+        <v>44823</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13606,7 +13621,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>11.3</v>
+        <v>16.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13643,14 +13658,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44970</v>
+        <v>44638</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13663,7 +13678,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13700,14 +13715,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45127</v>
+        <v>45765</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13719,13 +13734,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13762,14 +13772,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44812</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13781,8 +13791,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13819,14 +13834,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44881</v>
+        <v>45274</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13839,7 +13854,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13876,14 +13891,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45078</v>
+        <v>44915</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13896,7 +13911,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13933,14 +13948,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44417</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13953,7 +13968,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>14.8</v>
+        <v>11</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13990,14 +14005,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>44973</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14009,13 +14024,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14052,14 +14062,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44902</v>
+        <v>45127</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14071,8 +14081,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14109,14 +14124,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44662</v>
+        <v>45127</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14128,8 +14143,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14166,14 +14186,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45241</v>
+        <v>44662</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14206,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.9</v>
+        <v>7.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14223,14 +14243,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45533</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14242,13 +14262,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14285,14 +14300,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>45593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14304,8 +14319,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14342,14 +14362,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45147</v>
+        <v>45378</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14363,11 +14383,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14404,14 +14424,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45478.305</v>
+        <v>45614</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14423,13 +14443,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14466,14 +14481,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44973</v>
+        <v>44542</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14486,7 +14501,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14523,14 +14538,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>45078</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14543,7 +14558,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14580,14 +14595,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44987</v>
+        <v>45600</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14599,8 +14614,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14637,14 +14657,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44944</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14654,6 +14674,11 @@
       <c r="E236" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G236" t="n">
@@ -14694,14 +14719,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14714,7 +14739,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14751,14 +14776,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45124</v>
+        <v>45085</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14770,13 +14795,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14813,14 +14833,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>44812</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,13 +14852,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14875,14 +14890,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>45526</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14896,11 +14911,11 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14937,14 +14952,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44796</v>
+        <v>45127</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,8 +14971,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14994,14 +15014,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>45709</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,8 +15033,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15051,14 +15076,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45667</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15071,7 +15096,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15108,14 +15133,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>45099</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15128,7 +15153,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15165,14 +15190,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45337</v>
+        <v>45632</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15185,7 +15210,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15222,14 +15247,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45447</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,13 +15266,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15284,14 +15304,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15304,7 +15324,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15341,14 +15361,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45723</v>
+        <v>44902</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15361,7 +15381,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15398,14 +15418,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45287</v>
+        <v>45723</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,13 +15437,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>11.3</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15460,14 +15475,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44747</v>
+        <v>44535</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15480,7 +15495,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15517,14 +15532,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45404</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15537,7 +15552,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15574,14 +15589,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45744</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15594,7 +15609,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15631,14 +15646,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45716</v>
+        <v>44581</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15650,13 +15665,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15693,14 +15703,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45497</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15712,8 +15722,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15750,14 +15765,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45632</v>
+        <v>45124</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15769,8 +15784,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15807,14 +15827,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 6947-2025</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45701</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15826,13 +15846,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15869,14 +15884,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15889,7 +15904,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15926,14 +15941,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15945,8 +15960,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15983,14 +16003,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45530</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16002,13 +16022,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16045,14 +16060,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45789</v>
+        <v>44461</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16064,13 +16079,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16107,14 +16117,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45789</v>
+        <v>44796</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16126,13 +16136,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16169,14 +16174,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45789</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16188,13 +16193,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16231,14 +16231,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45789</v>
+        <v>45147</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16252,11 +16252,11 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16293,14 +16293,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45355</v>
+        <v>44916</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16350,14 +16350,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45793</v>
+        <v>45127</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16371,11 +16371,11 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16412,14 +16412,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>45049.555625</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,13 +16431,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16474,14 +16469,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16493,13 +16488,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16536,14 +16526,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45055</v>
+        <v>45530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16555,8 +16545,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16593,14 +16588,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45618</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16608,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16650,14 +16645,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>45789</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16675,7 +16670,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16712,14 +16707,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>45789</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16737,7 +16732,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16774,14 +16769,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>45789</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16799,7 +16794,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16836,14 +16831,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>45789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16856,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16898,14 +16893,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45793</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16917,8 +16912,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16955,14 +16955,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45835</v>
+        <v>45355</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>46051.63847222222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45526</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44719.37579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45166</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>45217.46574074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44747</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44880.85837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45477.4494675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45197.84850694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>44550.84347222222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>45802.44046296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>45701.4422337963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>45530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45426.38695601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>45618</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>45755.68284722222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45727.6646412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45812.62319444444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45812.62880787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45470.6132175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45891</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45812.62601851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45012</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>45821</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>45894</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>45897</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>45896.54966435185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45147</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>44269</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44944</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>45905</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44272</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45789</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45701</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45789</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45716</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45905</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>45337</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>45386.48452546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>45279</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>45127</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>45127</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>45755.30469907408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45905</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45476</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45924</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45834.59111111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45926.62878472222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45359</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45929.33350694444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45926.60765046296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45835</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45551</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45931.63662037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45415</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45932</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>45764.3621875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>44441</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>45932.52096064815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>45932</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>45978.60586805556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45937.44954861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>45937.85078703704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>45251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45124.57144675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>45527</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>45527</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45455.70663194444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45947.54222222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>45632</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>45600</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>45950</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>45761.85296296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>45952.35089120371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>45483.72967592593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44662</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44847.77737268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44523</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>45241</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45755.79530092593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>45958.81872685185</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>45960.5640162037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45278</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>45723</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>45287</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44489.4774537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>45623</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>45497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>45148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45971.60068287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44970</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45477</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45971</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45971</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45404</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45971</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>45971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>45971</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>45971</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>45744</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>45667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>45119</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>45439.51597222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>45439</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45987.51020833333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45987.52658564815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>45988.80296296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44697</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>45905</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>45988.44700231482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44902</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>45993.40327546297</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>44987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>44382.6680787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>45993.37708333333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45993.46239583333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44756.37423611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45558</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44880</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45999.50127314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>46030</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>44894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45999.57299768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>45237</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>44550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>44550.84164351852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>44970</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>46003.46021990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45478.305</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45399</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45593.46697916667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45272</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44876</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45600.88394675926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44578</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45121.67741898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45442</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>46052.54554398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45446.63490740741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44916.42027777778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44823</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44638</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45765</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44910.61255787037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>45274</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44915</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>44581.41297453704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44973</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45127</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45127</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>44662</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45533</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>45593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45378</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45614</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44542</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45078</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45600</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45124.58128472222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45105.61543981481</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45085</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44812</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45526</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>45127</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45709</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45237.64636574074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45099</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45632</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44991.57304398148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44902</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45723</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44535</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45736.53642361111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45372.34391203704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44581</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>45062.65708333333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>45124</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45271.80996527777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45532.35637731481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45075.45097222222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>45614.66586805556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44461</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44796</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44936.58559027778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45147</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44916</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>45127</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45049.555625</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45371.55340277778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45784.31782407407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45789</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>45789</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45789</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45793</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45355</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>46051.63847222222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45526</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44719.37579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45166</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>45217.46574074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44747</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44880.85837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45477.4494675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45197.84850694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>44550.84347222222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>45802.44046296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>45701.4422337963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>45530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45426.38695601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>45618</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>45755.68284722222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>45727.6646412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>45812.62319444444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>45812.62880787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45470.6132175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45891</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45812.62601851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45831</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45012</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>45821</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>45894</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>45897</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>45896.54966435185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45147</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>44269</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44944</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>45905</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>44272</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45789</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45701</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45789</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45716</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45905</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>45337</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>45386.48452546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>45279</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>45127</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>45127</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>45755.30469907408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>45905</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45476</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45924</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45834.59111111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45926.62878472222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45359</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45929.33350694444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45926.60765046296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45835</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45551</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45931.63662037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45415</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45932</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>45764.3621875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         <v>44441</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>45932.52096064815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>45932</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>45978.60586805556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45937.44954861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>45937.85078703704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>45251</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>45124</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45124.57144675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>45527</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>45527</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45455.70663194444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45947.54222222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>45632</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>45600</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>45950</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>45761.85296296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44881</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>45952.35089120371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>45483.72967592593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44662</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44417</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44847.77737268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44523</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>45241</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45755.79530092593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>45958.81872685185</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>45960.5640162037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45278</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>45723</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>45287</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44489.4774537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>45623</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>45497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>45148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10465,7 +10465,7 @@
         <v>45971.60068287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44970</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45477</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45971</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45971</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45404</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45971</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>45971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>45971</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>45971</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>45744</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>45667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>45119</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>45439.51597222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>45439</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>45987.51020833333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>45987.52658564815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>45988.80296296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44697</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>45905</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>45988.44700231482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44902</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>45993.40327546297</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>44987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>44382.6680787037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>45993.37708333333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45993.46239583333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44756.37423611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45558</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44880</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45999.50127314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>46030</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>44894</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45999.57299768519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
         <v>45237</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>44550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12676,7 +12676,7 @@
         <v>44550.84164351852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12733,7 +12733,7 @@
         <v>44970</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>46003.46021990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45478.305</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45399</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45593.46697916667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45272</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44876</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45600.88394675926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44578</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45121.67741898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45442</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>46052.54554398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45446.63490740741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>44916.42027777778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>44823</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>44638</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45765</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44910.61255787037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>45274</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44915</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13955,7 +13955,7 @@
         <v>44581.41297453704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44973</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
         <v>45127</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45127</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>44662</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45533</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>45593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45378</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45614</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44542</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45078</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45600</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45124.58128472222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45105.61543981481</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45085</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44812</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45526</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>45127</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45709</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45237.64636574074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45099</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45632</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44991.57304398148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44902</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45723</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44535</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45736.53642361111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45372.34391203704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44581</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>45062.65708333333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>45124</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45271.80996527777</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45532.35637731481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45075.45097222222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>45614.66586805556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44461</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44796</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44936.58559027778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45147</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44916</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>45127</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45049.555625</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45371.55340277778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45784.31782407407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45789</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>45789</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45789</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45793</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>45355</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 3713-2024</t>
+          <t>A 34758-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45321.46277777778</v>
+        <v>45526</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,17 +678,22 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -703,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -712,216 +717,211 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp
+Fjällig taggsvamp s.str.
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 3713-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45321.46277777778</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Åkergroda
 Mindre vattensalamander
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 3713-2024 artfynd.xlsx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 3713-2024 karta.png", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 3713-2024 FSC-klagomål.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 3713-2024 FSC-klagomål mail.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 3713-2024 tillsynsbegäran.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 3713-2024 tillsynsbegäran mail.docx", "A 3713-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 5766-2026</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>46051.63847222222</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Nästrot
 Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 34758-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Fjällig taggsvamp s.str.
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60736-2022</t>
+          <t>A 35334-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44913</v>
+        <v>45530</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,8 +1300,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1310,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1325,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1335,35 +1340,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1378,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1463,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,14 +1546,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35334-2024</t>
+          <t>A 60736-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45530</v>
+        <v>44913</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1564,13 +1565,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1579,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1594,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1604,31 +1600,35 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
         <v/>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 24092-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>44336</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 24092-2021</t>
+          <t>A 7828-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44336</v>
+        <v>44608</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2233,14 +2233,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7828-2022</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44608</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,14 +3688,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45736-2021</t>
+          <t>A 23020-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44441.41650462963</v>
+        <v>44719.37579861111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>4.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3745,14 +3745,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45738-2021</t>
+          <t>A 46701-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44441</v>
+        <v>44445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3802,14 +3802,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 73265-2021</t>
+          <t>A 72240-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44550.83846064815</v>
+        <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23020-2022</t>
+          <t>A 45736-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44719.37579861111</v>
+        <v>44441.41650462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46701-2021</t>
+          <t>A 45738-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44445</v>
+        <v>44441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3973,14 +3973,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 72240-2021</t>
+          <t>A 73265-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44544</v>
+        <v>44550.83846064815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4030,14 +4030,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25094-2024</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45462</v>
+        <v>44272</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4087,14 +4087,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23451-2024</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45453.64371527778</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4106,8 +4106,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4144,14 +4149,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6947-2025</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45701</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4163,13 +4168,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4206,14 +4206,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45525</v>
+        <v>45723</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4225,13 +4225,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4268,14 +4263,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45166</v>
+        <v>45533</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4287,13 +4282,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>6.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4330,14 +4320,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45567</v>
+        <v>44542</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4349,13 +4339,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>9.4</v>
+        <v>4.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4392,14 +4377,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45091</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4412,7 +4397,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4449,14 +4434,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44970</v>
+        <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4469,7 +4454,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4506,14 +4491,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44747</v>
+        <v>44894</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4525,8 +4510,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4563,14 +4553,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45002</v>
+        <v>45446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4583,7 +4573,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4620,14 +4610,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 25094-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45614</v>
+        <v>45462</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4640,7 +4630,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4677,14 +4667,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>45274</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4697,7 +4687,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4734,14 +4724,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45762</v>
+        <v>44523</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4753,13 +4743,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4796,14 +4781,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45635</v>
+        <v>45147</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4815,8 +4800,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4853,14 +4843,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>45530</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4872,8 +4862,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4910,14 +4905,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,13 +4924,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4972,14 +4962,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45476</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4992,7 +4982,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5029,14 +5019,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>44535</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5048,13 +5038,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5091,14 +5076,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45527</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5116,7 +5101,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5153,14 +5138,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45091</v>
+        <v>44662</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5173,7 +5158,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5210,14 +5195,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45530</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5229,13 +5214,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5272,14 +5252,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>45148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5291,8 +5271,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5329,14 +5314,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45148</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5348,13 +5333,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5391,14 +5371,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45618</v>
+        <v>44517</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5411,7 +5391,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>17.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5448,14 +5428,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>45272</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5468,7 +5448,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5505,14 +5485,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45055</v>
+        <v>45527</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5524,8 +5504,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>6.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5562,14 +5547,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>44880</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5587,7 +5572,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>17.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5624,14 +5609,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5645,11 +5630,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5686,14 +5671,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>45127</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5707,11 +5692,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5748,14 +5733,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5767,13 +5752,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5810,14 +5790,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45593</v>
+        <v>45399</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5810,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5867,14 +5847,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45891</v>
+        <v>45251</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5886,13 +5866,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5929,14 +5904,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>45012</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5954,7 +5929,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5991,14 +5966,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45831</v>
+        <v>44916</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6011,7 +5986,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6048,14 +6023,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45012</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6067,13 +6042,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6110,14 +6080,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45821</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6130,7 +6100,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6167,14 +6137,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45894</v>
+        <v>44970</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6187,7 +6157,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6224,14 +6194,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45897</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6243,13 +6213,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6286,14 +6251,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>45477</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6305,13 +6270,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6308,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45147</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6367,13 +6327,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6410,14 +6365,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44269</v>
+        <v>45835</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6429,13 +6384,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>18.8</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6472,14 +6422,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45439</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6492,7 +6442,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>9.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6529,14 +6479,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44944</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,8 +6498,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6586,14 +6541,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45905</v>
+        <v>44269</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,8 +6560,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>18.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6643,14 +6603,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44272</v>
+        <v>45894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6663,7 +6623,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6700,14 +6660,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45789</v>
+        <v>45891</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6721,11 +6681,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6762,14 +6722,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45701</v>
+        <v>45821</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,13 +6741,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6824,14 +6779,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45789</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6849,7 +6804,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6886,14 +6841,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45716</v>
+        <v>45831</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,13 +6860,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6948,14 +6898,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45905</v>
+        <v>45632</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6968,7 +6918,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>12.5</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7005,14 +6955,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45337</v>
+        <v>45897</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7024,8 +6974,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7062,14 +7017,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>45359</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7081,8 +7036,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7119,14 +7079,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45279</v>
+        <v>45623</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7139,7 +7099,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7176,14 +7136,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45127</v>
+        <v>44902</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,13 +7155,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7238,14 +7193,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45127</v>
+        <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7259,11 +7214,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7300,14 +7255,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>45600</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,8 +7274,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7357,14 +7317,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45905</v>
+        <v>44524</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,13 +7336,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7419,14 +7374,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45476</v>
+        <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7439,7 +7394,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7476,14 +7431,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45924</v>
+        <v>45166</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7495,8 +7450,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7533,14 +7493,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7552,8 +7512,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7590,14 +7555,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45446</v>
+        <v>45789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,8 +7574,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7647,14 +7617,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7668,11 +7638,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7709,14 +7679,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45359</v>
+        <v>45905</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,13 +7698,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>12.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7771,14 +7736,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7791,7 +7756,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7828,14 +7793,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44517</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7848,7 +7813,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>17.2</v>
+        <v>10.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7885,14 +7850,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>45148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7906,11 +7871,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7947,14 +7912,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45835</v>
+        <v>45148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7966,8 +7931,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8004,14 +7974,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 63799-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45551</v>
+        <v>45278</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8023,8 +7993,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>10.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8061,14 +8036,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45635</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8080,13 +8055,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8123,14 +8093,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45415</v>
+        <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8148,7 +8118,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8185,14 +8155,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45932</v>
+        <v>45924</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8205,7 +8175,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8242,14 +8212,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8261,8 +8231,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8299,14 +8274,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44441</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8316,6 +8291,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -8356,14 +8336,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8376,7 +8356,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8413,14 +8393,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>45932</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8433,7 +8413,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8470,14 +8450,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45978.60586805556</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8489,8 +8469,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8527,14 +8512,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45002</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8546,13 +8531,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8589,14 +8569,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8609,7 +8589,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8646,14 +8626,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45251</v>
+        <v>45932</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8666,7 +8646,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8703,14 +8683,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45148</v>
+        <v>44441</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8722,13 +8702,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8765,14 +8740,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45124</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8784,13 +8759,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8827,14 +8797,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8848,11 +8818,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8889,14 +8859,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45527</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8908,13 +8878,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8951,14 +8916,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45527</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8970,13 +8935,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9013,14 +8973,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45600</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9033,7 +8993,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.9</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9070,14 +9030,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9089,8 +9049,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9127,14 +9092,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45632</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9147,7 +9112,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9184,14 +9149,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45600</v>
+        <v>45950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9204,7 +9169,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9241,14 +9206,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45950</v>
+        <v>45526</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9258,6 +9223,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -9298,14 +9268,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9318,7 +9288,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9355,14 +9325,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44881</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9375,7 +9345,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9419,7 +9389,7 @@
         <v>45952.35089120371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9474,14 +9444,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>45049.555625</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9494,7 +9464,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9531,14 +9501,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44662</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9550,8 +9520,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9588,14 +9563,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44417</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9608,7 +9583,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>14.8</v>
+        <v>4.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9645,14 +9620,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9665,7 +9640,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9702,14 +9677,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44523</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9722,7 +9697,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9759,14 +9734,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45241</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9779,7 +9754,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9816,14 +9791,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9836,7 +9811,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>10.3</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9873,14 +9848,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9893,7 +9868,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9930,14 +9905,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 23451-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>45453.64371527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9925,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9987,14 +9962,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45278</v>
+        <v>45099</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10006,13 +9981,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>10.5</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10049,14 +10019,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45723</v>
+        <v>45085</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10069,7 +10039,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10106,14 +10076,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45287</v>
+        <v>45127</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10127,11 +10097,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10168,14 +10138,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>45593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10187,8 +10157,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10225,14 +10200,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44524</v>
+        <v>45415</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10244,8 +10219,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10282,14 +10262,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45623</v>
+        <v>44461</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10302,7 +10282,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10339,14 +10319,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45497</v>
+        <v>45124</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10358,8 +10338,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10396,14 +10381,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45148</v>
+        <v>45971</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10415,13 +10400,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2.2</v>
+        <v>13.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10458,14 +10438,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>45971</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10478,7 +10458,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10515,14 +10495,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45447</v>
+        <v>45971</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10534,13 +10514,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10577,14 +10552,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>45593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10597,7 +10572,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10634,14 +10609,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44970</v>
+        <v>45971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10654,7 +10629,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10691,14 +10666,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45477</v>
+        <v>45971</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10711,7 +10686,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10748,14 +10723,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>45971</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10743,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.6</v>
+        <v>14.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10805,14 +10780,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45971</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10800,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>14.2</v>
+        <v>11</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10862,14 +10837,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45404</v>
+        <v>44970</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10857,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10919,14 +10894,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45971</v>
+        <v>45439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10939,7 +10914,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>13.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10976,14 +10951,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45971</v>
+        <v>45701</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10995,8 +10970,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11033,14 +11013,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45971</v>
+        <v>45127</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11052,8 +11032,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11090,14 +11075,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45971</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11110,7 +11095,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11147,14 +11132,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45744</v>
+        <v>44578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11166,8 +11151,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11204,14 +11194,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45667</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11214,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11261,14 +11251,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45119</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11280,13 +11270,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11323,14 +11308,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>45551</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11343,7 +11328,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11380,14 +11365,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45439</v>
+        <v>45905</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11399,8 +11384,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>11.3</v>
+        <v>0.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11437,14 +11427,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11457,7 +11447,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11494,14 +11484,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>44581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11514,7 +11504,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11551,14 +11541,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11570,8 +11560,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11608,14 +11603,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44697</v>
+        <v>45614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11628,7 +11623,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11665,14 +11660,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45905</v>
+        <v>44697</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11684,13 +11679,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11727,14 +11717,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11746,8 +11736,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11784,14 +11779,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44902</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11803,8 +11798,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11841,14 +11841,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>45558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11860,13 +11860,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11903,14 +11898,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44987</v>
+        <v>45765</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11923,7 +11918,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11960,14 +11955,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11979,13 +11974,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12022,14 +12012,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>46030</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12041,13 +12031,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12084,14 +12069,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12103,13 +12088,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12146,14 +12126,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>44638</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12166,7 +12146,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12203,14 +12183,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45558</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12223,7 +12203,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12260,14 +12240,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44880</v>
+        <v>45148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12281,11 +12261,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>17.7</v>
+        <v>0.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12322,14 +12302,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>45614</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12379,14 +12359,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46030</v>
+        <v>45709</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12398,8 +12378,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12436,14 +12421,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44894</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12455,13 +12440,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12498,14 +12478,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12518,7 +12498,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12555,14 +12535,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45237</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12574,8 +12554,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12612,14 +12597,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44550</v>
+        <v>45762</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12631,8 +12616,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12669,14 +12659,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>44823</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12689,7 +12679,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>16.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12726,14 +12716,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44970</v>
+        <v>45279</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12746,7 +12736,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12783,14 +12773,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>45442</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12803,7 +12793,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12840,14 +12830,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45478.305</v>
+        <v>45525</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12865,7 +12855,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12902,14 +12892,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45399</v>
+        <v>45378</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12921,8 +12911,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12959,14 +12954,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12979,7 +12974,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13016,14 +13011,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45272</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13036,7 +13031,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13073,14 +13068,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44876</v>
+        <v>45237</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13093,7 +13088,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13130,14 +13125,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>44550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13150,7 +13145,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13187,14 +13182,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45148</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13206,13 +13201,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13249,14 +13239,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44578</v>
+        <v>44915</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13268,13 +13258,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13311,14 +13296,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13330,13 +13315,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>6.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13373,14 +13353,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45442</v>
+        <v>45567</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13392,8 +13372,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>2.7</v>
+        <v>9.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13430,14 +13415,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>45978</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13450,7 +13435,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13487,14 +13472,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13507,7 +13492,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13544,14 +13529,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13564,7 +13549,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13601,14 +13586,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44823</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13621,7 +13606,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>16.5</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13658,14 +13643,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44638</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13678,7 +13663,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13715,14 +13700,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45765</v>
+        <v>45439</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13735,7 +13720,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.8</v>
+        <v>11.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13772,14 +13757,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>44970</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13791,13 +13776,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13834,14 +13814,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45274</v>
+        <v>45127</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13853,8 +13833,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13891,14 +13876,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44915</v>
+        <v>44812</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13911,7 +13896,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13948,14 +13933,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>44881</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13968,7 +13953,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14005,14 +13990,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44973</v>
+        <v>45078</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14062,14 +14047,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45127</v>
+        <v>44417</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14081,13 +14066,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>5.9</v>
+        <v>14.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14124,14 +14104,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45127</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14145,11 +14125,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14186,14 +14166,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44662</v>
+        <v>44902</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14206,7 +14186,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14243,14 +14223,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45533</v>
+        <v>44662</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14263,7 +14243,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14300,14 +14280,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45593</v>
+        <v>45241</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,13 +14299,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>7.9</v>
+        <v>2.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14362,14 +14337,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45378</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14387,7 +14362,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14424,14 +14399,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45614</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14444,7 +14419,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14481,14 +14456,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44542</v>
+        <v>45147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,8 +14475,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14538,14 +14518,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45078</v>
+        <v>45478.305</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,8 +14537,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14595,14 +14580,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45600</v>
+        <v>44973</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,13 +14599,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14657,14 +14637,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14676,13 +14656,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14719,14 +14694,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>44987</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14739,7 +14714,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14776,14 +14751,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45085</v>
+        <v>44944</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14796,7 +14771,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14833,14 +14808,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44812</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14853,7 +14828,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14890,14 +14865,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45526</v>
+        <v>45124</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14911,7 +14886,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G240" t="n">
@@ -14952,14 +14927,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45127</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14977,7 +14952,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15014,14 +14989,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45709</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15035,11 +15010,11 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15076,14 +15051,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>44796</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15096,7 +15071,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15133,14 +15108,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45099</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15153,7 +15128,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15190,14 +15165,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45632</v>
+        <v>45667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15210,7 +15185,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15247,14 +15222,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15267,7 +15242,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15304,14 +15279,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45593</v>
+        <v>45337</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15324,7 +15299,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15361,14 +15336,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44902</v>
+        <v>45447</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15380,8 +15355,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15418,14 +15398,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45723</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15438,7 +15418,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15475,14 +15455,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44535</v>
+        <v>45723</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15495,7 +15475,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15532,14 +15512,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>45287</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15551,8 +15531,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>6.7</v>
+        <v>11.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15589,14 +15574,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>44747</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15609,7 +15594,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15646,14 +15631,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44581</v>
+        <v>45404</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15666,7 +15651,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15703,14 +15688,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>45744</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15722,13 +15707,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15765,14 +15745,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45124</v>
+        <v>45716</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15786,11 +15766,11 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15827,14 +15807,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45497</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15847,7 +15827,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15884,14 +15864,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>45632</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15904,7 +15884,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15941,14 +15921,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 6947-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45701</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15962,11 +15942,11 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16003,14 +15983,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16023,7 +16003,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16060,14 +16040,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44461</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16080,7 +16060,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16117,14 +16097,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44796</v>
+        <v>45530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16136,8 +16116,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16174,14 +16159,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>45789</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16193,8 +16178,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16231,14 +16221,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45147</v>
+        <v>45789</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16252,11 +16242,11 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16293,14 +16283,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44916</v>
+        <v>45789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16312,8 +16302,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16350,14 +16345,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45127</v>
+        <v>45789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16371,11 +16366,11 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16412,14 +16407,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45049.555625</v>
+        <v>45355</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16432,7 +16427,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16469,14 +16464,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>45793</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,8 +16483,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16526,14 +16526,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45530</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16547,11 +16547,11 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16588,14 +16588,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16607,8 +16607,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16645,14 +16650,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45789</v>
+        <v>45055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16664,13 +16669,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16707,14 +16707,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45789</v>
+        <v>45618</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16726,13 +16726,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16769,14 +16764,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45789</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16794,7 +16789,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16831,14 +16826,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45789</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16856,7 +16851,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16893,14 +16888,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45793</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16918,7 +16913,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16955,14 +16950,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45355</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16974,8 +16969,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 34758-2024</t>
+          <t>A 3713-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45526</v>
+        <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,22 +678,17 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -708,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -717,211 +712,216 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Åkergroda
+Mindre vattensalamander
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 3713-2024 artfynd.xlsx", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 3713-2024 karta.png", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 3713-2024 FSC-klagomål.docx", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 3713-2024 FSC-klagomål mail.docx", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 3713-2024 tillsynsbegäran.docx", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 3713-2024 tillsynsbegäran mail.docx", "A 3713-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 5766-2026</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>46051.63847222222</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Nästrot
+Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 34758-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Dofttaggsvamp
 Fjällig taggsvamp s.str.
 Blåsippa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 3713-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45321.46277777778</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Mindre vattensalamander
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 3713-2024 artfynd.xlsx", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 3713-2024 karta.png", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 3713-2024 FSC-klagomål.docx", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 3713-2024 FSC-klagomål mail.docx", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 3713-2024 tillsynsbegäran.docx", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 3713-2024 tillsynsbegäran mail.docx", "A 3713-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 5766-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46051.63847222222</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Nästrot
-Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 35334-2024</t>
+          <t>A 60736-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45530</v>
+        <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,13 +1300,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1315,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1340,31 +1335,35 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
         <v/>
       </c>
     </row>
@@ -1378,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1462,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,14 +1545,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 60736-2022</t>
+          <t>A 35334-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44913</v>
+        <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1565,8 +1564,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1575,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1600,35 +1604,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2119,14 +2119,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 24092-2021</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44336</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7828-2022</t>
+          <t>A 24092-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44608</v>
+        <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2233,14 +2233,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 7828-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3688,14 +3688,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 23020-2022</t>
+          <t>A 45736-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44719.37579861111</v>
+        <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3745,14 +3745,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46701-2021</t>
+          <t>A 45738-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44445</v>
+        <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3802,14 +3802,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 72240-2021</t>
+          <t>A 73265-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44544</v>
+        <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45736-2021</t>
+          <t>A 23020-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44441.41650462963</v>
+        <v>44719.37579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>4.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45738-2021</t>
+          <t>A 46701-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44441</v>
+        <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3973,14 +3973,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 73265-2021</t>
+          <t>A 72240-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44550.83846064815</v>
+        <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4030,14 +4030,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44272</v>
+        <v>45831</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4087,14 +4087,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45821</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4106,13 +4106,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4149,14 +4144,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4169,7 +4164,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4206,14 +4201,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45723</v>
+        <v>45894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4226,7 +4221,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4263,14 +4258,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 25094-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45533</v>
+        <v>45462</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4283,7 +4278,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4320,14 +4315,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 23451-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44542</v>
+        <v>45453.64371527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4340,7 +4335,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>6.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4377,14 +4372,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45091</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4396,8 +4391,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4434,14 +4434,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44876</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4491,14 +4491,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44894</v>
+        <v>45897</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,11 +4512,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.199999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4553,14 +4553,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45446</v>
+        <v>44461</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4610,14 +4610,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25094-2024</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45462</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4667,14 +4667,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45274</v>
+        <v>44796</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4724,14 +4724,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 6947-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44523</v>
+        <v>45701</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4743,8 +4743,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4781,14 +4786,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45147</v>
+        <v>45525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4802,11 +4807,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4843,14 +4848,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45530</v>
+        <v>45166</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4868,7 +4873,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4905,14 +4910,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4924,8 +4929,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4962,14 +4972,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45476</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4982,7 +4992,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5019,14 +5029,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44535</v>
+        <v>45567</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5038,8 +5048,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>5.3</v>
+        <v>9.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5076,14 +5091,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45527</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5095,13 +5110,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5138,14 +5148,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44662</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5158,7 +5168,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>7.8</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5195,14 +5205,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>44970</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5215,7 +5225,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5252,14 +5262,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45148</v>
+        <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5277,7 +5287,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5314,14 +5324,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>44916</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5334,7 +5344,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5371,14 +5381,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44517</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5391,7 +5401,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>17.2</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5428,14 +5438,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45272</v>
+        <v>45127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5447,8 +5457,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5485,14 +5500,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45527</v>
+        <v>45891</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5506,11 +5521,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5547,14 +5562,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44880</v>
+        <v>45049.555625</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5566,13 +5581,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>17.7</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5609,14 +5619,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45127</v>
+        <v>44747</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5628,13 +5638,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5671,14 +5676,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45127</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5690,13 +5695,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5733,14 +5733,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>45002</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5790,14 +5790,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45399</v>
+        <v>45614</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5847,14 +5847,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45251</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5904,14 +5904,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45012</v>
+        <v>45905</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5923,13 +5923,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5966,14 +5961,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44916</v>
+        <v>45789</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5985,8 +5980,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6023,14 +6023,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>45789</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6042,8 +6042,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6080,14 +6085,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6099,8 +6104,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6137,14 +6147,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44970</v>
+        <v>45762</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6156,8 +6166,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6194,14 +6209,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6214,7 +6229,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6251,14 +6266,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45477</v>
+        <v>45789</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6268,6 +6283,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -6308,14 +6328,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>45789</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6327,8 +6347,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6365,14 +6390,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45835</v>
+        <v>45789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6384,8 +6409,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6422,14 +6452,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>45635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6442,7 +6472,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6479,14 +6509,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>45905</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6498,13 +6528,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>12.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6541,14 +6566,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44269</v>
+        <v>45789</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6566,7 +6591,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>18.8</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6603,14 +6628,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45894</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6622,8 +6647,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6660,14 +6690,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45891</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6679,13 +6709,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6722,14 +6747,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45821</v>
+        <v>45793</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6741,8 +6766,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.3</v>
+        <v>5.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6779,14 +6809,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6804,7 +6834,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6841,14 +6871,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45831</v>
+        <v>45091</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6861,7 +6891,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6898,14 +6928,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45632</v>
+        <v>45530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6917,8 +6947,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6955,14 +6990,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45897</v>
+        <v>45355</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6974,13 +7009,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7017,14 +7047,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45359</v>
+        <v>45148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7042,7 +7072,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7079,14 +7109,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45623</v>
+        <v>45593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7099,7 +7129,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7136,14 +7166,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44902</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7155,8 +7185,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7193,14 +7228,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45119</v>
+        <v>45905</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7218,7 +7253,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7255,14 +7290,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45600</v>
+        <v>45012</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7280,7 +7315,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7317,14 +7352,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44524</v>
+        <v>45147</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7336,8 +7371,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7374,14 +7414,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45905</v>
+        <v>44269</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7393,8 +7433,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>18.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7431,14 +7476,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45166</v>
+        <v>45618</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7450,13 +7495,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7493,14 +7533,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45789</v>
+        <v>45055</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7512,13 +7552,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7555,14 +7590,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45789</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7580,7 +7615,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.9</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7617,14 +7652,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7638,11 +7673,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7679,14 +7714,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45905</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7698,8 +7733,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>12.5</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7736,14 +7776,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45593</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7755,8 +7795,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7793,14 +7838,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45924</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7813,7 +7858,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>10.3</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7850,14 +7895,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45148</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7871,11 +7916,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7912,14 +7957,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45148</v>
+        <v>45439</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7931,13 +7976,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7974,14 +8014,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45278</v>
+        <v>44944</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7993,13 +8033,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>10.5</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8036,14 +8071,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45635</v>
+        <v>44272</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8056,7 +8091,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8093,14 +8128,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45905</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8118,7 +8153,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8155,14 +8190,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45924</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8175,7 +8210,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8212,14 +8247,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>45701</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,7 +8272,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8274,14 +8309,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>45716</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8336,14 +8371,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8355,8 +8390,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8393,14 +8433,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45932</v>
+        <v>45337</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8413,7 +8453,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8450,14 +8490,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8469,13 +8509,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8512,14 +8547,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45002</v>
+        <v>45279</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8567,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8569,14 +8604,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8588,8 +8623,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8626,14 +8666,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45932</v>
+        <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,8 +8685,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8683,14 +8728,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44441</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,7 +8748,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8740,14 +8785,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8759,8 +8804,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8797,14 +8847,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45476</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,13 +8866,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8859,14 +8904,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8924,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8916,14 +8961,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>45446</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8936,7 +8981,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8973,14 +9018,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45600</v>
+        <v>45932</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8993,7 +9038,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9030,14 +9075,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45127</v>
+        <v>45835</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9049,13 +9094,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9092,14 +9132,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>45359</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9111,8 +9151,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9149,14 +9194,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45950</v>
+        <v>44517</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9169,7 +9214,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>17.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9206,14 +9251,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45526</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9225,13 +9270,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9268,14 +9308,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>45932</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9288,7 +9328,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9325,14 +9365,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45551</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9345,7 +9385,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9382,14 +9422,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>45415</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9447,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>9.1</v>
+        <v>4.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9444,14 +9484,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45049.555625</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9464,7 +9504,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9501,14 +9541,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>44441</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9520,13 +9560,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9563,14 +9598,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9582,8 +9617,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9620,14 +9660,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9640,7 +9680,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9677,14 +9717,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45251</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9697,7 +9737,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9734,14 +9774,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>45148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9753,8 +9793,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>7.5</v>
+        <v>0.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9791,14 +9836,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>45124</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9810,8 +9855,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9848,14 +9898,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9867,8 +9917,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9905,14 +9960,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 23451-2024</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45453.64371527778</v>
+        <v>45527</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9924,8 +9979,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9962,14 +10022,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45099</v>
+        <v>45527</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9981,8 +10041,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10019,14 +10084,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45085</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10039,7 +10104,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.2</v>
+        <v>6.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10076,14 +10141,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45127</v>
+        <v>45632</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10095,13 +10160,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10138,14 +10198,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45593</v>
+        <v>45600</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10157,13 +10217,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>7.9</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10200,14 +10255,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45415</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10219,13 +10274,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10262,14 +10312,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44461</v>
+        <v>44881</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10282,7 +10332,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10319,14 +10369,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45124</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10338,13 +10388,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10381,14 +10426,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45971</v>
+        <v>44662</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10401,7 +10446,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>13.6</v>
+        <v>3.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10438,14 +10483,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45971</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10458,7 +10503,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10495,14 +10540,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45971</v>
+        <v>44417</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10515,7 +10560,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.3</v>
+        <v>14.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10552,14 +10597,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45593</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10572,7 +10617,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7</v>
+        <v>10.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10609,14 +10654,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 63799-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45971</v>
+        <v>45278</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10628,8 +10673,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>10.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10666,14 +10716,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45971</v>
+        <v>45950</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10686,7 +10736,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10723,14 +10773,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45971</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10743,7 +10793,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>14.2</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10780,14 +10830,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>44523</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10800,7 +10850,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>11</v>
+        <v>4.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10837,14 +10887,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44970</v>
+        <v>45241</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10857,7 +10907,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10894,14 +10944,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45439</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10913,8 +10963,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10951,14 +11006,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45701</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10970,13 +11025,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11013,14 +11063,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45127</v>
+        <v>45723</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11032,13 +11082,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11075,14 +11120,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>45287</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11094,8 +11139,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>11.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11132,14 +11182,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44578</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11151,13 +11201,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11194,14 +11239,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11214,7 +11259,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11251,14 +11296,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>45623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11271,7 +11316,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11308,14 +11353,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45551</v>
+        <v>45497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11328,7 +11373,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11365,14 +11410,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45905</v>
+        <v>45477</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11384,13 +11429,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11427,14 +11467,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>45148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11446,8 +11486,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11484,14 +11529,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44581</v>
+        <v>45447</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11503,8 +11548,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11541,14 +11591,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11560,13 +11610,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11603,14 +11648,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45614</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11660,14 +11705,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44697</v>
+        <v>44970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11680,7 +11725,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11717,14 +11762,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>45404</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11736,13 +11781,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11779,14 +11819,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45744</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11798,13 +11838,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11841,14 +11876,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45558</v>
+        <v>45667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11861,7 +11896,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11898,14 +11933,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45765</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11918,7 +11953,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11955,14 +11990,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>45119</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11974,8 +12009,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12012,14 +12052,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46030</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12032,7 +12072,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12069,14 +12109,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>45439</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12089,7 +12129,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>11.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12126,14 +12166,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44638</v>
+        <v>45971</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12146,7 +12186,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12183,14 +12223,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>45971</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12203,7 +12243,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>14.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12240,14 +12280,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45148</v>
+        <v>45971</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12259,13 +12299,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>0.3</v>
+        <v>13.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12302,14 +12337,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45614</v>
+        <v>45971</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12322,7 +12357,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12359,14 +12394,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45709</v>
+        <v>45971</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12378,13 +12413,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12421,14 +12451,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>45971</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12441,7 +12471,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12478,14 +12508,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>44697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12498,7 +12528,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12535,14 +12565,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12554,13 +12584,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12597,14 +12622,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45762</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12616,13 +12641,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12659,14 +12679,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44823</v>
+        <v>44902</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12679,7 +12699,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12716,14 +12736,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45279</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12736,7 +12756,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12773,14 +12793,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45442</v>
+        <v>44987</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12813,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12830,14 +12850,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45525</v>
+        <v>45905</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12851,11 +12871,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12892,14 +12912,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45378</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12917,7 +12937,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12954,14 +12974,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12974,7 +12994,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13011,14 +13031,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13030,8 +13050,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13068,14 +13093,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45237</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13087,8 +13112,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13125,14 +13155,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44550</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13144,8 +13174,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>7.9</v>
+        <v>4.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13182,14 +13217,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13202,7 +13237,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13239,14 +13274,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44915</v>
+        <v>45558</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13259,7 +13294,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13296,14 +13331,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>44880</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13315,8 +13350,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>6.7</v>
+        <v>17.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13353,14 +13393,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45567</v>
+        <v>44894</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13378,7 +13418,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13415,14 +13455,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45978</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13435,7 +13475,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13472,14 +13512,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>46030</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13492,7 +13532,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13529,14 +13569,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13549,7 +13589,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13586,14 +13626,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>45237</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13643,14 +13683,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>44550</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13663,7 +13703,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.9</v>
+        <v>7.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13700,14 +13740,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45439</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13720,7 +13760,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>11.3</v>
+        <v>0.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13757,14 +13797,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
         <v>44970</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13777,7 +13817,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13814,14 +13854,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45127</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13833,13 +13873,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13876,14 +13911,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44812</v>
+        <v>45478.305</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13895,8 +13930,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13933,14 +13973,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44881</v>
+        <v>45399</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13953,7 +13993,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13990,14 +14030,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45078</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14010,7 +14050,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14047,14 +14087,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44417</v>
+        <v>45272</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14067,7 +14107,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>14.8</v>
+        <v>2.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14104,14 +14144,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14123,13 +14163,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14166,14 +14201,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44902</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14221,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14223,14 +14258,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44662</v>
+        <v>45148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14242,8 +14277,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14280,14 +14320,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45241</v>
+        <v>44578</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14299,8 +14339,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14337,14 +14382,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14358,11 +14403,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14399,14 +14444,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14419,7 +14464,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14456,14 +14501,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45147</v>
+        <v>44823</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14475,13 +14520,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>16.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14518,14 +14558,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45478.305</v>
+        <v>44638</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14537,13 +14577,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14580,14 +14615,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44973</v>
+        <v>45765</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14600,7 +14635,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14637,14 +14672,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>45442</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14657,7 +14692,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14694,14 +14729,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44987</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14713,8 +14748,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>11</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14751,14 +14791,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44944</v>
+        <v>45274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14771,7 +14811,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14808,14 +14848,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14828,7 +14868,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14865,14 +14905,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45124</v>
+        <v>44915</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14884,13 +14924,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14927,14 +14962,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,13 +14981,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14989,14 +15019,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15008,13 +15038,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>11</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15051,14 +15076,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44796</v>
+        <v>44973</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15071,7 +15096,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15108,14 +15133,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>45127</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,8 +15152,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15165,14 +15195,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45667</v>
+        <v>45127</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,8 +15214,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15222,14 +15257,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>44662</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15242,7 +15277,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15279,14 +15314,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45337</v>
+        <v>45533</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15299,7 +15334,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15336,14 +15371,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45447</v>
+        <v>45593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15361,7 +15396,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.9</v>
+        <v>7.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15398,14 +15433,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45378</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,8 +15452,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15455,14 +15495,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45723</v>
+        <v>45614</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15475,7 +15515,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15512,14 +15552,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45287</v>
+        <v>44542</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,13 +15571,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>11.3</v>
+        <v>4.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15574,14 +15609,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44747</v>
+        <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15594,7 +15629,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15631,14 +15666,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45404</v>
+        <v>45978</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15651,7 +15686,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15688,14 +15723,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45744</v>
+        <v>45600</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15707,8 +15742,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15745,14 +15785,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45716</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15766,11 +15806,11 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15807,14 +15847,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45497</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15827,7 +15867,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15864,14 +15904,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45632</v>
+        <v>45085</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15884,7 +15924,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15921,14 +15961,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 6947-2025</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45701</v>
+        <v>44812</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15940,13 +15980,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15983,14 +16018,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>45526</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16002,8 +16037,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16040,14 +16080,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45127</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16059,8 +16099,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16097,14 +16142,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45530</v>
+        <v>45709</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16118,11 +16163,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16159,14 +16204,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45789</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16178,13 +16223,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16221,14 +16261,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45789</v>
+        <v>45099</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16240,13 +16280,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16283,14 +16318,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45789</v>
+        <v>45632</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16302,13 +16337,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16345,14 +16375,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45789</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16364,13 +16394,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16407,14 +16432,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45355</v>
+        <v>45593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16427,7 +16452,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16464,14 +16489,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45793</v>
+        <v>44902</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16483,13 +16508,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16526,14 +16546,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>45723</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,13 +16565,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16588,14 +16603,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>44535</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16607,13 +16622,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16650,14 +16660,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45055</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16670,7 +16680,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.7</v>
+        <v>6.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16707,14 +16717,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45618</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16727,7 +16737,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16764,14 +16774,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>44581</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16783,13 +16793,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16826,14 +16831,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16856,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16888,14 +16893,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>45124</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16909,11 +16914,11 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16950,14 +16955,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16969,13 +16974,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 3713-2024</t>
+          <t>A 34758-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45321.46277777778</v>
+        <v>45526</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,17 +678,22 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -703,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -712,227 +717,222 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp
+Fjällig taggsvamp s.str.
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 3713-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45321.46277777778</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Åkergroda
 Mindre vattensalamander
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 3713-2024 artfynd.xlsx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 3713-2024 karta.png", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 3713-2024 FSC-klagomål.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 3713-2024 FSC-klagomål mail.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 3713-2024 tillsynsbegäran.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 3713-2024 tillsynsbegäran mail.docx", "A 3713-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 5766-2026</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>46051.63847222222</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Nästrot
 Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 34758-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Fjällig taggsvamp s.str.
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 51072-2021</t>
+          <t>A 66072-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44461</v>
+        <v>44517</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -944,17 +944,22 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>19.6</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -969,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -979,126 +984,121 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 66072-2021 artfynd.xlsx", "A 66072-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 66072-2021 karta.png", "A 66072-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 66072-2021 FSC-klagomål.docx", "A 66072-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 66072-2021 FSC-klagomål mail.docx", "A 66072-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 66072-2021 tillsynsbegäran.docx", "A 66072-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 66072-2021 tillsynsbegäran mail.docx", "A 66072-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 51072-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44461</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Brun gräsfjäril
 Violettkantad guldvinge</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 51072-2021 artfynd.xlsx", "A 51072-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 51072-2021 karta.png", "A 51072-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 51072-2021 FSC-klagomål.docx", "A 51072-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 51072-2021 FSC-klagomål mail.docx", "A 51072-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 51072-2021 tillsynsbegäran.docx", "A 51072-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 51072-2021 tillsynsbegäran mail.docx", "A 51072-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 66072-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44517</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 66072-2021 artfynd.xlsx", "A 66072-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 66072-2021 karta.png", "A 66072-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 66072-2021 FSC-klagomål.docx", "A 66072-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 66072-2021 FSC-klagomål mail.docx", "A 66072-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 66072-2021 tillsynsbegäran.docx", "A 66072-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 66072-2021 tillsynsbegäran mail.docx", "A 66072-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60736-2022</t>
+          <t>A 14114-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44913</v>
+        <v>44651.3877199074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,11 +1300,16 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>25.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,35 +1340,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Sotnätfjäril</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 14114-2022 artfynd.xlsx", "A 14114-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 14114-2022 karta.png", "A 14114-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 14114-2022 FSC-klagomål.docx", "A 14114-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 14114-2022 FSC-klagomål mail.docx", "A 14114-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 14114-2022 tillsynsbegäran.docx", "A 14114-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 14114-2022 tillsynsbegäran mail.docx", "A 14114-2022")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1378,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1455,14 +1456,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 14114-2022</t>
+          <t>A 35334-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44651.3877199074</v>
+        <v>45530</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1476,20 +1477,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>25.1</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1504,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1514,45 +1515,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Sotnätfjäril</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 14114-2022 artfynd.xlsx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 14114-2022 karta.png", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 14114-2022 FSC-klagomål.docx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 14114-2022 FSC-klagomål mail.docx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 14114-2022 tillsynsbegäran.docx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 14114-2022 tillsynsbegäran mail.docx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35334-2024</t>
+          <t>A 60736-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45530</v>
+        <v>44913</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1564,13 +1565,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1579,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1594,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1604,31 +1600,35 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
         <v/>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1891,14 +1891,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 72991-2021</t>
+          <t>A 45742-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44549.80984953704</v>
+        <v>44441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 45742-2021</t>
+          <t>A 9349-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44441</v>
+        <v>44616</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2005,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 9349-2022</t>
+          <t>A 72991-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44616</v>
+        <v>44549.80984953704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,14 +2637,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 56532-2021</t>
+          <t>A 53913-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44480</v>
+        <v>44880.86898148148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2694,14 +2694,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 5758-2022</t>
+          <t>A 51296-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44596</v>
+        <v>44868</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2713,13 +2713,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2756,14 +2751,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47436-2021</t>
+          <t>A 2834-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44447</v>
+        <v>44581.43703703704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2776,7 +2771,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2813,14 +2808,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31251-2022</t>
+          <t>A 29507-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44771</v>
+        <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2832,8 +2827,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2870,14 +2870,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48465-2021</t>
+          <t>A 47436-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44452.38961805555</v>
+        <v>44447</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2927,14 +2927,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10765-2022</t>
+          <t>A 7830-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44627.42550925926</v>
+        <v>44608</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2984,14 +2984,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 51296-2022</t>
+          <t>A 66111-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44868</v>
+        <v>44517</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3041,14 +3041,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 29507-2022</t>
+          <t>A 33033-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44753</v>
+        <v>44785.36472222222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,11 +3062,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7830-2022</t>
+          <t>A 26154-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44608</v>
+        <v>44735</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3122,8 +3122,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3160,14 +3165,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26154-2022</t>
+          <t>A 31251-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44735</v>
+        <v>44771</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3179,13 +3184,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3222,14 +3222,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53913-2022</t>
+          <t>A 50060-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44880.86898148148</v>
+        <v>44865</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3279,14 +3279,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2834-2022</t>
+          <t>A 56532-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44581.43703703704</v>
+        <v>44480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3336,14 +3336,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 66111-2021</t>
+          <t>A 29520-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44517</v>
+        <v>44753</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3355,8 +3355,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3393,14 +3398,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33033-2022</t>
+          <t>A 5758-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44785.36472222222</v>
+        <v>44596</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3418,7 +3423,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3455,14 +3460,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 50060-2022</t>
+          <t>A 7289-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44865</v>
+        <v>44606</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3475,7 +3480,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3512,14 +3517,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29520-2022</t>
+          <t>A 48465-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44753</v>
+        <v>44452.38961805555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3531,13 +3536,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3574,14 +3574,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7289-2022</t>
+          <t>A 67198-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44606</v>
+        <v>44523</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3631,14 +3631,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 67198-2021</t>
+          <t>A 25094-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44523</v>
+        <v>45462</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44719.37579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3973,14 +3973,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 72240-2021</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44544</v>
+        <v>45147</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3992,8 +3992,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4030,14 +4035,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45831</v>
+        <v>45530</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4049,8 +4054,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4087,14 +4097,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 72240-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45821</v>
+        <v>44544</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4107,7 +4117,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4144,14 +4154,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>45274</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4164,7 +4174,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4201,14 +4211,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45894</v>
+        <v>44523</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4221,7 +4231,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4258,14 +4268,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25094-2024</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45462</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4277,8 +4287,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4315,14 +4330,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23451-2024</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45453.64371527778</v>
+        <v>44272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4335,7 +4350,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4372,14 +4387,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4391,13 +4406,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4434,14 +4444,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>44535</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4454,7 +4464,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4491,14 +4501,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45897</v>
+        <v>45526</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4512,11 +4522,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4553,14 +4563,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44461</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4573,7 +4583,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4610,14 +4620,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 10765-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>44627.42550925926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4630,7 +4640,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4667,14 +4677,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44796</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4687,7 +4697,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4724,14 +4734,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6947-2025</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45701</v>
+        <v>45723</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4743,13 +4753,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4786,14 +4791,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45525</v>
+        <v>45527</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4811,7 +4816,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4848,14 +4853,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45166</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4867,13 +4872,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>44662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,13 +4929,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4972,14 +4967,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>45533</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4992,7 +4987,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5029,14 +5024,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45567</v>
+        <v>45049.555625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5048,13 +5043,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>9.4</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5091,14 +5081,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45091</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5111,7 +5101,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5148,14 +5138,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>44542</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5168,7 +5158,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5205,14 +5195,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44970</v>
+        <v>45148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5224,8 +5214,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5262,14 +5257,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45147</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5287,7 +5282,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5324,14 +5319,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44916</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5344,7 +5339,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5381,14 +5376,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5401,7 +5396,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5438,14 +5433,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45127</v>
+        <v>44517</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5457,13 +5452,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>17.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5500,14 +5490,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45891</v>
+        <v>44876</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5519,13 +5509,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5562,14 +5547,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45049.555625</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5582,7 +5567,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5619,14 +5604,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44747</v>
+        <v>45272</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5639,7 +5624,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5676,14 +5661,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>45527</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5695,8 +5680,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5733,14 +5723,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45002</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5753,7 +5743,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5790,14 +5780,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45614</v>
+        <v>44894</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5809,8 +5799,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5847,14 +5842,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>44880</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5866,8 +5861,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>17.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5904,14 +5904,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45905</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5961,14 +5961,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 23451-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45789</v>
+        <v>45453.64371527778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5980,13 +5980,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6023,14 +6018,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45789</v>
+        <v>45127</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6044,11 +6039,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6085,14 +6080,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45530</v>
+        <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6110,7 +6105,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6147,14 +6142,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45762</v>
+        <v>45446</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6166,13 +6161,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6209,14 +6199,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45099</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6219,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6266,14 +6256,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45789</v>
+        <v>45085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6285,13 +6275,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6328,14 +6313,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45789</v>
+        <v>45127</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6349,11 +6334,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6390,14 +6375,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45789</v>
+        <v>45593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6415,7 +6400,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6452,14 +6437,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45635</v>
+        <v>44970</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6472,7 +6457,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6509,14 +6494,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45905</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6528,8 +6513,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>12.5</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6566,14 +6556,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45789</v>
+        <v>45055</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6585,13 +6575,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6628,14 +6613,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45399</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6647,13 +6632,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6690,14 +6670,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6709,8 +6689,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6747,14 +6732,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45793</v>
+        <v>44461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6766,13 +6751,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6809,14 +6789,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45618</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6828,13 +6808,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6871,14 +6846,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45091</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6890,8 +6865,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6928,14 +6908,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45530</v>
+        <v>45251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6947,13 +6927,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6990,14 +6965,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45355</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7009,8 +6984,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7047,14 +7027,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45148</v>
+        <v>45012</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7068,11 +7048,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7109,14 +7089,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45593</v>
+        <v>45127</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7128,8 +7108,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7166,14 +7151,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7187,11 +7172,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7228,14 +7213,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45905</v>
+        <v>44916</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7247,13 +7232,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7290,14 +7270,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45012</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7315,7 +7295,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7352,14 +7332,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45147</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7373,11 +7353,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7414,14 +7394,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44269</v>
+        <v>44970</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,13 +7413,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>18.8</v>
+        <v>0.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7476,14 +7451,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45618</v>
+        <v>44812</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7496,7 +7471,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7533,14 +7508,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45055</v>
+        <v>45593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7553,7 +7528,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7590,14 +7565,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7609,13 +7584,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>11</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7652,14 +7622,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>44881</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7671,13 +7641,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7714,14 +7679,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7733,13 +7698,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7776,14 +7736,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7801,7 +7761,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7838,14 +7798,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45924</v>
+        <v>44269</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7857,8 +7817,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>18.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7895,14 +7860,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>44970</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7914,13 +7879,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7964,7 +7924,7 @@
         <v>45439</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8014,14 +7974,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44944</v>
+        <v>45701</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8033,8 +7993,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8071,14 +8036,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44272</v>
+        <v>45127</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8090,8 +8055,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8128,14 +8098,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>44578</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8153,7 +8123,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8190,14 +8160,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45078</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8210,7 +8180,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8247,14 +8217,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45701</v>
+        <v>45551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8266,13 +8236,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8309,14 +8274,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45716</v>
+        <v>45632</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8328,13 +8293,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8371,14 +8331,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>45359</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8392,11 +8352,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8433,14 +8393,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45337</v>
+        <v>45623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8453,7 +8413,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8490,14 +8450,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>44902</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8510,7 +8470,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8547,14 +8507,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45279</v>
+        <v>44417</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8567,7 +8527,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.1</v>
+        <v>14.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8604,14 +8564,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45127</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8625,11 +8585,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8666,14 +8626,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45127</v>
+        <v>44581</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8685,13 +8645,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8728,14 +8683,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>45119</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8747,8 +8702,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8785,14 +8745,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45600</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8806,11 +8766,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8847,14 +8807,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45476</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8867,7 +8827,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8904,14 +8864,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>44524</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8924,7 +8884,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8961,14 +8921,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45446</v>
+        <v>45835</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8981,7 +8941,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9018,14 +8978,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45932</v>
+        <v>45614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9038,7 +8998,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9075,14 +9035,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45835</v>
+        <v>45166</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9094,8 +9054,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9132,14 +9097,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45359</v>
+        <v>44697</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9151,13 +9116,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9194,14 +9154,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44517</v>
+        <v>45558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9214,7 +9174,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>17.2</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9251,14 +9211,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9270,8 +9230,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9308,14 +9273,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45932</v>
+        <v>44902</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9328,7 +9293,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9365,14 +9330,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45551</v>
+        <v>45765</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9385,7 +9350,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9422,14 +9387,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45415</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9441,13 +9406,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9484,14 +9444,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>44662</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9504,7 +9464,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9541,14 +9501,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44441</v>
+        <v>45241</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9561,7 +9521,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9598,14 +9558,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9623,7 +9583,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9660,14 +9620,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9680,7 +9640,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>8.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9717,14 +9677,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45251</v>
+        <v>44638</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9737,7 +9697,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9774,14 +9734,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
         <v>45148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9799,7 +9759,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9836,14 +9796,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45124</v>
+        <v>45593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9855,13 +9815,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9898,14 +9853,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>45614</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9917,13 +9872,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9960,14 +9910,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45527</v>
+        <v>45709</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9985,7 +9935,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10022,14 +9972,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45527</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10041,13 +9991,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10084,14 +10029,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10103,8 +10048,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10141,14 +10091,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45632</v>
+        <v>45148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10160,8 +10110,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10198,14 +10153,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45600</v>
+        <v>45635</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10218,7 +10173,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10255,14 +10210,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10274,8 +10229,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>11</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10312,14 +10272,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44881</v>
+        <v>45762</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10331,8 +10291,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10369,14 +10334,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>44823</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10389,7 +10354,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.7</v>
+        <v>16.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10426,14 +10391,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44662</v>
+        <v>45279</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10446,7 +10411,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.7</v>
+        <v>0.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10483,14 +10448,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10503,7 +10468,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.1</v>
+        <v>10.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10540,14 +10505,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44417</v>
+        <v>45525</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10559,8 +10524,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>14.8</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10597,14 +10567,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10616,8 +10586,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>10.3</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10661,7 +10636,7 @@
         <v>45278</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10716,14 +10691,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45950</v>
+        <v>45237</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10711,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10773,14 +10748,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>44550</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10793,7 +10768,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>7.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10830,14 +10805,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44523</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10850,7 +10825,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10887,14 +10862,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45241</v>
+        <v>45002</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10907,7 +10882,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10944,14 +10919,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>44915</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10963,13 +10938,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>9.1</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11006,14 +10976,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>44441</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11026,7 +10996,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11063,14 +11033,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45723</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11053,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11120,14 +11090,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45287</v>
+        <v>45147</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11141,11 +11111,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11182,14 +11152,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11202,7 +11172,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11239,14 +11209,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44524</v>
+        <v>45478.305</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11258,8 +11228,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11296,14 +11271,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45623</v>
+        <v>45567</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11315,8 +11290,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>9.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11353,14 +11333,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45497</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11373,7 +11353,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11410,14 +11390,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45477</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11430,7 +11410,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11467,14 +11447,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45148</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11486,13 +11466,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11529,14 +11504,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45447</v>
+        <v>44973</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11548,13 +11523,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11591,14 +11561,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>45600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11611,7 +11581,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11648,14 +11618,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>45127</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11665,6 +11635,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -11705,14 +11680,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44970</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11725,7 +11700,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11762,14 +11737,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45404</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11782,7 +11757,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11819,14 +11794,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45744</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11839,7 +11814,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11876,14 +11851,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45667</v>
+        <v>44987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11896,7 +11871,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11933,14 +11908,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>44944</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11953,7 +11928,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11990,14 +11965,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45119</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12009,13 +11984,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12052,14 +12022,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12072,7 +12042,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12109,14 +12079,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45439</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12129,7 +12099,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>11.3</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12166,14 +12136,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45971</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12186,7 +12156,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12223,14 +12193,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45971</v>
+        <v>45477</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12243,7 +12213,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>14.2</v>
+        <v>2.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12280,14 +12250,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45971</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12300,7 +12270,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>13.6</v>
+        <v>2.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12337,14 +12307,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45971</v>
+        <v>45439</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12357,7 +12327,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>11.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12394,14 +12364,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45971</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12414,7 +12384,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12451,14 +12421,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45971</v>
+        <v>45124</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12470,8 +12440,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12508,14 +12483,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44697</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12527,8 +12502,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12565,14 +12545,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12582,6 +12562,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -12622,14 +12607,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>45894</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12642,7 +12627,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12679,14 +12664,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44902</v>
+        <v>44796</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12699,7 +12684,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12736,14 +12721,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>45891</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12755,8 +12740,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12793,14 +12783,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44987</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12813,7 +12803,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12850,14 +12840,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45905</v>
+        <v>45821</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12869,13 +12859,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12912,14 +12897,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12937,7 +12922,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12974,14 +12959,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>45831</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12994,7 +12979,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13031,14 +13016,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>45667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13050,13 +13035,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13093,14 +13073,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13112,13 +13092,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13155,14 +13130,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45897</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13180,7 +13155,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13217,14 +13192,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>45337</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13237,7 +13212,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13274,14 +13249,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45558</v>
+        <v>45447</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13293,8 +13268,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13331,14 +13311,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44880</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13350,13 +13330,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>17.7</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13393,14 +13368,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44894</v>
+        <v>45905</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13412,13 +13387,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13455,14 +13425,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>45723</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13475,7 +13445,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13512,14 +13482,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46030</v>
+        <v>45287</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,8 +13501,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>11.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13569,14 +13544,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>45789</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,8 +13563,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13626,14 +13606,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45237</v>
+        <v>45789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,8 +13625,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13683,14 +13668,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44550</v>
+        <v>45905</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13703,7 +13688,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>7.9</v>
+        <v>12.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13740,14 +13725,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>44747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13760,7 +13745,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13797,14 +13782,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44970</v>
+        <v>45404</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13817,7 +13802,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13854,14 +13839,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>45744</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13874,7 +13859,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13911,14 +13896,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45478.305</v>
+        <v>45716</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13936,7 +13921,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13973,14 +13958,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45399</v>
+        <v>45497</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13993,7 +13978,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14030,14 +14015,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>45632</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14050,7 +14035,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14087,14 +14072,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 6947-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45272</v>
+        <v>45701</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,8 +14091,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14144,14 +14134,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44876</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14164,7 +14154,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14201,14 +14191,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>45905</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14220,8 +14210,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14258,14 +14253,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45148</v>
+        <v>45924</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14277,13 +14272,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14320,14 +14310,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44578</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14345,7 +14335,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14382,14 +14372,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14403,11 +14393,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14444,14 +14434,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14464,7 +14454,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14501,14 +14491,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44823</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14521,7 +14511,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>16.5</v>
+        <v>4.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14558,14 +14548,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44638</v>
+        <v>45530</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14577,8 +14567,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14615,14 +14610,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45765</v>
+        <v>45932</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14635,7 +14630,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14672,14 +14667,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45442</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14691,8 +14686,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14729,14 +14729,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14748,13 +14748,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>11</v>
+        <v>0.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14791,14 +14786,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45274</v>
+        <v>45932</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14811,7 +14806,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14848,14 +14843,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14867,8 +14862,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14905,14 +14905,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44915</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14962,14 +14962,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>45789</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14979,6 +14979,11 @@
       <c r="E241" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G241" t="n">
@@ -15019,14 +15024,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>45789</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15038,8 +15043,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15076,14 +15086,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44973</v>
+        <v>45789</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15095,8 +15105,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15133,14 +15148,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45127</v>
+        <v>45789</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15154,11 +15169,11 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5.9</v>
+        <v>0.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15195,14 +15210,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45127</v>
+        <v>45950</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15214,13 +15229,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15257,14 +15267,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44662</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15277,7 +15287,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>7.8</v>
+        <v>3.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15314,14 +15324,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45533</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15333,8 +15343,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15371,14 +15386,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45593</v>
+        <v>45355</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15390,13 +15405,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>7.9</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15433,14 +15443,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45378</v>
+        <v>45793</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15458,7 +15468,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15495,14 +15505,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45614</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15515,7 +15525,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15552,14 +15562,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44542</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15572,7 +15582,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15609,14 +15619,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45078</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15628,8 +15638,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15666,14 +15681,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45978</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15686,7 +15701,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15723,14 +15738,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45600</v>
+        <v>45971</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15742,13 +15757,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>5.4</v>
+        <v>13.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15785,14 +15795,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>45971</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,13 +15814,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15847,14 +15852,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>45971</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15867,7 +15872,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15904,14 +15909,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45085</v>
+        <v>45971</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15924,7 +15929,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15961,14 +15966,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44812</v>
+        <v>45971</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15981,7 +15986,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16018,14 +16023,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45526</v>
+        <v>45971</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16037,13 +16042,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>1.2</v>
+        <v>14.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16080,14 +16080,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45127</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16099,13 +16099,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16142,14 +16137,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45709</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16161,13 +16156,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16204,14 +16194,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16224,7 +16214,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16261,14 +16251,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45099</v>
+        <v>45905</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16280,8 +16270,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16318,14 +16313,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45632</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16338,7 +16333,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16375,14 +16370,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16394,8 +16389,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16432,14 +16432,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45593</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16451,8 +16451,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16489,14 +16494,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44902</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16508,8 +16513,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16546,14 +16556,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45723</v>
+        <v>46030</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16566,7 +16576,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16603,14 +16613,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44535</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16623,7 +16633,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16660,14 +16670,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16680,7 +16690,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16717,14 +16727,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16737,7 +16747,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16774,14 +16784,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44581</v>
+        <v>45442</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16831,14 +16841,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16850,13 +16860,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16893,14 +16898,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45124</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16912,13 +16917,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16955,14 +16955,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45978</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 34758-2024</t>
+          <t>A 3713-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45526</v>
+        <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,22 +678,17 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -708,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -717,222 +712,227 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Åkergroda
+Mindre vattensalamander
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 3713-2024 artfynd.xlsx", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 3713-2024 karta.png", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 3713-2024 FSC-klagomål.docx", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 3713-2024 FSC-klagomål mail.docx", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 3713-2024 tillsynsbegäran.docx", "A 3713-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 3713-2024 tillsynsbegäran mail.docx", "A 3713-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 5766-2026</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>46051.63847222222</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Nästrot
+Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 34758-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Dofttaggsvamp
 Fjällig taggsvamp s.str.
 Blåsippa</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 3713-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45321.46277777778</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Åkergroda
-Mindre vattensalamander
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 3713-2024 artfynd.xlsx", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 3713-2024 karta.png", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 3713-2024 FSC-klagomål.docx", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 3713-2024 FSC-klagomål mail.docx", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 3713-2024 tillsynsbegäran.docx", "A 3713-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 3713-2024 tillsynsbegäran mail.docx", "A 3713-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 5766-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46051.63847222222</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Nästrot
-Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 66072-2021</t>
+          <t>A 51072-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44517</v>
+        <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -944,22 +944,17 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>19.6</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -974,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -984,121 +979,126 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Brun gräsfjäril
+Violettkantad guldvinge</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 51072-2021 artfynd.xlsx", "A 51072-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 51072-2021 karta.png", "A 51072-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 51072-2021 FSC-klagomål.docx", "A 51072-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 51072-2021 FSC-klagomål mail.docx", "A 51072-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 51072-2021 tillsynsbegäran.docx", "A 51072-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 51072-2021 tillsynsbegäran mail.docx", "A 51072-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 66072-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44517</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 66072-2021 artfynd.xlsx", "A 66072-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 66072-2021 karta.png", "A 66072-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 66072-2021 FSC-klagomål.docx", "A 66072-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 66072-2021 FSC-klagomål mail.docx", "A 66072-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 66072-2021 tillsynsbegäran.docx", "A 66072-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 66072-2021 tillsynsbegäran mail.docx", "A 66072-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 51072-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44461</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Brun gräsfjäril
-Violettkantad guldvinge</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 51072-2021 artfynd.xlsx", "A 51072-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 51072-2021 karta.png", "A 51072-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 51072-2021 FSC-klagomål.docx", "A 51072-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 51072-2021 FSC-klagomål mail.docx", "A 51072-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 51072-2021 tillsynsbegäran.docx", "A 51072-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 51072-2021 tillsynsbegäran mail.docx", "A 51072-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 14114-2022</t>
+          <t>A 60736-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44651.3877199074</v>
+        <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,16 +1300,11 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>25.1</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1340,31 +1335,35 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Sotnätfjäril</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 14114-2022 artfynd.xlsx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 14114-2022 karta.png", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 14114-2022 FSC-klagomål.docx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 14114-2022 FSC-klagomål mail.docx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 14114-2022 tillsynsbegäran.docx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 14114-2022 tillsynsbegäran mail.docx", "A 14114-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
         <v/>
       </c>
     </row>
@@ -1378,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1456,14 +1455,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35334-2024</t>
+          <t>A 14114-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45530</v>
+        <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,21 +1476,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>25.1</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1515,123 +1514,124 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Sotnätfjäril</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 14114-2022 artfynd.xlsx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 14114-2022 karta.png", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 14114-2022 FSC-klagomål.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 14114-2022 FSC-klagomål mail.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 14114-2022 tillsynsbegäran.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 14114-2022 tillsynsbegäran mail.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 35334-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45530</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 60736-2022</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44913</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1891,14 +1891,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45742-2021</t>
+          <t>A 72991-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44441</v>
+        <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1948,14 +1948,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9349-2022</t>
+          <t>A 45742-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44616</v>
+        <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2005,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 72991-2021</t>
+          <t>A 9349-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44549.80984953704</v>
+        <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2637,14 +2637,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 53913-2022</t>
+          <t>A 56532-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44880.86898148148</v>
+        <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2694,14 +2694,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 51296-2022</t>
+          <t>A 5758-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44868</v>
+        <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2713,8 +2713,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2751,14 +2756,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2834-2022</t>
+          <t>A 47436-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44581.43703703704</v>
+        <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2771,7 +2776,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2808,14 +2813,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 29507-2022</t>
+          <t>A 31251-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44753</v>
+        <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2827,13 +2832,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2870,14 +2870,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47436-2021</t>
+          <t>A 48465-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44447</v>
+        <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2927,14 +2927,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7830-2022</t>
+          <t>A 10765-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44608</v>
+        <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2984,14 +2984,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 66111-2021</t>
+          <t>A 51296-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44517</v>
+        <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3041,14 +3041,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33033-2022</t>
+          <t>A 29507-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44785.36472222222</v>
+        <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3062,11 +3062,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26154-2022</t>
+          <t>A 7830-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44735</v>
+        <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3122,13 +3122,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3165,14 +3160,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31251-2022</t>
+          <t>A 26154-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44771</v>
+        <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3184,8 +3179,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3222,14 +3222,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 50060-2022</t>
+          <t>A 53913-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44865</v>
+        <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3279,14 +3279,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 56532-2021</t>
+          <t>A 2834-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44480</v>
+        <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3336,14 +3336,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 29520-2022</t>
+          <t>A 66111-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44753</v>
+        <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3355,13 +3355,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3398,14 +3393,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5758-2022</t>
+          <t>A 33033-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44596</v>
+        <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3423,7 +3418,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3460,14 +3455,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7289-2022</t>
+          <t>A 50060-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44606</v>
+        <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3480,7 +3475,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3517,14 +3512,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 48465-2021</t>
+          <t>A 29520-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44452.38961805555</v>
+        <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3536,8 +3531,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3574,14 +3574,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 67198-2021</t>
+          <t>A 7289-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44523</v>
+        <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3631,14 +3631,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 25094-2024</t>
+          <t>A 67198-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45462</v>
+        <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44719.37579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3973,14 +3973,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 72240-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45147</v>
+        <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3992,13 +3992,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4035,14 +4030,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 25094-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45530</v>
+        <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,11 +4047,6 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -4097,14 +4087,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 72240-2021</t>
+          <t>A 23451-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44544</v>
+        <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4117,7 +4107,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4154,14 +4144,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 6947-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45274</v>
+        <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4173,8 +4163,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4211,14 +4206,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44523</v>
+        <v>45567</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4230,8 +4225,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>4.6</v>
+        <v>9.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4268,14 +4268,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4287,13 +4287,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4330,14 +4325,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44272</v>
+        <v>45525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4349,8 +4344,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4387,14 +4387,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45476</v>
+        <v>45166</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4406,8 +4406,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4444,14 +4449,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44535</v>
+        <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4464,7 +4469,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4501,14 +4506,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45526</v>
+        <v>44747</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4520,13 +4525,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4563,14 +4563,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>45002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4620,14 +4620,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10765-2022</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44627.42550925926</v>
+        <v>45614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4677,14 +4677,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4734,14 +4734,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4753,8 +4753,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4791,14 +4796,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45527</v>
+        <v>45355</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4810,13 +4815,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45635</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44662</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>7.8</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45533</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4986,8 +4986,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>6.7</v>
+        <v>4.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5024,14 +5029,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45049.555625</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5043,8 +5048,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5081,14 +5091,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45091</v>
+        <v>45978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5101,7 +5111,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5138,14 +5148,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44542</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5158,7 +5168,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5195,14 +5205,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45148</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5216,11 +5226,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5257,14 +5267,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>45091</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5276,13 +5286,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5319,14 +5324,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5339,7 +5344,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5376,14 +5381,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>45530</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5395,8 +5400,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5433,14 +5443,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44517</v>
+        <v>45618</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5453,7 +5463,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>17.2</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5490,14 +5500,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44876</v>
+        <v>45055</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5510,7 +5520,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5547,14 +5557,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5566,8 +5576,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5604,14 +5619,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45272</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5621,6 +5636,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -5661,14 +5681,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45527</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5686,7 +5706,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5723,14 +5743,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5742,8 +5762,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5780,14 +5805,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44894</v>
+        <v>45148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5801,11 +5826,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5842,14 +5867,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44880</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5867,7 +5892,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>17.7</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5904,14 +5929,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5924,7 +5949,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5961,14 +5986,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 23451-2024</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45453.64371527778</v>
+        <v>45593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5981,7 +6006,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6018,14 +6043,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45127</v>
+        <v>45012</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6039,11 +6064,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6080,14 +6105,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45127</v>
+        <v>45891</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6101,11 +6126,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6142,14 +6167,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45446</v>
+        <v>45147</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6161,8 +6186,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6199,14 +6229,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45099</v>
+        <v>44269</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6218,8 +6248,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>18.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6256,14 +6291,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45085</v>
+        <v>45831</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6276,7 +6311,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6313,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45127</v>
+        <v>45439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6332,13 +6367,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6375,14 +6405,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45593</v>
+        <v>45821</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6394,13 +6424,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>7.9</v>
+        <v>0.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6437,14 +6462,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44970</v>
+        <v>44944</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6457,7 +6482,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6494,14 +6519,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>44272</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6513,13 +6538,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6556,14 +6576,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45055</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6576,7 +6596,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6613,14 +6633,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45399</v>
+        <v>45894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6633,7 +6653,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6670,14 +6690,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45415</v>
+        <v>45701</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6715,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6732,14 +6752,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44461</v>
+        <v>45835</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6772,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6789,14 +6809,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45618</v>
+        <v>45716</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6808,8 +6828,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6846,14 +6871,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>45897</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,11 +6892,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6908,14 +6933,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45251</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6927,8 +6952,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6965,14 +6995,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>45337</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6984,13 +7014,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7027,14 +7052,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45012</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7046,13 +7071,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7089,14 +7109,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45127</v>
+        <v>45279</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7108,13 +7128,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7151,14 +7166,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45124</v>
+        <v>45127</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7176,7 +7191,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7213,14 +7228,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44916</v>
+        <v>45127</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7232,8 +7247,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7270,14 +7290,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7289,13 +7309,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7332,14 +7347,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>45476</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7351,13 +7366,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7394,14 +7404,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44970</v>
+        <v>45446</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7414,7 +7424,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.3</v>
+        <v>6.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7451,14 +7461,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44812</v>
+        <v>45359</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7470,8 +7480,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7508,14 +7523,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45593</v>
+        <v>44517</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7528,7 +7543,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7</v>
+        <v>17.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7565,14 +7580,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>45905</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7585,7 +7600,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7622,14 +7637,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44881</v>
+        <v>45551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7642,7 +7657,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7679,14 +7694,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>45415</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7698,8 +7713,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7736,14 +7756,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>45789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7761,7 +7781,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7798,14 +7818,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44269</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7817,13 +7837,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>18.8</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7860,14 +7875,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44970</v>
+        <v>45789</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7879,8 +7894,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>7.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7917,14 +7937,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45439</v>
+        <v>44441</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7937,7 +7957,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>9.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7974,14 +7994,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45701</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7993,13 +8013,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>10.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8036,14 +8051,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45127</v>
+        <v>45251</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8055,13 +8070,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8098,14 +8108,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44578</v>
+        <v>45148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8119,11 +8129,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8160,14 +8170,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 63799-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45078</v>
+        <v>45278</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8179,8 +8189,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>10.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8217,14 +8232,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45551</v>
+        <v>45905</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,7 +8252,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>12.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8274,14 +8289,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45632</v>
+        <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,8 +8308,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8331,14 +8351,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45359</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8356,7 +8376,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8393,14 +8413,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45623</v>
+        <v>45527</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8412,8 +8432,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8450,14 +8475,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44902</v>
+        <v>45527</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8469,8 +8494,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8507,14 +8537,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44417</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8527,7 +8557,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>14.8</v>
+        <v>6.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8564,14 +8594,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8583,13 +8613,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8626,14 +8651,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44581</v>
+        <v>45632</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8671,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8683,14 +8708,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45119</v>
+        <v>45600</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,13 +8727,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8745,14 +8765,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45600</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8764,13 +8784,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8807,14 +8822,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45477</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8827,7 +8842,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8864,14 +8879,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44524</v>
+        <v>44881</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8884,7 +8899,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8921,14 +8936,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45835</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8941,7 +8956,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8978,14 +8993,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45614</v>
+        <v>44662</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8998,7 +9013,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9035,14 +9050,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45166</v>
+        <v>45905</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9056,11 +9071,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9097,14 +9112,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44697</v>
+        <v>44417</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9117,7 +9132,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>14.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9154,14 +9169,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45558</v>
+        <v>45924</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9174,7 +9189,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9211,14 +9226,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9232,11 +9247,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9273,14 +9288,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44902</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9308,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9330,14 +9345,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45765</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9349,8 +9364,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9387,14 +9407,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9427,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9444,14 +9464,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44662</v>
+        <v>44523</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9464,7 +9484,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9508,7 +9528,7 @@
         <v>45241</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9558,14 +9578,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9579,11 +9599,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9620,14 +9640,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>45932</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9640,7 +9660,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9677,14 +9697,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44638</v>
+        <v>45723</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9697,7 +9717,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9734,14 +9754,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45148</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9753,13 +9773,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9796,14 +9811,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45593</v>
+        <v>45932</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9816,7 +9831,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9853,14 +9868,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45614</v>
+        <v>45287</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9872,8 +9887,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>11.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9910,14 +9930,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45709</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9929,13 +9949,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9972,14 +9987,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>44524</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9992,7 +10007,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10029,14 +10044,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45148</v>
+        <v>45623</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10048,13 +10063,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10091,14 +10101,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45148</v>
+        <v>45497</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,13 +10120,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10153,14 +10158,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45635</v>
+        <v>45148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10172,8 +10177,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10210,14 +10220,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>45447</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10235,7 +10245,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>11</v>
+        <v>4.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10272,14 +10282,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45762</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10297,7 +10307,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10334,14 +10344,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44823</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10354,7 +10364,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10391,14 +10401,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45279</v>
+        <v>44970</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10411,7 +10421,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10448,14 +10458,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45404</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10468,7 +10478,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>10.3</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10505,14 +10515,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45525</v>
+        <v>45744</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10524,13 +10534,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10567,14 +10572,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45378</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10586,13 +10591,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10629,14 +10629,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45278</v>
+        <v>45667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10648,13 +10648,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>10.5</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10691,14 +10686,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45237</v>
+        <v>45119</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10710,8 +10705,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10748,14 +10748,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44550</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.9</v>
+        <v>2.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10805,14 +10805,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>45439</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>11.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10862,14 +10862,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45002</v>
+        <v>45950</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10919,14 +10919,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44915</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10938,8 +10938,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>9.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10976,14 +10981,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44441</v>
+        <v>44697</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10996,7 +11001,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11033,14 +11038,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>44902</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11053,7 +11058,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11090,14 +11095,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45147</v>
+        <v>44987</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11109,13 +11114,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11152,14 +11152,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11171,8 +11171,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11209,14 +11214,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45478.305</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11228,13 +11233,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11271,14 +11271,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45567</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11290,13 +11290,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>9.4</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11333,14 +11328,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11353,7 +11348,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11390,14 +11385,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>45558</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11410,7 +11405,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11447,14 +11442,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>44880</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11466,8 +11461,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>17.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11504,14 +11504,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44973</v>
+        <v>44894</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11523,8 +11523,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11561,14 +11566,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45600</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11581,7 +11586,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11618,14 +11623,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45127</v>
+        <v>45237</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11637,13 +11642,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11680,14 +11680,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>44550</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.3</v>
+        <v>7.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11737,14 +11737,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11794,14 +11794,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>44970</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11851,14 +11851,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44987</v>
+        <v>45971</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11908,14 +11908,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44944</v>
+        <v>45971</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>14.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11965,14 +11965,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>45971</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>13.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12022,14 +12022,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>45971</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12079,14 +12079,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>45971</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12136,14 +12136,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>45971</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12193,14 +12193,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45477</v>
+        <v>45478.305</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12212,8 +12212,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12250,14 +12255,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>45399</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12270,7 +12275,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12307,14 +12312,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45439</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12327,7 +12332,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>11.3</v>
+        <v>7.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12364,14 +12369,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>45272</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12384,7 +12389,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12421,14 +12426,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45124</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12440,13 +12445,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12483,14 +12483,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12502,13 +12502,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12545,14 +12540,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>44876</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12564,13 +12559,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12607,14 +12597,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45894</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12627,7 +12617,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12664,14 +12654,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44796</v>
+        <v>45148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12683,8 +12673,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12721,14 +12716,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45891</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12740,13 +12735,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12783,14 +12773,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>44578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12802,8 +12792,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12840,14 +12835,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45821</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12859,8 +12854,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12897,14 +12897,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>45905</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12918,11 +12918,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12959,14 +12959,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45831</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13016,14 +13016,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45667</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13073,14 +13073,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13092,8 +13092,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13130,14 +13135,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45897</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13155,7 +13160,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13192,14 +13197,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45337</v>
+        <v>44823</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13212,7 +13217,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.4</v>
+        <v>16.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13249,14 +13254,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45447</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13270,11 +13275,11 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13311,14 +13316,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>44638</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13331,7 +13336,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13368,14 +13373,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45905</v>
+        <v>45765</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13388,7 +13393,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13425,14 +13430,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45723</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13444,8 +13449,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13482,14 +13492,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45287</v>
+        <v>45274</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13501,13 +13511,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>11.3</v>
+        <v>5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13544,14 +13549,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45789</v>
+        <v>44915</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13563,13 +13568,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13606,14 +13606,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45789</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13625,13 +13625,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13668,14 +13663,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45905</v>
+        <v>44973</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13688,7 +13683,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>12.5</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13725,14 +13720,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44747</v>
+        <v>45127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13744,8 +13739,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13782,14 +13782,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45404</v>
+        <v>45127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13801,8 +13801,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13839,14 +13844,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45744</v>
+        <v>44662</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13859,7 +13864,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.2</v>
+        <v>7.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13896,14 +13901,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45716</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13915,13 +13920,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13958,14 +13958,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45497</v>
+        <v>45533</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14015,14 +14015,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45632</v>
+        <v>46030</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14072,14 +14072,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 6947-2025</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45701</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,13 +14091,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14134,14 +14129,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>45593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14153,8 +14148,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14191,14 +14191,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45905</v>
+        <v>45378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14253,14 +14253,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45924</v>
+        <v>45614</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14310,14 +14310,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>44542</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,13 +14329,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14372,14 +14367,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14391,13 +14386,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14434,14 +14424,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14454,7 +14444,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14491,14 +14481,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45600</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14510,8 +14500,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14548,14 +14543,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45530</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14573,7 +14568,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14610,14 +14605,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45932</v>
+        <v>45442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14667,14 +14662,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14686,13 +14681,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14729,14 +14719,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14749,7 +14739,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14786,14 +14776,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45932</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14806,7 +14796,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14843,14 +14833,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45085</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14862,13 +14852,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14905,14 +14890,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>44812</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14925,7 +14910,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>8.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14962,14 +14947,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45789</v>
+        <v>45526</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14987,7 +14972,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15024,14 +15009,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45789</v>
+        <v>45127</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15045,11 +15030,11 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15086,14 +15071,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45789</v>
+        <v>45709</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15111,7 +15096,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15148,14 +15133,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45789</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15167,13 +15152,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15210,14 +15190,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45950</v>
+        <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15230,7 +15210,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15267,14 +15247,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45632</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15287,7 +15267,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15324,14 +15304,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15343,13 +15323,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>9.1</v>
+        <v>0.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15386,14 +15361,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45355</v>
+        <v>45593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15406,7 +15381,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15443,14 +15418,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45793</v>
+        <v>44902</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,13 +15437,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15505,14 +15475,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>45723</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15525,7 +15495,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15562,14 +15532,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>44535</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15582,7 +15552,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15619,14 +15589,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15638,13 +15608,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15681,14 +15646,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15701,7 +15666,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>6.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15738,14 +15703,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45971</v>
+        <v>44581</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15758,7 +15723,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>13.6</v>
+        <v>2.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15795,14 +15760,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45971</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15814,8 +15779,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15852,14 +15822,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45971</v>
+        <v>45124</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15871,8 +15841,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15909,14 +15884,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45971</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15929,7 +15904,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15966,14 +15941,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45971</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15986,7 +15961,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16023,14 +15998,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45971</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16042,8 +16017,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>14.2</v>
+        <v>0.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16080,14 +16060,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16137,14 +16117,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>44461</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16157,7 +16137,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16194,14 +16174,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>44796</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16214,7 +16194,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16251,14 +16231,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45905</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16270,13 +16250,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16313,14 +16288,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>45147</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16332,8 +16307,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16370,14 +16350,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>44916</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16389,13 +16369,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16432,14 +16407,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>45127</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,11 +16428,11 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16494,14 +16469,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45049.555625</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16513,13 +16488,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16556,14 +16526,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46030</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16576,7 +16546,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16613,14 +16583,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>45530</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16632,8 +16602,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16670,14 +16645,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16690,7 +16665,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16727,14 +16702,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>45789</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16746,8 +16721,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16784,14 +16764,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45442</v>
+        <v>45789</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16803,8 +16783,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16841,14 +16826,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>45789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16860,8 +16845,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16898,14 +16888,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>45789</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16917,8 +16907,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16955,14 +16950,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45978</v>
+        <v>45793</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16974,8 +16969,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>46051.63847222222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45526</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3802,14 +3802,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 73265-2021</t>
+          <t>A 23020-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44550.83846064815</v>
+        <v>44719.37579861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23020-2022</t>
+          <t>A 73265-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44719.37579861111</v>
+        <v>44550.83846064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4206,14 +4206,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45567</v>
+        <v>45525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4268,14 +4268,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45166</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4287,8 +4287,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4325,14 +4330,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45525</v>
+        <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4350,7 +4355,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>9.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4387,14 +4392,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45166</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4406,13 +4411,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44747</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44880.85837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4734,14 +4734,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45762</v>
+        <v>45789</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4796,14 +4796,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45355</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4853,14 +4853,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45635</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4910,14 +4910,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>45793</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,8 +4929,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4967,14 +4972,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4986,13 +4991,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5029,14 +5029,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>45355</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5048,13 +5048,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5091,14 +5086,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45978</v>
+        <v>45762</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5110,8 +5105,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5148,14 +5148,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45635</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5224,13 +5224,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5267,14 +5262,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45091</v>
+        <v>45891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5286,8 +5281,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5324,14 +5324,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>45831</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5381,14 +5381,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45530</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5402,11 +5402,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5443,14 +5443,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45618</v>
+        <v>45821</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5500,14 +5500,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45055</v>
+        <v>45894</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5557,14 +5557,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>45897</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,11 +5578,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5619,14 +5619,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5681,14 +5681,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5743,14 +5743,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5762,13 +5762,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5805,14 +5800,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45148</v>
+        <v>45618</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5824,13 +5819,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5867,14 +5857,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>45055</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5886,13 +5876,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5929,14 +5914,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5948,8 +5933,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5986,14 +5976,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45593</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6005,8 +5995,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6043,14 +6038,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45012</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6068,7 +6063,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6105,14 +6100,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45891</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6126,11 +6121,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6167,14 +6162,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45147</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6188,11 +6183,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6229,14 +6224,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44269</v>
+        <v>45091</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6248,13 +6243,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>18.8</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6291,14 +6281,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45831</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6310,8 +6300,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6343,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45439</v>
+        <v>45530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6367,8 +6362,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45821</v>
+        <v>45905</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44944</v>
+        <v>45148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6481,8 +6481,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6519,14 +6524,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44272</v>
+        <v>45789</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6538,8 +6543,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6576,14 +6586,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45789</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6595,8 +6605,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>7.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6633,14 +6648,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45894</v>
+        <v>45593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6653,7 +6668,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6690,14 +6705,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45701</v>
+        <v>45905</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6709,13 +6724,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6752,14 +6762,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45835</v>
+        <v>45012</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6771,8 +6781,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6809,14 +6824,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45716</v>
+        <v>45147</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6830,11 +6845,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6871,14 +6886,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45897</v>
+        <v>44269</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6892,11 +6907,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.3</v>
+        <v>18.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6933,14 +6948,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6952,13 +6967,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6995,14 +7005,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45337</v>
+        <v>45905</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7014,8 +7024,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7052,14 +7067,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>45835</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7072,7 +7087,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7109,14 +7124,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45279</v>
+        <v>45439</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7129,7 +7144,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7166,14 +7181,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45127</v>
+        <v>44944</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7185,13 +7200,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7228,14 +7238,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45127</v>
+        <v>45924</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7247,13 +7257,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7290,14 +7295,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>44272</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7310,7 +7315,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7347,14 +7352,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45476</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7366,8 +7371,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7404,14 +7414,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45446</v>
+        <v>45701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7423,8 +7433,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7461,14 +7476,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45359</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7480,13 +7495,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7523,14 +7533,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44517</v>
+        <v>45716</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7542,8 +7552,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>17.2</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7580,14 +7595,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45905</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7599,8 +7614,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7637,14 +7657,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45551</v>
+        <v>45442</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7657,7 +7677,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7694,14 +7714,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45415</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7715,11 +7735,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7756,14 +7776,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45789</v>
+        <v>45337</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,13 +7795,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7818,14 +7833,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7838,7 +7853,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7875,14 +7890,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45789</v>
+        <v>45932</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,13 +7909,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>7.9</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7937,14 +7947,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44441</v>
+        <v>45279</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7957,7 +7967,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7994,14 +8004,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45127</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8013,8 +8023,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>10.3</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8051,14 +8066,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45251</v>
+        <v>45127</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8070,8 +8085,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8108,14 +8128,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45148</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8127,13 +8147,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.2</v>
+        <v>7.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8170,14 +8185,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45278</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,13 +8204,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>10.5</v>
+        <v>0.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8232,14 +8242,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45905</v>
+        <v>45932</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8252,7 +8262,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>12.5</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8289,14 +8299,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45124</v>
+        <v>45476</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8308,13 +8318,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8351,14 +8356,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8372,11 +8377,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8413,14 +8418,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45527</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8432,13 +8437,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8475,14 +8475,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45527</v>
+        <v>45446</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,13 +8494,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8537,14 +8532,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45359</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8556,8 +8551,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8594,14 +8594,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>44517</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>17.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8651,14 +8651,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45632</v>
+        <v>45551</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8708,14 +8708,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45600</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8765,14 +8765,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8822,14 +8822,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45477</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8879,14 +8879,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44881</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>10.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8936,14 +8936,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>45415</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8955,8 +8955,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8993,14 +8998,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 63799-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44662</v>
+        <v>45278</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9012,8 +9017,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.7</v>
+        <v>10.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9050,14 +9060,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45905</v>
+        <v>45950</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9069,13 +9079,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9112,14 +9117,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44417</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9132,7 +9137,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>14.8</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9169,14 +9174,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45924</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9188,8 +9193,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9226,14 +9236,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>44441</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9243,11 +9253,6 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -9288,14 +9293,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9308,7 +9313,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9345,14 +9350,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>45477</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9364,13 +9369,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9407,14 +9407,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9464,14 +9464,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44523</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9521,14 +9521,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45241</v>
+        <v>45251</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9578,14 +9578,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9640,14 +9640,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45932</v>
+        <v>45124</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9659,8 +9659,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9697,14 +9702,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45723</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9716,8 +9721,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9754,14 +9764,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>45527</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9773,8 +9783,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9811,14 +9826,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45932</v>
+        <v>45527</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9830,8 +9845,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9868,14 +9888,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45287</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9887,13 +9907,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>11.3</v>
+        <v>6.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9930,14 +9945,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>45632</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9950,7 +9965,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9987,14 +10002,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44524</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10007,7 +10022,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10044,14 +10059,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45623</v>
+        <v>45600</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10064,7 +10079,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10101,14 +10116,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45497</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10136,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10158,14 +10173,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45148</v>
+        <v>44881</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10175,11 +10190,6 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -10220,14 +10230,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45447</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10239,13 +10249,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10282,14 +10287,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45971</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10301,13 +10306,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10344,14 +10344,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>45971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>8.800000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10401,14 +10401,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44970</v>
+        <v>44662</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10458,14 +10458,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45404</v>
+        <v>45971</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10515,14 +10515,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45744</v>
+        <v>45971</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10572,14 +10572,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10629,14 +10629,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45667</v>
+        <v>45971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10686,14 +10686,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45119</v>
+        <v>44417</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10705,13 +10705,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>14.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10748,14 +10743,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10768,7 +10763,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10805,14 +10800,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45439</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10825,7 +10820,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>11.3</v>
+        <v>4.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10862,14 +10857,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45950</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10882,7 +10877,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10919,14 +10914,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>44523</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10938,13 +10933,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>9.1</v>
+        <v>4.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10981,14 +10971,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44697</v>
+        <v>45241</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11001,7 +10991,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11038,14 +11028,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44902</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11058,7 +11048,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11095,14 +11085,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44987</v>
+        <v>45978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11115,7 +11105,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11152,14 +11142,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>45905</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11173,11 +11163,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>7.7</v>
+        <v>0.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11214,14 +11204,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>45723</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11234,7 +11224,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11271,14 +11261,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>45287</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11290,8 +11280,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>11.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11328,14 +11323,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11348,7 +11343,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11385,14 +11380,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45558</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11405,7 +11400,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11442,14 +11437,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44880</v>
+        <v>44524</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11461,13 +11456,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>17.7</v>
+        <v>6.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11504,14 +11494,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44894</v>
+        <v>45623</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11523,13 +11513,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11566,14 +11551,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>45497</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11586,7 +11571,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11623,14 +11608,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45237</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11640,6 +11625,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -11680,14 +11670,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44550</v>
+        <v>45148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11699,8 +11689,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11737,14 +11732,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11756,8 +11751,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11794,14 +11794,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44970</v>
+        <v>45447</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11813,8 +11813,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11851,14 +11856,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45971</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11870,8 +11875,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11908,14 +11918,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45971</v>
+        <v>44970</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11928,7 +11938,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>14.2</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11965,14 +11975,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45971</v>
+        <v>45404</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11985,7 +11995,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>13.6</v>
+        <v>0.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12022,14 +12032,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45971</v>
+        <v>45744</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12042,7 +12052,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12079,14 +12089,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45971</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12099,7 +12109,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12136,14 +12146,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45971</v>
+        <v>46030</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12156,7 +12166,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12193,14 +12203,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45478.305</v>
+        <v>45667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12212,13 +12222,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12255,14 +12260,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45399</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12275,7 +12280,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12312,14 +12317,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>45119</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12331,8 +12336,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12369,14 +12379,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45272</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12389,7 +12399,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12426,14 +12436,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>45439</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12446,7 +12456,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>11.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12483,14 +12493,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>44697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12503,7 +12513,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12540,14 +12550,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44876</v>
+        <v>44902</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12560,7 +12570,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12597,14 +12607,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>44987</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12617,7 +12627,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12654,14 +12664,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45148</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12675,11 +12685,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.3</v>
+        <v>7.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12716,14 +12726,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12736,7 +12746,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12773,14 +12783,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44578</v>
+        <v>45558</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12792,13 +12802,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12835,14 +12840,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>44880</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12856,11 +12861,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>17.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12897,14 +12902,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45905</v>
+        <v>44894</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12918,11 +12923,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12959,14 +12964,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>45237</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12979,7 +12984,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13016,14 +13021,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>44550</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13036,7 +13041,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.3</v>
+        <v>7.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13073,14 +13078,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13092,13 +13097,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13135,14 +13135,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>44970</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13154,13 +13154,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13197,14 +13192,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44823</v>
+        <v>45478.305</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13216,8 +13211,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>16.5</v>
+        <v>4.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13254,14 +13254,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45399</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13273,13 +13273,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13316,14 +13311,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44638</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13336,7 +13331,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13373,14 +13368,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45765</v>
+        <v>45272</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13393,7 +13388,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13430,14 +13425,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>44876</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13449,13 +13444,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13492,14 +13482,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45274</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13512,7 +13502,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13549,14 +13539,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44915</v>
+        <v>45148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13568,8 +13558,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13606,14 +13601,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>44578</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13625,8 +13620,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13663,14 +13663,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44973</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13682,8 +13682,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13720,14 +13725,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45127</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13739,13 +13744,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13782,14 +13782,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45127</v>
+        <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13801,13 +13801,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13844,14 +13839,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44662</v>
+        <v>44638</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13864,7 +13859,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13901,14 +13896,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>45765</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13921,7 +13916,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13958,14 +13953,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45533</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,8 +13972,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14015,14 +14015,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46030</v>
+        <v>45274</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14072,14 +14072,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>44915</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14129,14 +14129,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45593</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,13 +14148,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14191,14 +14186,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45378</v>
+        <v>44973</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14210,13 +14205,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14253,14 +14243,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45614</v>
+        <v>45127</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,8 +14262,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14310,14 +14305,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44542</v>
+        <v>45127</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,8 +14324,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14367,14 +14367,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>44662</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.5</v>
+        <v>7.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14424,14 +14424,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45078</v>
+        <v>45533</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14481,14 +14481,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14543,14 +14543,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>45378</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14605,14 +14605,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45442</v>
+        <v>45614</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14662,14 +14662,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>44542</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14719,14 +14719,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>45078</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14776,14 +14776,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>45600</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14795,8 +14795,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14833,14 +14838,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45085</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14852,8 +14857,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14890,14 +14900,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44812</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14910,7 +14920,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14947,14 +14957,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45526</v>
+        <v>45085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14966,13 +14976,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15009,14 +15014,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45127</v>
+        <v>44812</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15028,13 +15033,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15071,14 +15071,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45709</v>
+        <v>45526</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15133,14 +15133,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>45127</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15152,8 +15152,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15190,14 +15195,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45099</v>
+        <v>45709</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15209,8 +15214,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15247,14 +15257,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45632</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15267,7 +15277,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15304,14 +15314,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>45099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15324,7 +15334,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15361,14 +15371,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45593</v>
+        <v>45632</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15381,7 +15391,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15418,14 +15428,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44902</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15438,7 +15448,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15475,14 +15485,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45723</v>
+        <v>45593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15495,7 +15505,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15532,14 +15542,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44535</v>
+        <v>44902</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15552,7 +15562,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15589,14 +15599,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>45723</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15609,7 +15619,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15646,14 +15656,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>44535</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15666,7 +15676,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15703,14 +15713,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44581</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15723,7 +15733,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15760,14 +15770,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15779,13 +15789,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>0.3</v>
+        <v>6.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15822,14 +15827,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45124</v>
+        <v>44581</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15841,13 +15846,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15884,14 +15884,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15903,8 +15903,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15941,14 +15946,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>45124</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15960,8 +15965,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15998,14 +16008,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16017,13 +16027,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16060,14 +16065,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16080,7 +16085,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16117,14 +16122,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44461</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16136,8 +16141,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16174,14 +16184,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44796</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16194,7 +16204,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16231,14 +16241,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>44461</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16251,7 +16261,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16288,14 +16298,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45147</v>
+        <v>44796</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16307,13 +16317,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16350,14 +16355,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44916</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16370,7 +16375,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16407,14 +16412,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45127</v>
+        <v>45147</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16432,7 +16437,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16469,14 +16474,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45049.555625</v>
+        <v>44916</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16489,7 +16494,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16526,14 +16531,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>45127</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,8 +16550,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16583,14 +16593,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45530</v>
+        <v>45049.555625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16602,13 +16612,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16645,14 +16650,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16665,7 +16670,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16702,14 +16707,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45789</v>
+        <v>45530</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16723,11 +16728,11 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16764,14 +16769,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45789</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16783,13 +16788,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16826,14 +16826,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
         <v>45789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16888,14 +16888,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
         <v>45789</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16950,14 +16950,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45793</v>
+        <v>45789</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>46051.63847222222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45526</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2005,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 9349-2022</t>
+          <t>A 33951-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44616</v>
+        <v>44790</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2062,14 +2062,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33951-2022</t>
+          <t>A 9349-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44790</v>
+        <v>44616</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3802,14 +3802,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23020-2022</t>
+          <t>A 73265-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44719.37579861111</v>
+        <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 73265-2021</t>
+          <t>A 23020-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44550.83846064815</v>
+        <v>44719.37579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45166</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4330,14 +4330,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45567</v>
+        <v>44970</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4349,13 +4349,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4392,14 +4387,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45567</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4411,8 +4406,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>9.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4449,14 +4449,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44970</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4506,14 +4506,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44747</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4563,14 +4563,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45002</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4620,14 +4620,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45614</v>
+        <v>45789</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4639,8 +4639,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4677,14 +4682,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>45789</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4696,8 +4701,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4734,14 +4744,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>45789</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4759,7 +4769,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4796,14 +4806,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>44747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4816,7 +4826,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4853,14 +4863,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4873,7 +4883,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4910,14 +4920,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45793</v>
+        <v>45002</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4929,13 +4939,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4972,14 +4977,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>45789</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,8 +4996,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5029,14 +5039,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45355</v>
+        <v>45614</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5049,7 +5059,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5086,14 +5096,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45762</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5105,13 +5115,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5148,14 +5153,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5168,7 +5173,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5205,14 +5210,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45635</v>
+        <v>45793</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5224,8 +5229,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5262,14 +5272,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45891</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5281,13 +5291,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5324,14 +5329,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45831</v>
+        <v>45891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5343,8 +5348,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5381,14 +5391,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>45355</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5400,13 +5410,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5443,14 +5448,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45821</v>
+        <v>45831</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5463,7 +5468,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5500,14 +5505,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45894</v>
+        <v>45821</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5520,7 +5525,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5557,14 +5562,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45897</v>
+        <v>45971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5576,13 +5581,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5619,14 +5619,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45971</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5638,13 +5638,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4.1</v>
+        <v>14.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5681,14 +5676,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>45894</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5700,13 +5695,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5743,14 +5733,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45897</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5762,8 +5752,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5800,14 +5795,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45618</v>
+        <v>45971</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5815,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>13.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5857,14 +5852,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45055</v>
+        <v>45971</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5877,7 +5872,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5914,14 +5909,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>45971</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5933,13 +5928,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5976,14 +5966,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +5991,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6038,14 +6028,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>45762</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6063,7 +6053,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6100,14 +6090,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6125,7 +6115,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6162,14 +6152,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>45971</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6181,13 +6171,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6224,14 +6209,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45091</v>
+        <v>45635</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6244,7 +6229,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6281,14 +6266,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>45905</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6300,13 +6285,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6343,14 +6323,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45530</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6364,11 +6344,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6405,14 +6385,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45905</v>
+        <v>45618</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,7 +6405,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6462,14 +6442,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45148</v>
+        <v>45055</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6481,13 +6461,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6524,14 +6499,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45789</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6549,7 +6524,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6586,14 +6561,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>45789</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6611,7 +6586,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.9</v>
+        <v>3.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6648,14 +6623,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45593</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6705,14 +6680,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45905</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6724,8 +6699,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>12.5</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6762,14 +6742,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45012</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6787,7 +6767,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6824,14 +6804,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45147</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6845,11 +6825,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6886,14 +6866,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44269</v>
+        <v>45789</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6911,7 +6891,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>18.8</v>
+        <v>7.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6948,14 +6928,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6967,8 +6947,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7005,14 +6990,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45905</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7030,7 +7015,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7067,14 +7052,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45835</v>
+        <v>45091</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7087,7 +7072,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7124,14 +7109,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45439</v>
+        <v>45905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7144,7 +7129,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7181,14 +7166,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44944</v>
+        <v>45530</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7200,8 +7185,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7238,14 +7228,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45924</v>
+        <v>45148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7257,8 +7247,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7295,14 +7290,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44272</v>
+        <v>45905</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,8 +7309,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7352,14 +7352,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>45593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,11 +7369,6 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -7414,14 +7409,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45701</v>
+        <v>45012</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7476,14 +7471,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45924</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7496,7 +7491,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7533,14 +7528,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45716</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7595,14 +7590,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7614,13 +7609,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7657,14 +7647,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45442</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7676,8 +7666,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7714,14 +7709,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45147</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7739,7 +7734,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7776,14 +7771,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45337</v>
+        <v>44269</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7795,8 +7790,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>4.4</v>
+        <v>18.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7833,14 +7833,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7852,8 +7852,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7890,14 +7895,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45932</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7910,7 +7915,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7947,14 +7952,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45279</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7967,7 +7972,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8004,14 +8009,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45127</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8023,13 +8028,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8066,14 +8066,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45127</v>
+        <v>45835</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8085,13 +8085,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8128,14 +8123,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>45932</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8148,7 +8143,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8185,14 +8180,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>45439</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8205,7 +8200,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8242,14 +8237,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45932</v>
+        <v>44944</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8262,7 +8257,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8299,14 +8294,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45476</v>
+        <v>44272</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8319,7 +8314,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8356,14 +8351,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8375,13 +8370,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8418,14 +8408,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>45932</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8438,7 +8428,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.800000000000001</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8475,14 +8465,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45446</v>
+        <v>45701</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8494,8 +8484,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8532,14 +8527,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45359</v>
+        <v>45716</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8553,11 +8548,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8594,14 +8589,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44517</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8613,8 +8608,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>17.2</v>
+        <v>6.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8651,14 +8651,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45551</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8708,14 +8708,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45337</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8765,14 +8765,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8822,14 +8822,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>45279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8879,14 +8879,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45127</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8898,8 +8898,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>10.3</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8936,14 +8941,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45415</v>
+        <v>45127</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8957,11 +8962,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8998,14 +9003,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45278</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9017,13 +9022,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>10.5</v>
+        <v>7.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9060,14 +9060,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45950</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9117,14 +9117,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>45476</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9174,14 +9174,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>45950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9193,13 +9193,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>9.1</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9236,14 +9231,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44441</v>
+        <v>45446</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9256,7 +9251,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9293,14 +9288,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>45359</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9312,8 +9307,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9350,14 +9350,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45477</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9407,14 +9407,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,8 +9426,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>4.1</v>
+        <v>9.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9464,14 +9469,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>44517</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9484,7 +9489,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>17.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9521,14 +9526,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45251</v>
+        <v>45551</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9541,7 +9546,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9578,14 +9583,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45148</v>
+        <v>45415</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9599,11 +9604,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.2</v>
+        <v>4.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9640,14 +9645,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45124</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9659,13 +9664,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9702,14 +9702,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9721,13 +9721,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9764,14 +9759,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45527</v>
+        <v>45905</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9785,11 +9780,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9826,14 +9821,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45527</v>
+        <v>44441</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9845,13 +9840,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9888,14 +9878,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9908,7 +9898,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9945,14 +9935,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45632</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9965,7 +9955,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>10.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10002,14 +9992,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 63799-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>45278</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10021,8 +10011,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>10.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10059,14 +10054,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45600</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10079,7 +10074,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10116,14 +10111,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>45251</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10136,7 +10131,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10173,14 +10168,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44881</v>
+        <v>45148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10192,8 +10187,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10230,14 +10230,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>45124</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10249,8 +10249,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10287,14 +10292,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45971</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10306,8 +10311,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10344,14 +10354,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45971</v>
+        <v>45527</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10363,8 +10373,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>14.2</v>
+        <v>0.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10401,14 +10416,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44662</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10420,8 +10435,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10458,14 +10478,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45971</v>
+        <v>45527</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10477,8 +10497,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>13.6</v>
+        <v>6.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10515,14 +10540,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45971</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10535,7 +10560,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10572,14 +10597,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45971</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10592,7 +10617,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10629,14 +10654,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45971</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10648,8 +10673,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10686,14 +10716,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44417</v>
+        <v>45632</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10706,7 +10736,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>14.8</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10743,14 +10773,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>45600</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10763,7 +10793,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10800,14 +10830,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10817,6 +10847,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -10857,14 +10892,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10877,7 +10912,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10914,14 +10949,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44523</v>
+        <v>44881</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10934,7 +10969,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10971,14 +11006,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45241</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10991,7 +11026,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11028,14 +11063,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>44662</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11048,7 +11083,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11085,14 +11120,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45978</v>
+        <v>45477</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11105,7 +11140,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11142,14 +11177,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45905</v>
+        <v>44417</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11161,13 +11196,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>0.2</v>
+        <v>14.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11204,14 +11234,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45723</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11224,7 +11254,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11261,14 +11291,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45287</v>
+        <v>46030</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11280,13 +11310,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11323,14 +11348,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11343,7 +11368,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11380,14 +11405,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11400,7 +11425,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11437,14 +11462,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11457,7 +11482,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11494,14 +11519,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45623</v>
+        <v>45241</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11514,7 +11539,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11551,14 +11576,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45497</v>
+        <v>45723</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11571,7 +11596,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11608,14 +11633,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>45287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11629,11 +11654,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>11.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11670,14 +11695,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45148</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11689,13 +11714,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11732,14 +11752,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11751,13 +11771,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11794,14 +11809,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45447</v>
+        <v>44524</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11813,13 +11828,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11856,14 +11866,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11875,13 +11885,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11918,14 +11923,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44970</v>
+        <v>45497</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11938,7 +11943,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11975,14 +11980,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45404</v>
+        <v>45148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11994,8 +11999,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12032,14 +12042,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45744</v>
+        <v>45447</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12051,8 +12061,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12089,14 +12104,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>44970</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12109,7 +12124,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12146,14 +12161,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46030</v>
+        <v>45404</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12166,7 +12181,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12203,14 +12218,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45667</v>
+        <v>45744</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12260,14 +12275,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>45667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12280,7 +12295,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12324,7 +12339,7 @@
         <v>45119</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12386,7 +12401,7 @@
         <v>45439.51597222222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12443,7 +12458,7 @@
         <v>45439</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12493,14 +12508,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44697</v>
+        <v>45442</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12513,7 +12528,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12550,14 +12565,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44902</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12570,7 +12585,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12607,14 +12622,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44987</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12627,7 +12642,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12664,14 +12679,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>44697</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12683,13 +12698,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12726,14 +12736,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>44902</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12746,7 +12756,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12783,14 +12793,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45558</v>
+        <v>44987</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12803,7 +12813,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12840,14 +12850,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44880</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12865,7 +12875,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>17.7</v>
+        <v>7.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12902,14 +12912,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44894</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12921,13 +12931,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>8.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12964,14 +12969,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45237</v>
+        <v>45558</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12984,7 +12989,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13021,14 +13026,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44550</v>
+        <v>44880</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13040,8 +13045,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>7.9</v>
+        <v>17.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13078,14 +13088,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>44894</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13097,8 +13107,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13135,14 +13150,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44970</v>
+        <v>45237</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13155,7 +13170,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13192,14 +13207,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45478.305</v>
+        <v>45978</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13211,13 +13226,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13254,14 +13264,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45399</v>
+        <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13274,7 +13284,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13311,14 +13321,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13331,7 +13341,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>7.5</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13368,14 +13378,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45272</v>
+        <v>44970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13388,7 +13398,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13425,14 +13435,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44876</v>
+        <v>45478.305</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13444,8 +13454,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13482,14 +13497,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>45399</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13502,7 +13517,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13539,14 +13554,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45148</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13558,13 +13573,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>0.3</v>
+        <v>7.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13601,14 +13611,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44578</v>
+        <v>45272</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13620,13 +13630,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13663,14 +13668,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>44876</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13682,13 +13687,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13725,14 +13725,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13782,14 +13782,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44823</v>
+        <v>45148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13801,8 +13801,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>16.5</v>
+        <v>0.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13839,14 +13844,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44638</v>
+        <v>44578</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13858,8 +13863,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13896,14 +13906,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45765</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13915,8 +13925,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13953,14 +13968,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13972,13 +13987,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14015,14 +14025,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45274</v>
+        <v>44823</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14045,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5</v>
+        <v>16.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14072,14 +14082,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44915</v>
+        <v>44638</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14129,14 +14139,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>45765</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14149,7 +14159,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14186,14 +14196,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44973</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,8 +14215,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>11</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14243,14 +14258,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45127</v>
+        <v>45274</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,13 +14277,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14305,14 +14315,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45127</v>
+        <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14324,13 +14334,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14367,14 +14372,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44662</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14387,7 +14392,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14424,14 +14429,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45533</v>
+        <v>44973</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14444,7 +14449,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14481,14 +14486,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45593</v>
+        <v>45127</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14502,11 +14507,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14543,14 +14548,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45378</v>
+        <v>45127</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14564,11 +14569,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14605,14 +14610,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45614</v>
+        <v>44662</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14625,7 +14630,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>7.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14662,14 +14667,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44542</v>
+        <v>45533</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14682,7 +14687,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14719,14 +14724,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45078</v>
+        <v>45593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14738,8 +14743,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>7.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14776,14 +14786,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45600</v>
+        <v>45378</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14801,7 +14811,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14838,14 +14848,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>45614</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14857,13 +14867,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14900,14 +14905,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>44542</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14920,7 +14925,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14957,14 +14962,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45085</v>
+        <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14977,7 +14982,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15014,14 +15019,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44812</v>
+        <v>45600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15033,8 +15038,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15071,14 +15081,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45526</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15092,11 +15102,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15133,14 +15143,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45127</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15152,13 +15162,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15195,14 +15200,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45709</v>
+        <v>45085</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15214,13 +15219,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15257,14 +15257,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>44812</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15314,14 +15314,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45099</v>
+        <v>45526</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15333,8 +15333,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15371,14 +15376,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45632</v>
+        <v>45127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15390,8 +15395,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15428,14 +15438,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>45709</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15447,8 +15457,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15485,14 +15500,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45593</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15505,7 +15520,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15542,14 +15557,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44902</v>
+        <v>45099</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15562,7 +15577,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15599,14 +15614,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45723</v>
+        <v>45632</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15619,7 +15634,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15656,14 +15671,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44535</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15676,7 +15691,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15713,14 +15728,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>45593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15733,7 +15748,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15770,14 +15785,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>44902</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15790,7 +15805,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15827,14 +15842,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44581</v>
+        <v>45723</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15847,7 +15862,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15884,14 +15899,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>44535</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15903,13 +15918,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15946,14 +15956,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45124</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15965,13 +15975,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16008,14 +16013,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16028,7 +16033,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16065,14 +16070,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>44581</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16085,7 +16090,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16122,14 +16127,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16143,11 +16148,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16184,14 +16189,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>45124</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16203,8 +16208,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16241,14 +16251,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44461</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16261,7 +16271,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16298,14 +16308,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44796</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16318,7 +16328,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16355,14 +16365,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16374,8 +16384,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16412,14 +16427,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45147</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,13 +16446,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16474,14 +16484,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44916</v>
+        <v>44461</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16494,7 +16504,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16531,14 +16541,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45127</v>
+        <v>44796</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16550,13 +16560,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16593,14 +16598,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45049.555625</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16613,7 +16618,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16650,14 +16655,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>45147</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16669,8 +16674,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16707,14 +16717,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45530</v>
+        <v>44916</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16726,13 +16736,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16769,14 +16774,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45127</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16788,8 +16793,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16826,14 +16836,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45789</v>
+        <v>45049.555625</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16845,13 +16855,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16888,14 +16893,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45789</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16907,13 +16912,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16950,14 +16950,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45789</v>
+        <v>45530</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16971,11 +16971,11 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 5766-2026</t>
+          <t>A 34758-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46051.63847222222</v>
+        <v>45526</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,17 +765,22 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -790,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -799,129 +804,124 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp
+Fjällig taggsvamp s.str.
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 5766-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46051.63847222222</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Nästrot
 Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 34758-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Fjällig taggsvamp s.str.
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60736-2022</t>
+          <t>A 46620-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44913</v>
+        <v>45583</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1335,388 +1335,388 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 46620-2024 artfynd.xlsx", "A 46620-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 46620-2024 karta.png", "A 46620-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 46620-2024 FSC-klagomål.docx", "A 46620-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 46620-2024 FSC-klagomål mail.docx", "A 46620-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 46620-2024 tillsynsbegäran.docx", "A 46620-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 46620-2024 tillsynsbegäran mail.docx", "A 46620-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 35334-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45530</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 45484-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Scharlakansvårskål agg.</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 45484-2023 artfynd.xlsx", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 45484-2023 karta.png", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 45484-2023 FSC-klagomål.docx", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 45484-2023 FSC-klagomål mail.docx", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 45484-2023 tillsynsbegäran.docx", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 45484-2023 tillsynsbegäran mail.docx", "A 45484-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 14114-2022</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44651.3877199074</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Sotnätfjäril</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 14114-2022 artfynd.xlsx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 14114-2022 karta.png", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 14114-2022 FSC-klagomål.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 14114-2022 FSC-klagomål mail.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 14114-2022 tillsynsbegäran.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 14114-2022 tillsynsbegäran mail.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 60736-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 45484-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Scharlakansvårskål agg.</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 45484-2023 artfynd.xlsx", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 45484-2023 karta.png", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 45484-2023 FSC-klagomål.docx", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 45484-2023 FSC-klagomål mail.docx", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 45484-2023 tillsynsbegäran.docx", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 45484-2023 tillsynsbegäran mail.docx", "A 45484-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 14114-2022</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44651.3877199074</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Sotnätfjäril</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 14114-2022 artfynd.xlsx", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 14114-2022 karta.png", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 14114-2022 FSC-klagomål.docx", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 14114-2022 FSC-klagomål mail.docx", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 14114-2022 tillsynsbegäran.docx", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 14114-2022 tillsynsbegäran mail.docx", "A 14114-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 35334-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 46620-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45583</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 46620-2024 artfynd.xlsx", "A 46620-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 46620-2024 karta.png", "A 46620-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 46620-2024 FSC-klagomål.docx", "A 46620-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 46620-2024 FSC-klagomål mail.docx", "A 46620-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 46620-2024 tillsynsbegäran.docx", "A 46620-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 46620-2024 tillsynsbegäran mail.docx", "A 46620-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2005,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33951-2022</t>
+          <t>A 9349-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44790</v>
+        <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2062,14 +2062,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 9349-2022</t>
+          <t>A 33951-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44616</v>
+        <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44880</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44509</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44719.37579861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3916,14 +3916,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46701-2021</t>
+          <t>A 72240-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44445</v>
+        <v>44544</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3973,14 +3973,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 72240-2021</t>
+          <t>A 46701-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44544</v>
+        <v>44445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4030,14 +4030,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25094-2024</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45462</v>
+        <v>44272</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4087,14 +4087,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23451-2024</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45453.64371527778</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4106,8 +4106,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4144,14 +4149,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6947-2025</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45701</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4163,13 +4168,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4206,14 +4206,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 6947-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45525</v>
+        <v>45701</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4268,14 +4268,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45166</v>
+        <v>45723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4287,13 +4287,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4330,14 +4325,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44970</v>
+        <v>45932</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4350,7 +4345,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4387,14 +4382,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45567</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,11 +4403,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>9.4</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4449,14 +4444,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4469,7 +4464,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4506,14 +4501,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45932</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4526,7 +4521,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4563,14 +4558,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4583,7 +4578,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4620,14 +4615,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45789</v>
+        <v>45533</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4639,13 +4634,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4682,14 +4672,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45789</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4701,13 +4691,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4744,14 +4729,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45789</v>
+        <v>45091</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4763,13 +4748,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4806,14 +4786,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44747</v>
+        <v>44542</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4826,7 +4806,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4863,14 +4843,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4882,8 +4862,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4920,14 +4905,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45002</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4940,7 +4925,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4977,14 +4962,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45789</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4996,13 +4981,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5039,14 +5019,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45614</v>
+        <v>44876</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5059,7 +5039,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5096,14 +5076,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5116,7 +5096,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5153,14 +5133,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5173,7 +5153,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5210,14 +5190,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45793</v>
+        <v>45530</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5231,11 +5211,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5272,14 +5252,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>45477</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5292,7 +5272,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5329,14 +5309,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45891</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5346,11 +5326,6 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -5391,14 +5366,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45355</v>
+        <v>44894</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5410,8 +5385,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5448,14 +5428,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45831</v>
+        <v>45894</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5468,7 +5448,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5505,14 +5485,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45821</v>
+        <v>45891</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5524,8 +5504,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5562,14 +5547,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45971</v>
+        <v>45821</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5582,7 +5567,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5619,14 +5604,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45971</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5638,8 +5623,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>14.2</v>
+        <v>5.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5676,14 +5666,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45894</v>
+        <v>45789</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5695,8 +5685,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5733,14 +5728,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45897</v>
+        <v>45831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5752,13 +5747,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5795,14 +5785,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45971</v>
+        <v>45789</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5814,8 +5804,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>13.6</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5852,14 +5847,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45971</v>
+        <v>45789</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5871,8 +5866,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5909,14 +5909,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45971</v>
+        <v>45789</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5928,8 +5928,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5966,14 +5971,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>45446</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5985,13 +5990,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6028,14 +6028,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45762</v>
+        <v>45897</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,11 +6049,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6090,14 +6090,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 25094-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>45462</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6109,13 +6109,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6152,14 +6147,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45971</v>
+        <v>45355</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6167,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6209,14 +6204,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45635</v>
+        <v>45147</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6228,8 +6223,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6266,14 +6266,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45905</v>
+        <v>45530</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6285,8 +6285,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6323,14 +6328,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45793</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6353,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6385,14 +6390,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45618</v>
+        <v>45905</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6410,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6442,14 +6447,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45055</v>
+        <v>45274</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6462,7 +6467,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6499,14 +6504,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>44523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6518,13 +6523,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45789</v>
+        <v>45950</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6580,13 +6580,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6623,14 +6618,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6643,7 +6638,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6680,14 +6675,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>45789</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6705,7 +6700,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6742,14 +6737,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6767,7 +6762,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6804,14 +6799,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>45476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6823,13 +6818,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6866,14 +6856,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45789</v>
+        <v>44535</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6885,13 +6875,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6928,14 +6913,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>45789</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6953,7 +6938,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>7.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6990,14 +6975,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7009,13 +6994,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7052,14 +7032,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45091</v>
+        <v>45905</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7072,7 +7052,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>12.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7109,14 +7089,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45905</v>
+        <v>45527</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7128,8 +7108,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>12.5</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7166,14 +7151,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45530</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7185,13 +7170,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7228,14 +7208,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45148</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7247,13 +7227,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7290,14 +7265,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45905</v>
+        <v>44662</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7309,13 +7284,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7352,14 +7322,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45593</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7371,8 +7341,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7409,14 +7384,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45012</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7428,13 +7403,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7471,14 +7441,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45924</v>
+        <v>45148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,8 +7460,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7528,14 +7503,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7553,7 +7528,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7590,14 +7565,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45055</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7610,7 +7585,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7647,14 +7622,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>45905</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7672,7 +7647,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7709,14 +7684,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45147</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7728,13 +7703,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7771,14 +7741,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44269</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7790,13 +7760,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>18.8</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7833,14 +7798,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45924</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7852,13 +7817,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7895,14 +7855,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45618</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7915,7 +7875,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7952,14 +7912,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>44517</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7972,7 +7932,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>17.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8009,14 +7969,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8028,8 +7988,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8066,14 +8031,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45835</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8085,8 +8050,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8123,14 +8093,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45932</v>
+        <v>45272</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8143,7 +8113,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8180,14 +8150,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45439</v>
+        <v>45527</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8199,8 +8169,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>9.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8237,14 +8212,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44944</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8256,8 +8231,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8294,14 +8274,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44272</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8313,8 +8293,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8351,14 +8336,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8370,8 +8355,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8408,14 +8398,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45932</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8427,8 +8417,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8465,14 +8460,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45701</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8484,13 +8479,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8527,14 +8517,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45716</v>
+        <v>44880</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8552,7 +8542,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>17.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8589,14 +8579,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45127</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8610,11 +8600,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8651,14 +8641,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>45127</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8670,8 +8660,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>8.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8708,14 +8703,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45337</v>
+        <v>45971</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8728,7 +8723,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.4</v>
+        <v>13.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8765,14 +8760,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>45971</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8785,7 +8780,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8822,14 +8817,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45279</v>
+        <v>45971</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8842,7 +8837,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8879,14 +8874,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45127</v>
+        <v>45399</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8898,13 +8893,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8941,14 +8931,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45127</v>
+        <v>45971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8960,13 +8950,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9003,14 +8988,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>45971</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9023,7 +9008,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9060,14 +9045,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9080,7 +9065,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.1</v>
+        <v>14.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9117,14 +9102,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45476</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9137,7 +9122,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9174,14 +9159,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45950</v>
+        <v>45251</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9194,7 +9179,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9231,14 +9216,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45446</v>
+        <v>45012</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9250,8 +9235,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9288,14 +9278,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45359</v>
+        <v>44916</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9307,13 +9297,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9350,14 +9335,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>45835</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9370,7 +9355,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9407,14 +9392,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>44970</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9426,13 +9411,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>9.1</v>
+        <v>0.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9469,14 +9449,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44517</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9489,7 +9469,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>17.2</v>
+        <v>5.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9526,14 +9506,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45551</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9545,8 +9525,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9583,14 +9568,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45415</v>
+        <v>44269</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9608,7 +9593,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>18.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9645,14 +9630,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9665,7 +9650,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9702,14 +9687,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9722,7 +9707,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9759,14 +9744,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45905</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9778,13 +9763,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>0.2</v>
+        <v>4.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9821,14 +9801,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44441</v>
+        <v>45905</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9840,8 +9820,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9878,14 +9863,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9898,7 +9883,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9935,14 +9920,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9954,8 +9939,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>10.3</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9992,14 +9982,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45278</v>
+        <v>45632</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10011,13 +10001,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>10.5</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10054,14 +10039,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>45359</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10073,8 +10058,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10111,14 +10101,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45251</v>
+        <v>45623</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10131,7 +10121,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10168,14 +10158,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45148</v>
+        <v>44902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10187,13 +10177,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10230,14 +10215,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45124</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10251,11 +10236,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10292,14 +10277,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>45119</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10313,11 +10298,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10354,14 +10339,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45527</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,11 +10360,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10416,14 +10401,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>45600</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10437,11 +10422,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10478,14 +10463,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45527</v>
+        <v>44524</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10497,13 +10482,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10540,14 +10520,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>45166</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10559,8 +10539,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10597,14 +10582,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10616,8 +10601,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10654,14 +10644,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>45593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10673,13 +10663,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10716,14 +10701,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45632</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10736,7 +10721,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>10.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10773,14 +10758,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 63799-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45600</v>
+        <v>45278</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10792,8 +10777,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>2.6</v>
+        <v>10.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10830,14 +10820,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10849,13 +10839,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10892,14 +10877,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10912,7 +10897,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10949,14 +10934,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44881</v>
+        <v>45148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10966,6 +10951,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -11006,14 +10996,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>45148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11025,8 +11015,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11063,14 +11058,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44662</v>
+        <v>45635</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11083,7 +11078,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11120,14 +11115,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45477</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11140,7 +11135,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11177,14 +11172,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44417</v>
+        <v>45002</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11197,7 +11192,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>14.8</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11234,14 +11229,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>44441</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11254,7 +11249,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11291,14 +11286,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46030</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11311,7 +11306,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11348,14 +11343,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>45442</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11368,7 +11363,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11405,14 +11400,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11425,7 +11420,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11462,14 +11457,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44523</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11482,7 +11477,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.6</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11519,14 +11514,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45241</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11539,7 +11534,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11576,14 +11571,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45723</v>
+        <v>45600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11596,7 +11591,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11633,14 +11628,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45287</v>
+        <v>45127</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11654,11 +11649,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>11.3</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11695,14 +11690,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11715,7 +11710,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11752,14 +11747,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>45526</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11771,8 +11766,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11809,14 +11809,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44524</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11866,14 +11866,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45623</v>
+        <v>45049.555625</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11923,14 +11923,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45497</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11942,8 +11942,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11980,14 +11985,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45148</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11997,11 +12002,6 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -12042,14 +12042,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45447</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12061,13 +12061,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12104,14 +12099,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44970</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12124,7 +12119,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>6.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12161,14 +12156,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 23451-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45404</v>
+        <v>45453.64371527778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12181,7 +12176,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12218,14 +12213,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45744</v>
+        <v>45099</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12238,7 +12233,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12275,14 +12270,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45667</v>
+        <v>45085</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12295,7 +12290,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12332,14 +12327,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45119</v>
+        <v>45127</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12353,11 +12348,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12394,14 +12389,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>45593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12413,8 +12408,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>2.9</v>
+        <v>7.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12451,14 +12451,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45439</v>
+        <v>45978</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>11.3</v>
+        <v>5.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12508,14 +12508,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45442</v>
+        <v>45415</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12527,8 +12527,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12565,14 +12570,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>44461</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12585,7 +12590,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12622,14 +12627,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>46030</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12642,7 +12647,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12679,14 +12684,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44697</v>
+        <v>45124</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12698,8 +12703,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12736,14 +12746,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44902</v>
+        <v>45593</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12766,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12793,14 +12803,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44987</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12813,7 +12823,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.3</v>
+        <v>11</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12850,14 +12860,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>44970</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12869,13 +12879,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>7.7</v>
+        <v>1.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12912,14 +12917,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>45439</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12932,7 +12937,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12969,14 +12974,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45558</v>
+        <v>45701</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12988,8 +12993,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13026,14 +13036,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44880</v>
+        <v>45127</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13047,11 +13057,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>17.7</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13088,14 +13098,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44894</v>
+        <v>44578</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13113,7 +13123,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13150,14 +13160,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45237</v>
+        <v>45551</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13170,7 +13180,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13207,14 +13217,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45978</v>
+        <v>44581</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13227,7 +13237,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13264,14 +13274,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44550</v>
+        <v>45614</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13284,7 +13294,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13321,14 +13331,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>44697</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13341,7 +13351,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13378,14 +13388,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44970</v>
+        <v>45558</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13398,7 +13408,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13435,14 +13445,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45478.305</v>
+        <v>45765</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13454,13 +13464,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13497,14 +13502,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45399</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13517,7 +13522,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13554,14 +13559,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>44638</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13574,7 +13579,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13611,14 +13616,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45272</v>
+        <v>45148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,8 +13635,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13668,14 +13678,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44876</v>
+        <v>45614</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13688,7 +13698,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13725,14 +13735,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>45709</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13744,8 +13754,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13782,14 +13797,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45148</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13801,13 +13816,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13844,14 +13854,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44578</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13869,7 +13879,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13906,14 +13916,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>45762</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13927,11 +13937,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13968,14 +13978,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>44823</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13988,7 +13998,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.3</v>
+        <v>16.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14025,14 +14035,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44823</v>
+        <v>45279</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14045,7 +14055,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>16.5</v>
+        <v>0.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14082,14 +14092,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44638</v>
+        <v>45525</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14099,6 +14109,11 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -14139,14 +14154,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45765</v>
+        <v>45378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,8 +14173,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14196,14 +14216,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>45237</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,13 +14235,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14258,14 +14273,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45274</v>
+        <v>44550</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14278,7 +14293,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14315,14 +14330,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44915</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14335,7 +14350,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14372,14 +14387,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>44915</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14392,7 +14407,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14429,14 +14444,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44973</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14449,7 +14464,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14486,14 +14501,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45127</v>
+        <v>45567</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14507,11 +14522,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.9</v>
+        <v>9.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14548,14 +14563,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45127</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14567,13 +14582,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14610,14 +14620,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44662</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14630,7 +14640,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14667,14 +14677,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45533</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14687,7 +14697,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14724,14 +14734,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45593</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14743,13 +14753,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>7.9</v>
+        <v>2.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14786,14 +14791,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45378</v>
+        <v>45439</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14805,13 +14810,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>11.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14848,14 +14848,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45614</v>
+        <v>44970</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14905,14 +14905,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44542</v>
+        <v>45127</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14924,8 +14924,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14962,14 +14967,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45078</v>
+        <v>44812</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14982,7 +14987,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15019,14 +15024,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45600</v>
+        <v>44881</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15038,13 +15043,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15081,14 +15081,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>45078</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15100,13 +15100,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15143,14 +15138,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>44417</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15163,7 +15158,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.9</v>
+        <v>14.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15200,14 +15195,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45085</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15219,8 +15214,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15257,14 +15257,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44812</v>
+        <v>44902</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15314,14 +15314,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45526</v>
+        <v>44662</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15333,13 +15333,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15376,14 +15371,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45127</v>
+        <v>45241</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15395,13 +15390,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15438,14 +15428,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45709</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15463,7 +15453,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15500,14 +15490,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15520,7 +15510,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15557,14 +15547,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45099</v>
+        <v>45147</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15576,8 +15566,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15614,14 +15609,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45632</v>
+        <v>45478.305</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15633,8 +15628,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15671,14 +15671,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15728,14 +15728,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45593</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15785,14 +15785,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44902</v>
+        <v>44987</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15842,14 +15842,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45723</v>
+        <v>44944</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15899,14 +15899,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44535</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15956,14 +15956,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>45124</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,8 +15975,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16013,14 +16018,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16032,8 +16037,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16070,14 +16080,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44581</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16089,8 +16099,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16127,14 +16142,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>44796</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16146,13 +16161,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16189,14 +16199,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45124</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16208,13 +16218,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16251,14 +16256,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16271,7 +16276,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16308,14 +16313,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16328,7 +16333,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16365,14 +16370,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45337</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16384,13 +16389,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16427,14 +16427,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>45447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16446,8 +16446,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16484,14 +16489,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44461</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16504,7 +16509,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16541,14 +16546,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44796</v>
+        <v>45723</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16561,7 +16566,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16598,14 +16603,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>45287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16617,8 +16622,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>6</v>
+        <v>11.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16655,14 +16665,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45147</v>
+        <v>44747</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16674,13 +16684,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16717,14 +16722,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44916</v>
+        <v>45404</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16737,7 +16742,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16774,14 +16779,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45127</v>
+        <v>45744</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16793,13 +16798,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16836,14 +16836,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45049.555625</v>
+        <v>45716</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16855,8 +16855,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16893,14 +16898,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>45497</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16913,7 +16918,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16950,14 +16955,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45530</v>
+        <v>45632</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16969,13 +16974,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 34758-2024</t>
+          <t>A 5766-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45526</v>
+        <v>46051.63847222222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,22 +765,17 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -795,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,124 +799,129 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Nästrot
+Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 34758-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Dofttaggsvamp
 Fjällig taggsvamp s.str.
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 5766-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46051.63847222222</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Nästrot
-Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 46620-2024</t>
+          <t>A 60736-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45583</v>
+        <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1335,388 +1335,388 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 45484-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Scharlakansvårskål agg.</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 45484-2023 artfynd.xlsx", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 45484-2023 karta.png", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 45484-2023 FSC-klagomål.docx", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 45484-2023 FSC-klagomål mail.docx", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 45484-2023 tillsynsbegäran.docx", "A 45484-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 45484-2023 tillsynsbegäran mail.docx", "A 45484-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 14114-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44651.3877199074</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Sotnätfjäril</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 14114-2022 artfynd.xlsx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 14114-2022 karta.png", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 14114-2022 FSC-klagomål.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 14114-2022 FSC-klagomål mail.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 14114-2022 tillsynsbegäran.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 14114-2022 tillsynsbegäran mail.docx", "A 14114-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 35334-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45530</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 46620-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45583</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 46620-2024 artfynd.xlsx", "A 46620-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 46620-2024 karta.png", "A 46620-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 46620-2024 FSC-klagomål.docx", "A 46620-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 46620-2024 FSC-klagomål mail.docx", "A 46620-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 46620-2024 tillsynsbegäran.docx", "A 46620-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 46620-2024 tillsynsbegäran mail.docx", "A 46620-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 35334-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45530</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 45484-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Scharlakansvårskål agg.</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 45484-2023 artfynd.xlsx", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 45484-2023 karta.png", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 45484-2023 FSC-klagomål.docx", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 45484-2023 FSC-klagomål mail.docx", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 45484-2023 tillsynsbegäran.docx", "A 45484-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 45484-2023 tillsynsbegäran mail.docx", "A 45484-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 14114-2022</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44651.3877199074</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Sotnätfjäril</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 14114-2022 artfynd.xlsx", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 14114-2022 karta.png", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 14114-2022 FSC-klagomål.docx", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 14114-2022 FSC-klagomål mail.docx", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 14114-2022 tillsynsbegäran.docx", "A 14114-2022")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 14114-2022 tillsynsbegäran mail.docx", "A 14114-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 60736-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44913</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2466,14 +2466,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 53910-2022</t>
+          <t>A 63739-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44880</v>
+        <v>44509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2523,14 +2523,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 63739-2021</t>
+          <t>A 53910-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44509</v>
+        <v>44880</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3802,14 +3802,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 73265-2021</t>
+          <t>A 23020-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44550.83846064815</v>
+        <v>44719.37579861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23020-2022</t>
+          <t>A 73265-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44719.37579861111</v>
+        <v>44550.83846064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 72240-2021</t>
+          <t>A 46701-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44544</v>
+        <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3973,14 +3973,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46701-2021</t>
+          <t>A 72240-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44445</v>
+        <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4030,14 +4030,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 25094-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44272</v>
+        <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4087,14 +4087,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 23451-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4106,13 +4106,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4149,14 +4144,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 6947-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4168,8 +4163,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4206,14 +4206,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6947-2025</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45701</v>
+        <v>45525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4268,14 +4268,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45723</v>
+        <v>45166</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4287,8 +4287,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4325,14 +4330,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45932</v>
+        <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4344,8 +4349,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>9.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4382,14 +4392,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4401,13 +4411,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4444,14 +4449,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4464,7 +4469,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4501,14 +4506,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45932</v>
+        <v>44747</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4521,7 +4526,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4558,14 +4563,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>45002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4578,7 +4583,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4615,14 +4620,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45533</v>
+        <v>45614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4635,7 +4640,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.7</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4672,14 +4677,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4692,7 +4697,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4729,14 +4734,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45091</v>
+        <v>45762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,8 +4753,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4786,14 +4796,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44542</v>
+        <v>45635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4806,7 +4816,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4843,14 +4853,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4868,7 +4878,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4905,14 +4915,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4925,7 +4935,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4962,14 +4972,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4981,8 +4991,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>8.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5019,14 +5034,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44876</v>
+        <v>45091</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5039,7 +5054,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5076,14 +5091,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>45530</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5095,8 +5110,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5133,14 +5153,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21836-2025</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45784.31782407407</v>
+        <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5152,8 +5172,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5190,14 +5215,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35336-2024</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45530</v>
+        <v>45593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5209,13 +5234,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5252,14 +5272,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45477</v>
+        <v>45012</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5271,8 +5291,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5316,7 +5341,7 @@
         <v>45477.4494675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5366,14 +5391,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44894</v>
+        <v>45147</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,11 +5412,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5428,14 +5453,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45894</v>
+        <v>44269</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5447,8 +5472,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>18.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5485,14 +5515,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45891</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5504,13 +5534,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5547,14 +5572,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45821</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5567,7 +5592,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5604,14 +5629,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>45439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5623,13 +5648,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5666,14 +5686,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 22609-2025</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45789</v>
+        <v>44944</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5685,13 +5705,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5728,14 +5743,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45831</v>
+        <v>45891</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5747,8 +5762,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5785,14 +5805,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22586-2025</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45789</v>
+        <v>44272</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5804,13 +5824,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5847,14 +5862,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 22614-2025</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45789</v>
+        <v>45831</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5866,13 +5881,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5909,14 +5919,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22619-2025</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45789</v>
+        <v>45701</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5944,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5971,14 +5981,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45446</v>
+        <v>45821</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,7 +6001,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.2</v>
+        <v>0.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6028,14 +6038,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45897</v>
+        <v>45716</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6049,11 +6059,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6090,14 +6100,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25094-2024</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45462</v>
+        <v>45894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6110,7 +6120,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6147,14 +6157,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8952-2024</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45355</v>
+        <v>45897</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6166,8 +6176,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6204,14 +6219,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35573-2023</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45147</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6225,11 +6240,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6266,14 +6281,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 31831-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45530</v>
+        <v>45834.59111111111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6285,13 +6300,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6328,14 +6338,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 23733-2025</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45793</v>
+        <v>45337</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6347,13 +6357,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6390,14 +6395,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45905</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6410,7 +6415,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6447,14 +6452,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 31968-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45274</v>
+        <v>45835</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6472,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6504,14 +6509,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44523</v>
+        <v>45279</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6529,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.6</v>
+        <v>0.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6561,14 +6566,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45950</v>
+        <v>45127</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6580,8 +6585,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6618,14 +6628,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45127</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6637,8 +6647,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6675,14 +6690,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45789</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6694,13 +6709,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>7.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6737,14 +6747,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>45905</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6756,13 +6766,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6806,7 +6811,7 @@
         <v>45476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6856,14 +6861,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44535</v>
+        <v>45789</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6875,8 +6880,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6920,7 +6930,7 @@
         <v>45789</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6975,14 +6985,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>45446</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6995,7 +7005,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7039,7 +7049,7 @@
         <v>45905</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7089,14 +7099,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45527</v>
+        <v>45359</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,11 +7120,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7151,14 +7161,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>44517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7171,7 +7181,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.1</v>
+        <v>17.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7208,14 +7218,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>45551</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7265,14 +7275,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44662</v>
+        <v>45415</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7284,8 +7294,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7322,14 +7337,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25462-2025</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45802.44046296296</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7341,13 +7356,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7384,14 +7394,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>44441</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7404,7 +7414,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7441,14 +7451,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45148</v>
+        <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7462,11 +7472,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>5.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7503,14 +7513,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11765-2025</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45727.6646412037</v>
+        <v>45924</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7522,13 +7532,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7565,14 +7570,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20244-2023</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45055</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7584,8 +7589,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7622,14 +7632,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45905</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7641,13 +7651,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7684,14 +7689,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>45251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7704,7 +7709,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7741,14 +7746,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>45148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7760,8 +7765,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7798,14 +7808,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45924</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7817,8 +7827,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7855,14 +7870,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54692-2024</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45618</v>
+        <v>45124</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7874,8 +7889,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7912,14 +7932,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44517</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7931,8 +7951,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>17.2</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7969,14 +7994,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26869-2024</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45470.6132175926</v>
+        <v>45527</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7994,7 +8019,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8031,14 +8056,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27346-2025</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45812.62319444444</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8052,11 +8077,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8093,14 +8118,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45272</v>
+        <v>45527</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8112,8 +8137,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8150,14 +8180,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45527</v>
+        <v>45932</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8169,13 +8199,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8212,14 +8237,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 27351-2025</t>
+          <t>A 17135-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45812.62601851852</v>
+        <v>45755.79530092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,13 +8256,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8274,14 +8294,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27353-2025</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45812.62880787037</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,13 +8313,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8336,14 +8351,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 63799-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>45278</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8376,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.3</v>
+        <v>10.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8398,14 +8413,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>45632</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8417,13 +8432,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8460,14 +8470,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8480,7 +8490,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8517,14 +8527,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44880</v>
+        <v>45932</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8536,13 +8546,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>17.7</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8579,14 +8584,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45127</v>
+        <v>45600</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8598,13 +8603,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8641,14 +8641,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45127</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8660,13 +8660,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8703,14 +8698,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45971</v>
+        <v>44881</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8723,7 +8718,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>13.6</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8760,14 +8755,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45971</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8780,7 +8775,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8817,14 +8812,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45971</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8837,7 +8832,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8874,14 +8869,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45399</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8893,8 +8888,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8931,14 +8931,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45971</v>
+        <v>44662</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8988,14 +8988,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45971</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9045,14 +9045,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45971</v>
+        <v>44417</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9102,14 +9102,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45477</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9159,14 +9159,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45251</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9216,14 +9216,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45012</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9235,13 +9235,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9278,14 +9273,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 61463-2022</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44916</v>
+        <v>44523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9298,7 +9293,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9335,14 +9330,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45835</v>
+        <v>45241</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9355,7 +9350,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9392,14 +9387,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44970</v>
+        <v>45950</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9412,7 +9407,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9449,14 +9444,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9468,8 +9463,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>5.9</v>
+        <v>9.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9506,14 +9506,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>45723</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9525,13 +9525,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9568,14 +9563,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44269</v>
+        <v>45287</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9593,7 +9588,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>18.8</v>
+        <v>11.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9630,14 +9625,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9650,7 +9645,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9687,14 +9682,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>44524</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9707,7 +9702,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9744,14 +9739,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>45623</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9764,7 +9759,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9801,14 +9796,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45905</v>
+        <v>45497</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9820,13 +9815,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9863,14 +9853,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>45148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9882,8 +9872,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9920,14 +9915,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>45447</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9941,11 +9936,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9982,14 +9977,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45632</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10002,7 +9997,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10039,14 +10034,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45359</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10058,13 +10053,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10101,14 +10091,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45623</v>
+        <v>44970</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10121,7 +10111,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10158,14 +10148,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44902</v>
+        <v>45404</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10178,7 +10168,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10215,14 +10205,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>45744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10234,13 +10224,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10277,14 +10262,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45119</v>
+        <v>45667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10296,13 +10281,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10339,14 +10319,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>45119</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10360,11 +10340,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10401,14 +10381,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45600</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10420,13 +10400,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10463,14 +10438,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44524</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10483,7 +10458,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10520,14 +10495,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45166</v>
+        <v>45439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10539,13 +10514,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>11.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10582,14 +10552,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45075.45097222222</v>
+        <v>45971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10601,13 +10571,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10644,14 +10609,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45593</v>
+        <v>45971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10664,7 +10629,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>14.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10701,14 +10666,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45971</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10721,7 +10686,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>10.3</v>
+        <v>13.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10758,14 +10723,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45278</v>
+        <v>45971</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10777,13 +10742,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>10.5</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10820,14 +10780,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>45971</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10840,7 +10800,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10877,14 +10837,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>45971</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10897,7 +10857,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10934,14 +10894,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45148</v>
+        <v>44697</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10953,13 +10913,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10996,14 +10951,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45148</v>
+        <v>44902</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11015,13 +10970,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11058,14 +11008,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45635</v>
+        <v>44987</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11078,7 +11028,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11115,14 +11065,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11134,8 +11084,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>7.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11172,14 +11127,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45002</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11192,7 +11147,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11229,14 +11184,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44441</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11249,7 +11204,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11286,14 +11241,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11306,7 +11261,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11343,14 +11298,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45442</v>
+        <v>45905</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11362,8 +11317,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11400,14 +11360,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11420,7 +11380,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11457,14 +11417,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11476,8 +11436,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11514,14 +11479,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11533,8 +11498,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11571,14 +11541,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45600</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11591,7 +11561,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11628,14 +11598,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45127</v>
+        <v>45993.46239583333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11649,11 +11619,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11690,14 +11660,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>45558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11710,7 +11680,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11747,14 +11717,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45526</v>
+        <v>44880</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11772,7 +11742,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>17.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11809,14 +11779,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>44894</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11828,8 +11798,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11866,14 +11841,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 19323-2023</t>
+          <t>A 60850-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45049.555625</v>
+        <v>45999.50127314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11886,7 +11861,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11923,14 +11898,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>45237</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11942,13 +11917,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11985,14 +11955,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 60893-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45999.57299768519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12005,7 +11975,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12042,14 +12012,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>44550</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12062,7 +12032,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12099,14 +12069,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12119,7 +12089,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12156,14 +12126,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 23451-2024</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45453.64371527778</v>
+        <v>44970</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12176,7 +12146,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>6.1</v>
+        <v>0.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12213,14 +12183,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 61896-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45099</v>
+        <v>46003.46021990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12233,7 +12203,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12270,14 +12240,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45085</v>
+        <v>45478.305</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12289,8 +12259,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12327,14 +12302,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45127</v>
+        <v>45399</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12346,13 +12321,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12389,14 +12359,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45593</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12408,13 +12378,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12451,14 +12416,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45978</v>
+        <v>45272</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12471,7 +12436,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12508,14 +12473,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45415</v>
+        <v>44876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12527,13 +12492,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12570,14 +12530,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 51124-2021</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44461</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12590,7 +12550,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12627,14 +12587,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46030</v>
+        <v>45148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12646,8 +12606,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12684,14 +12649,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45124</v>
+        <v>44578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,11 +12670,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12746,14 +12711,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45593</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12765,8 +12730,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12803,14 +12773,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12823,7 +12793,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12860,14 +12830,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 21745-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44970</v>
+        <v>45442</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12880,7 +12850,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12917,14 +12887,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45439</v>
+        <v>44823</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12937,7 +12907,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12974,14 +12944,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 5971-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45701</v>
+        <v>46052.54554398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12993,13 +12963,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13036,14 +13001,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 22362-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45127</v>
+        <v>45446.63490740741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13055,13 +13020,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13098,14 +13058,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44578</v>
+        <v>44638</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,13 +13077,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13160,14 +13115,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45551</v>
+        <v>45765</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13180,7 +13135,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13217,14 +13172,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44581</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13236,8 +13191,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13274,14 +13234,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45614</v>
+        <v>45274</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13294,7 +13254,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13331,14 +13291,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44697</v>
+        <v>44915</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13351,7 +13311,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13388,14 +13348,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45558</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13408,7 +13368,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13445,14 +13405,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45765</v>
+        <v>44973</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13465,7 +13425,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13502,14 +13462,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>45127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13521,8 +13481,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13559,14 +13524,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44638</v>
+        <v>45127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13578,8 +13543,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13616,14 +13586,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45148</v>
+        <v>44662</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13635,13 +13605,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.3</v>
+        <v>7.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13678,14 +13643,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45614</v>
+        <v>45533</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13698,7 +13663,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13735,14 +13700,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45709</v>
+        <v>45593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13760,7 +13725,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>7.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13797,14 +13762,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>45378</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,8 +13781,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13854,14 +13824,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>45614</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,13 +13843,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>11</v>
+        <v>1.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13916,14 +13881,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45762</v>
+        <v>44542</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13935,13 +13900,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13978,14 +13938,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44823</v>
+        <v>45078</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13998,7 +13958,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>16.5</v>
+        <v>0.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14035,14 +13995,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45279</v>
+        <v>45600</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14054,8 +14014,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>0.1</v>
+        <v>5.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14092,14 +14057,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 56928-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45525</v>
+        <v>45978</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14111,13 +14076,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14154,14 +14114,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45378</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,11 +14135,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14216,14 +14176,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45237</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14236,7 +14196,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14273,14 +14233,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 827-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44550</v>
+        <v>46030</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14293,7 +14253,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14330,14 +14290,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>45085</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14350,7 +14310,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14387,14 +14347,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44915</v>
+        <v>44812</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14407,7 +14367,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14444,14 +14404,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>45526</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14463,8 +14423,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14501,14 +14466,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45567</v>
+        <v>45127</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14522,11 +14487,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>9.4</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14563,14 +14528,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 1338-2023</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44936.58559027778</v>
+        <v>45709</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14582,8 +14547,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14620,14 +14590,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14640,7 +14610,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14677,14 +14647,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>45099</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14697,7 +14667,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14734,14 +14704,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>45632</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14754,7 +14724,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14791,14 +14761,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45439</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14811,7 +14781,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>11.3</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14848,14 +14818,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44970</v>
+        <v>45593</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14868,7 +14838,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14905,14 +14875,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 33227-2023</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45127</v>
+        <v>44902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14924,13 +14894,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14967,14 +14932,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44812</v>
+        <v>45723</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14987,7 +14952,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15024,14 +14989,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44881</v>
+        <v>44535</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15044,7 +15009,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15081,14 +15046,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45078</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15101,7 +15066,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15138,14 +15103,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44417</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15158,7 +15123,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>14.8</v>
+        <v>6.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15195,14 +15160,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>44581</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15214,13 +15179,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>7.7</v>
+        <v>2.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15257,14 +15217,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44902</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15276,8 +15236,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15314,14 +15279,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44662</v>
+        <v>45124</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15333,8 +15298,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15371,14 +15341,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45241</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15391,7 +15361,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15428,14 +15398,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15447,13 +15417,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15490,14 +15455,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15509,8 +15474,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15547,14 +15517,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45147</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15566,13 +15536,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15609,14 +15574,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45478.305</v>
+        <v>44461</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15628,13 +15593,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15671,14 +15631,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44973</v>
+        <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15691,7 +15651,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15728,14 +15688,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 53585-2024</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45614.66586805556</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15748,7 +15708,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15785,14 +15745,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44987</v>
+        <v>45147</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,8 +15764,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15842,14 +15807,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44944</v>
+        <v>44916</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15862,7 +15827,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15899,14 +15864,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>45127</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,8 +15883,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15956,14 +15926,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45124</v>
+        <v>45049.555625</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,13 +15945,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16018,14 +15983,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16037,13 +16002,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16080,14 +16040,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>45530</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16105,7 +16065,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16142,14 +16102,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 34861-2022</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44796</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16162,7 +16122,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16199,14 +16159,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 22614-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>45789</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16218,8 +16178,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16256,14 +16221,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 22619-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45667</v>
+        <v>45789</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16275,8 +16240,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16313,14 +16283,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 11196-2024</t>
+          <t>A 22586-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45371.55340277778</v>
+        <v>45789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16332,8 +16302,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16370,14 +16345,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45337</v>
+        <v>45789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16389,8 +16364,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16427,14 +16407,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 23733-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45447</v>
+        <v>45793</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16452,7 +16432,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16489,14 +16469,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 8952-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45355</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16509,7 +16489,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16546,14 +16526,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 25462-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45723</v>
+        <v>45802.44046296296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16563,6 +16543,11 @@
       <c r="E268" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -16603,14 +16588,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 54692-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45287</v>
+        <v>45618</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16622,13 +16607,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16665,14 +16645,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 20244-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44747</v>
+        <v>45055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16685,7 +16665,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16722,14 +16702,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 11765-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45404</v>
+        <v>45727.6646412037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16741,8 +16721,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16779,14 +16764,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 27346-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45744</v>
+        <v>45812.62319444444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16798,8 +16783,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16836,14 +16826,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 27353-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45716</v>
+        <v>45812.62880787037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16861,7 +16851,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16898,14 +16888,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 26869-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45497</v>
+        <v>45470.6132175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16917,8 +16907,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16955,14 +16950,14 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 27351-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45632</v>
+        <v>45812.62601851852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16974,8 +16969,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>46051.63847222222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45526</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44880</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44719.37579861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44550.83846064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45166</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>45217.46574074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44747</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44880.85837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45197.84850694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44550.84347222222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>45701.4422337963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45091</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>45530</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>45593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45012</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45477.4494675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>45147</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44269</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45426.38695601852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45755.68284722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44944</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>45891</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44272</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45831</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45701</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>45821</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45716</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45897</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45896.54966435185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45834.59111111111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45337</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45386.48452546296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45835</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>45279</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>45127</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>45127</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>45755.30469907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45905</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45789</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45789</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45446</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>45905</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45359</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>45551</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45415</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>45764.3621875</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44441</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>45924</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45926.62878472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>45929.33350694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>45251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>45148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>45926.60765046296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>45124</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45124.57144675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>45527</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45931.63662037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>45527</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45932</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45755.79530092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45455.70663194444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45278</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>45632</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>45932.52096064815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45932</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45600</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45761.85296296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44881</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45483.72967592593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45937.44954861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44662</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45937.85078703704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>44417</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45477</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45947.54222222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44847.77737268519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45241</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>45950</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45952.35089120371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45723</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45287</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44489.4774537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44524</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45623</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>45497</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45447</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>45958.81872685185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>45960.5640162037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44970</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>45404</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45119</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>45971.60068287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>45439.51597222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>45439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>45971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>45971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>45971</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>45971</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45971</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45971</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44697</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44902</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44987</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44382.6680787037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>45987.51020833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>45987.52658564815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>45988.80296296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45905</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45988.44700231482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45993.40327546297</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>45993.37708333333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44756.37423611111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>45993.46239583333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>45558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44880</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44894</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>45999.50127314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>45237</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>45999.57299768519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44550</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44550.84164351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44970</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>46003.46021990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>45478.305</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>45399</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45593.46697916667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>45272</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45600.88394675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>45121.67741898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44916.42027777778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45442</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44823</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>46052.54554398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45446.63490740741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44638</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45765</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44910.61255787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45274</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44915</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44581.41297453704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44973</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44662</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>45533</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45378</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45614</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44542</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45078</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45600</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45978</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45124.58128472222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45105.61543981481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>46030</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45085</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44812</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45526</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45127</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45709</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45237.64636574074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45099</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45632</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44991.57304398148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>45593</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45723</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44535</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>45736.53642361111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45372.34391203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44581</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45062.65708333333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45124</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45271.80996527777</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45532.35637731481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45075.45097222222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45614.66586805556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44461</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44936.58559027778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45147</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44916</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>45127</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45049.555625</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45371.55340277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45530</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45784.31782407407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45789</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45789</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45793</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45355</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45802.44046296296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45618</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45727.6646412037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>45812.62319444444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45812.62880787037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45470.6132175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45812.62601851852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45321.46277777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>46051.63847222222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45526</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44913</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44616</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44790</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44608</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44616.43730324074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44314.45032407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44726</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44880</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44523.43979166666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44480</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44596</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>44771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44452.38961805555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>44753</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44880.86898148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44785.36472222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44753</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44606</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44719.37579861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44550.83846064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45462</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45453.64371527778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45701</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45166</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>45217.46574074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44970</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44747</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45002</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45614</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44880.85837962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>45762</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45635</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45197.84850694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44550.84347222222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>45701.4422337963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45091</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>45530</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>45148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>45593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45012</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45477.4494675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         <v>45147</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44269</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45426.38695601852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45755.68284722222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44944</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>45891</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>44272</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45831</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45701</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>45821</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45716</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45897</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45896.54966435185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45834.59111111111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45337</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>45386.48452546296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45835</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>45279</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>45127</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>45127</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>45755.30469907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45905</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45789</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45789</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45446</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>45905</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45359</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>44517</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>45551</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45415</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>45764.3621875</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44441</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>45924</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45926.62878472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>45929.33350694444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>45251</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>45148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>45926.60765046296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>45124</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45124.57144675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>45527</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45931.63662037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>45527</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45932</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45755.79530092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45455.70663194444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45278</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>45632</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>45932.52096064815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45932</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45600</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45761.85296296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44881</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45483.72967592593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44326.45363425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45937.44954861111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44662</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45937.85078703704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>44417</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45477</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45947.54222222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44847.77737268519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44523</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45241</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>45950</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45952.35089120371</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45723</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45287</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44489.4774537037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44524</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45623</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>45497</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45447</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>45958.81872685185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>45960.5640162037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44970</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>45404</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45744</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45119</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>45971.60068287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>45439.51597222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>45439</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>45971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>45971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>45971</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>45971</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45971</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45971</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44697</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44902</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44987</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44382.6680787037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>45987.51020833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>45987.52658564815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>45988.80296296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45905</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45988.44700231482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45993.40327546297</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>45993.37708333333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>44756.37423611111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>45993.46239583333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>45558</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44880</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44894</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>45999.50127314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>45237</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>45999.57299768519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44550</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44550.84164351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44970</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>46003.46021990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>45478.305</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>45399</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45593.46697916667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>45272</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44876</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>45600.88394675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>45148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44578</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>45121.67741898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44916.42027777778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45442</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44823</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>46052.54554398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45446.63490740741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44638</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45765</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44910.61255787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45274</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44915</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44581.41297453704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44973</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44662</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>45533</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45378</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45614</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44542</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45078</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45600</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45978</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45124.58128472222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45105.61543981481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>46030</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>45085</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44812</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45526</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45127</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45709</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45237.64636574074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45099</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45632</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44991.57304398148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>45593</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44902</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45723</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44535</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>45736.53642361111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45372.34391203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44581</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45062.65708333333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45124</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45271.80996527777</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45532.35637731481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45075.45097222222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45614.66586805556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44461</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44936.58559027778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45147</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44916</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>45127</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45049.555625</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45371.55340277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45530</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45784.31782407407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45789</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45789</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45789</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45789</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45793</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45355</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45802.44046296296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45618</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45727.6646412037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>45812.62319444444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45812.62880787037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45470.6132175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45812.62601851852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -575,7 +575,7 @@
         <v>44549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 3713-2024</t>
+          <t>A 34758-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45321.46277777778</v>
+        <v>45526</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -678,17 +678,22 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -703,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -712,216 +717,211 @@
         <v>3</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp
+Fjällig taggsvamp s.str.
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 3713-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45321.46277777778</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Åkergroda
 Mindre vattensalamander
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 3713-2024 artfynd.xlsx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 3713-2024 karta.png", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 3713-2024 FSC-klagomål.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 3713-2024 FSC-klagomål mail.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 3713-2024 tillsynsbegäran.docx", "A 3713-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 3713-2024 tillsynsbegäran mail.docx", "A 3713-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 5766-2026</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>46051.63847222222</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Nästrot
 Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 5766-2026 artfynd.xlsx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 5766-2026 karta.png", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 5766-2026 FSC-klagomål.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 5766-2026 FSC-klagomål mail.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 5766-2026 tillsynsbegäran.docx", "A 5766-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 5766-2026 tillsynsbegäran mail.docx", "A 5766-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 34758-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45526</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Fjällig taggsvamp s.str.
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 34758-2024 artfynd.xlsx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 34758-2024 karta.png", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 34758-2024 FSC-klagomål.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 34758-2024 FSC-klagomål mail.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 34758-2024 tillsynsbegäran.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 34758-2024 tillsynsbegäran mail.docx", "A 34758-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44461</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44517</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44601</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>44470</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60736-2022</t>
+          <t>A 35334-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44913</v>
+        <v>45530</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,8 +1300,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1310,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1325,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1335,35 +1340,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1378,7 @@
         <v>45188</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1463,7 @@
         <v>44651.3877199074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,14 +1546,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35334-2024</t>
+          <t>A 60736-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45530</v>
+        <v>44913</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1564,13 +1565,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1579,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1594,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1604,31 +1600,35 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 35334-2024 artfynd.xlsx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/artfynd/A 60736-2022 artfynd.xlsx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 35334-2024 karta.png", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/kartor/A 60736-2022 karta.png", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 35334-2024 FSC-klagomål.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomål/A 60736-2022 FSC-klagomål.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 35334-2024 FSC-klagomål mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/klagomålsmail/A 60736-2022 FSC-klagomål mail.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 35334-2024 tillsynsbegäran.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsyn/A 60736-2022 tillsynsbegäran.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 35334-2024 tillsynsbegäran mail.docx", "A 35334-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/tillsynsmail/A 60736-2022 tillsynsbegäran mail.docx", "A 60736-2022")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1763/fåglar/A 60736-2022 prioriterade fågelarter.docx", "A 60736-2022")</f>
         <v/>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
         <v>45583</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44329.56554398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44546.65472222222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44417</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>44549.80984953704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2005,14 +2005,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 9349-2022</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44616</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2062,14 +2062,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33951-2022</t>
+          <t>A 9349-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44790</v>
+        <v>44616</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2119,14 +2119,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 24092-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>44336</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2176,14 +2176,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 24092-2021</t>
+          <t>A 33951-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44336</v>
+        <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2233,14 +2233,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7828-2022</t>
+          <t>A 20103-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44608</v>
+        <v>44314.45032407407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2252,8 +2252,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2290,14 +2295,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 9271-2022</t>
+          <t>A 53910-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44616.43730324074</v>
+        <v>44880</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2310,7 +2315,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2347,14 +2352,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 20103-2021</t>
+          <t>A 24414-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44314.45032407407</v>
+        <v>44726</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2366,13 +2371,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2409,14 +2409,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 24414-2022</t>
+          <t>A 7828-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44726</v>
+        <v>44608</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>44509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2523,14 +2523,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 53910-2022</t>
+          <t>A 67179-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44880</v>
+        <v>44523.43979166666</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2580,14 +2580,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 67179-2021</t>
+          <t>A 56532-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44523.43979166666</v>
+        <v>44480</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2637,14 +2637,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 56532-2021</t>
+          <t>A 5758-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44480</v>
+        <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2656,8 +2656,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2694,14 +2699,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 5758-2022</t>
+          <t>A 31251-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44596</v>
+        <v>44771</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2713,13 +2718,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>44447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,14 +2813,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31251-2022</t>
+          <t>A 48465-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44771</v>
+        <v>44452.38961805555</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2870,14 +2870,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48465-2021</t>
+          <t>A 9271-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44452.38961805555</v>
+        <v>44616.43730324074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>44627.42550925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,14 +2984,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 51296-2022</t>
+          <t>A 29507-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44868</v>
+        <v>44753</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3003,8 +3003,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3041,14 +3046,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 29507-2022</t>
+          <t>A 7830-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44753</v>
+        <v>44608</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3060,13 +3065,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3103,14 +3103,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7830-2022</t>
+          <t>A 51296-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44608</v>
+        <v>44868</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3160,14 +3160,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26154-2022</t>
+          <t>A 53913-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44735</v>
+        <v>44880.86898148148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3179,13 +3179,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3222,14 +3217,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53913-2022</t>
+          <t>A 66111-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44880.86898148148</v>
+        <v>44517</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3242,7 +3237,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3286,7 +3281,7 @@
         <v>44581.43703703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3336,14 +3331,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 66111-2021</t>
+          <t>A 26154-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44517</v>
+        <v>44735</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3355,8 +3350,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3393,14 +3393,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33033-2022</t>
+          <t>A 29520-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44785.36472222222</v>
+        <v>44753</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3414,11 +3414,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>44865</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3512,14 +3512,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29520-2022</t>
+          <t>A 67198-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44753</v>
+        <v>44523</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3531,13 +3531,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3574,14 +3569,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7289-2022</t>
+          <t>A 33033-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44606</v>
+        <v>44785.36472222222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3593,8 +3588,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3631,14 +3631,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 67198-2021</t>
+          <t>A 7289-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44523</v>
+        <v>44606</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>44441.41650462963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3802,14 +3802,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23020-2022</t>
+          <t>A 73265-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44719.37579861111</v>
+        <v>44550.83846064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3859,14 +3859,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 73265-2021</t>
+          <t>A 62922-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44550.83846064815</v>
+        <v>45272</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3916,14 +3916,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46701-2021</t>
+          <t>A 34886-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44445</v>
+        <v>45527</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3935,8 +3935,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3973,14 +3978,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 72240-2021</t>
+          <t>A 23020-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44544</v>
+        <v>44719.37579861111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3993,7 +3998,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4030,14 +4035,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25094-2024</t>
+          <t>A 46530-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45462</v>
+        <v>45197.84850694444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4049,8 +4054,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4087,14 +4097,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23451-2024</t>
+          <t>A 46701-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45453.64371527778</v>
+        <v>44445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4107,7 +4117,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4144,14 +4154,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6947-2025</t>
+          <t>A 13156-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45701</v>
+        <v>44272</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4163,13 +4173,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4206,14 +4211,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34427-2024</t>
+          <t>A 72240-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45525</v>
+        <v>44544</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4225,13 +4230,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4268,14 +4268,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39213-2023</t>
+          <t>A 31980-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45166</v>
+        <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4289,11 +4289,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4330,14 +4330,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43163-2024</t>
+          <t>A 50092-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45567</v>
+        <v>45600</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4392,14 +4392,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50635-2023</t>
+          <t>A 10996-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45217.46574074074</v>
+        <v>45723</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4449,14 +4449,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7273-2023</t>
+          <t>A 62802-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44970</v>
+        <v>45271.80996527777</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4506,14 +4506,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28327-2022</t>
+          <t>A 67617-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44747</v>
+        <v>44524</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4563,14 +4563,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13208-2023</t>
+          <t>A 53706-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45002</v>
+        <v>44880</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4582,8 +4582,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>17.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4620,14 +4625,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53573-2024</t>
+          <t>A 33222-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45614</v>
+        <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4639,8 +4644,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4677,14 +4687,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53912-2022</t>
+          <t>A 33229-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44880.85837962963</v>
+        <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,6 +4704,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -4734,14 +4749,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18439-2025</t>
+          <t>A 39213-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45762</v>
+        <v>45166</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4755,11 +4770,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4796,14 +4811,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58492-2024</t>
+          <t>A 35940-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45635</v>
+        <v>45533</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4816,7 +4831,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4853,14 +4868,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46530-2023</t>
+          <t>A 23117-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45197.84850694444</v>
+        <v>45075.45097222222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4874,11 +4889,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4915,14 +4930,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 73267-2021</t>
+          <t>A 26037-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44550.84347222222</v>
+        <v>45091</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4935,7 +4950,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4972,14 +4987,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6918-2025</t>
+          <t>A 48647-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45701.4422337963</v>
+        <v>45593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4991,13 +5006,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5034,14 +5044,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26037-2023</t>
+          <t>A 71625-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45091</v>
+        <v>44542</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5054,7 +5064,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5091,14 +5101,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35335-2024</t>
+          <t>A 56748-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45530</v>
+        <v>44894</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5112,11 +5122,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5153,14 +5163,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35863-2023</t>
+          <t>A 53074-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45148</v>
+        <v>44876</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5172,13 +5182,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5215,14 +5220,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48647-2024</t>
+          <t>A 14988-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45593</v>
+        <v>45399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5235,7 +5240,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5272,14 +5277,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14382-2023</t>
+          <t>A 13208-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45012</v>
+        <v>45002</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5291,13 +5296,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5334,14 +5334,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28271-2024</t>
+          <t>A 35831-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45477.4494675926</v>
+        <v>45148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5353,8 +5353,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5391,14 +5396,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35572-2023</t>
+          <t>A 35863-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5416,7 +5421,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5453,14 +5458,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12527-2021</t>
+          <t>A 58492-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44269</v>
+        <v>45635</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5472,13 +5477,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>18.8</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5515,14 +5515,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18686-2024</t>
+          <t>A 58688-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45426.38695601852</v>
+        <v>45251</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5572,14 +5572,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 17117-2025</t>
+          <t>A 45751-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45755.68284722222</v>
+        <v>44441</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5629,14 +5629,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20862-2024</t>
+          <t>A 16885-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45439</v>
+        <v>45755.30469907408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>9.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5686,14 +5686,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2812-2023</t>
+          <t>A 14382-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44944</v>
+        <v>45012</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5705,8 +5705,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5743,14 +5748,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39748-2025</t>
+          <t>A 61463-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45891</v>
+        <v>44916</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5762,13 +5767,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5805,14 +5805,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13156-2021</t>
+          <t>A 7299-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44272</v>
+        <v>44970</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5862,14 +5862,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30853-2025</t>
+          <t>A 18811-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45831</v>
+        <v>45764.3621875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5919,14 +5919,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6909-2025</t>
+          <t>A 29852-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45701</v>
+        <v>44756.37423611111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5938,13 +5938,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5981,14 +5976,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29188-2025</t>
+          <t>A 21295-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45821</v>
+        <v>45062.65708333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,6 +5993,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -6038,14 +6038,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9693-2025</t>
+          <t>A 50055-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45716</v>
+        <v>45600</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6057,13 +6057,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6100,14 +6095,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 40080-2025</t>
+          <t>A 12527-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45894</v>
+        <v>44269</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6119,8 +6114,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>18.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40744-2025</t>
+          <t>A 33218-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45897</v>
+        <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6178,11 +6178,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40595-2025</t>
+          <t>A 61457-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45896.54966435185</v>
+        <v>44916.42027777778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6238,13 +6238,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6281,14 +6276,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31831-2025</t>
+          <t>A 22407-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45834.59111111111</v>
+        <v>45446</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6301,7 +6296,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>6.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6338,14 +6333,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6118-2024</t>
+          <t>A 34786-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45337</v>
+        <v>45526</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6357,8 +6352,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6395,14 +6395,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13198-2024</t>
+          <t>A 28321-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45386.48452546296</v>
+        <v>45099</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6452,14 +6452,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31968-2025</t>
+          <t>A 29231-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45835</v>
+        <v>45105.61543981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6509,14 +6509,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 64121-2023</t>
+          <t>A 25008-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45279</v>
+        <v>45085</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6566,14 +6566,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33218-2023</t>
+          <t>A 33219-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>45127</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6628,14 +6628,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33224-2023</t>
+          <t>A 48590-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45127</v>
+        <v>45593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6649,11 +6649,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>7.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16885-2025</t>
+          <t>A 58121-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45755.30469907408</v>
+        <v>45632</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42441-2025</t>
+          <t>A 9524-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45905</v>
+        <v>45359</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6766,8 +6766,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6804,14 +6809,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 27995-2024</t>
+          <t>A 17519-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45476</v>
+        <v>45415</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6823,8 +6828,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6861,14 +6871,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22623-2025</t>
+          <t>A 55835-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45789</v>
+        <v>45623</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6880,13 +6890,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6923,14 +6928,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 22742-2025</t>
+          <t>A 51124-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45789</v>
+        <v>44461</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6942,13 +6947,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>7.9</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6985,14 +6985,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 22407-2024</t>
+          <t>A 60045-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45446</v>
+        <v>44902</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7042,14 +7042,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42572-2025</t>
+          <t>A 25094-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45905</v>
+        <v>45462</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>12.5</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7099,14 +7099,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9524-2024</t>
+          <t>A 19323-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45359</v>
+        <v>45049.555625</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7118,13 +7118,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7161,14 +7156,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 65915-2021</t>
+          <t>A 32796-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44517</v>
+        <v>45124</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7180,8 +7175,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>17.2</v>
+        <v>5.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7218,14 +7218,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 39407-2024</t>
+          <t>A 48641-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45551</v>
+        <v>45593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7275,14 +7275,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17519-2024</t>
+          <t>A 32680-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45415</v>
+        <v>45121.67741898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7296,11 +7296,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7337,14 +7337,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 18811-2025</t>
+          <t>A 2818-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45764.3621875</v>
+        <v>44581.41297453704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7394,14 +7394,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45751-2021</t>
+          <t>A 7273-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44441</v>
+        <v>44970</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7451,14 +7451,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42573-2025</t>
+          <t>A 20862-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45905</v>
+        <v>45439</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7470,13 +7470,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7513,14 +7508,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46015-2025</t>
+          <t>A 73267-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45924</v>
+        <v>44550.84347222222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7533,7 +7528,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7570,14 +7565,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46767-2025</t>
+          <t>A 60341-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45926.62878472222</v>
+        <v>44910.61255787037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7595,7 +7590,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7632,14 +7627,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46868-2025</t>
+          <t>A 48630-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45929.33350694444</v>
+        <v>45593.46697916667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7652,7 +7647,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7689,14 +7684,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58688-2023</t>
+          <t>A 6909-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45251</v>
+        <v>45701</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7708,8 +7703,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7746,14 +7746,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35855-2023</t>
+          <t>A 33224-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45148</v>
+        <v>45127</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7808,14 +7808,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46740-2025</t>
+          <t>A 35573-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45926.60765046296</v>
+        <v>45147</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7829,11 +7829,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7870,14 +7870,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 32796-2023</t>
+          <t>A 18439-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45124</v>
+        <v>45762</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7891,11 +7891,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7932,14 +7932,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 32822-2023</t>
+          <t>A 2278-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45124.57144675926</v>
+        <v>44578</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,11 +7953,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7994,14 +7994,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 34849-2024</t>
+          <t>A 40968-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45527</v>
+        <v>44823</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8013,13 +8013,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>16.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8056,14 +8051,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47734-2025</t>
+          <t>A 64121-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45931.63662037037</v>
+        <v>45279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8075,13 +8070,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8118,14 +8108,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 34886-2024</t>
+          <t>A 39407-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45527</v>
+        <v>45551</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8137,13 +8127,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8180,14 +8165,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47893-2025</t>
+          <t>A 35335-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45932</v>
+        <v>45530</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8199,8 +8184,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8237,14 +8227,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17135-2025</t>
+          <t>A 23900-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45755.79530092593</v>
+        <v>45455.70663194444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8257,7 +8247,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.3</v>
+        <v>6.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8294,14 +8284,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 23900-2024</t>
+          <t>A 63318-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45455.70663194444</v>
+        <v>45274</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8314,7 +8304,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8351,14 +8341,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 63799-2023</t>
+          <t>A 67321-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45278</v>
+        <v>44523</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8370,13 +8360,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>10.5</v>
+        <v>4.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8413,14 +8398,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58121-2024</t>
+          <t>A 23451-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45632</v>
+        <v>45453.64371527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8433,7 +8418,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8470,14 +8455,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47917-2025</t>
+          <t>A 2843-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45932.52096064815</v>
+        <v>44581</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8490,7 +8475,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8527,14 +8512,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47940-2025</t>
+          <t>A 34427-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45932</v>
+        <v>45525</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8546,8 +8531,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8584,14 +8574,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50055-2024</t>
+          <t>A 12320-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45600</v>
+        <v>45378</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8603,8 +8593,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8641,14 +8636,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 18229-2025</t>
+          <t>A 27995-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45761.85296296296</v>
+        <v>45476</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8661,7 +8656,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8698,14 +8693,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54170-2022</t>
+          <t>A 70214-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44881</v>
+        <v>44535</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8718,7 +8713,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8755,14 +8750,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29427-2024</t>
+          <t>A 55137-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45483.72967592593</v>
+        <v>45237</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8775,7 +8770,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8812,14 +8807,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 22295-2021</t>
+          <t>A 53596-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44326.45363425926</v>
+        <v>45614</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8832,7 +8827,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8869,14 +8864,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 48869-2025</t>
+          <t>A 29427-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45937.44954861111</v>
+        <v>45483.72967592593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8888,13 +8883,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8931,14 +8921,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 15563-2022</t>
+          <t>A 19996-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44662</v>
+        <v>44697</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8951,7 +8941,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8988,14 +8978,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49123-2025</t>
+          <t>A 73264-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45937.85078703704</v>
+        <v>44550</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9008,7 +8998,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9045,14 +9035,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 39660-2021</t>
+          <t>A 73266-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44417</v>
+        <v>44550.84164351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9065,7 +9055,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>14.8</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9102,14 +9092,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28242-2024</t>
+          <t>A 22295-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45477</v>
+        <v>44326.45363425926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9122,7 +9112,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9159,14 +9149,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51123-2025</t>
+          <t>A 40898-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45947.54222222222</v>
+        <v>45558</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9179,7 +9169,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9216,14 +9206,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46300-2022</t>
+          <t>A 19069-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44847.77737268519</v>
+        <v>45765</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9236,7 +9226,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9273,14 +9263,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 67321-2021</t>
+          <t>A 61231-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44523</v>
+        <v>44915</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9293,7 +9283,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9330,14 +9320,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56280-2023</t>
+          <t>A 34849-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45241</v>
+        <v>45527</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9349,8 +9339,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9387,14 +9382,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51383-2025</t>
+          <t>A 11350-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45950</v>
+        <v>45372.34391203704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9407,7 +9402,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9444,14 +9439,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 51848-2025</t>
+          <t>A 15553-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45952.35089120371</v>
+        <v>44662</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9463,13 +9458,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9506,14 +9496,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10989-2025</t>
+          <t>A 13545-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45723</v>
+        <v>45736.53642361111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9526,7 +9516,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9563,14 +9553,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 65062-2023</t>
+          <t>A 17117-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45287</v>
+        <v>45755.68284722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9582,13 +9572,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>11.3</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9625,14 +9610,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58714-2021</t>
+          <t>A 18686-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44489.4774537037</v>
+        <v>45426.38695601852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9645,7 +9630,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9682,14 +9667,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 67617-2021</t>
+          <t>A 12484-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44524</v>
+        <v>44638</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9702,7 +9687,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9739,14 +9724,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55835-2024</t>
+          <t>A 28242-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45623</v>
+        <v>45477</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9759,7 +9744,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9796,14 +9781,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 30859-2024</t>
+          <t>A 43163-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45497</v>
+        <v>45567</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9815,8 +9800,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9853,14 +9843,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35831-2023</t>
+          <t>A 35850-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
         <v>45148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9878,7 +9868,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9915,14 +9905,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 22582-2024</t>
+          <t>A 28271-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45447</v>
+        <v>45477.4494675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9934,13 +9924,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9977,14 +9962,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53291-2025</t>
+          <t>A 1338-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45958.81872685185</v>
+        <v>44936.58559027778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9997,7 +9982,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10034,14 +10019,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 53678-2025</t>
+          <t>A 35654-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45960.5640162037</v>
+        <v>45532.35637731481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10054,7 +10039,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10091,14 +10076,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7297-2023</t>
+          <t>A 35855-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44970</v>
+        <v>45148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10110,8 +10095,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10148,14 +10138,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 15663-2024</t>
+          <t>A 53573-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45404</v>
+        <v>45614</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10168,7 +10158,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10205,14 +10195,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 15149-2025</t>
+          <t>A 40080-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45744</v>
+        <v>45894</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10225,7 +10215,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10262,14 +10252,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1409-2025</t>
+          <t>A 39748-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45667</v>
+        <v>45891</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10281,8 +10271,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10319,14 +10314,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 31980-2023</t>
+          <t>A 8399-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45119</v>
+        <v>45709</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10344,7 +10339,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10381,14 +10376,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 55512-2025</t>
+          <t>A 29188-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45971.60068287037</v>
+        <v>45821</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10401,7 +10396,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10438,14 +10433,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 20928-2024</t>
+          <t>A 40595-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45439.51597222222</v>
+        <v>45896.54966435185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10457,8 +10452,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10495,14 +10495,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 20933-2024</t>
+          <t>A 55249-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45439</v>
+        <v>45237.64636574074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>11.3</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10552,14 +10552,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55417-2025</t>
+          <t>A 30853-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45971</v>
+        <v>45831</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10609,14 +10609,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55433-2025</t>
+          <t>A 13198-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45971</v>
+        <v>45386.48452546296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>14.2</v>
+        <v>4.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10666,14 +10666,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 55421-2025</t>
+          <t>A 10960-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45971</v>
+        <v>44991.57304398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>13.6</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10723,14 +10723,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 55425-2025</t>
+          <t>A 40744-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45971</v>
+        <v>45897</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10742,8 +10742,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10780,14 +10785,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 55437-2025</t>
+          <t>A 65915-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45971</v>
+        <v>44517</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10800,7 +10805,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.3</v>
+        <v>17.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10837,14 +10842,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 55440-2025</t>
+          <t>A 53912-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45971</v>
+        <v>44880.85837962963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10857,7 +10862,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10894,14 +10899,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 19996-2022</t>
+          <t>A 20928-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44697</v>
+        <v>45439.51597222222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10914,7 +10919,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10951,14 +10956,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60045-2022</t>
+          <t>A 20933-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44902</v>
+        <v>45439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10971,7 +10976,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6</v>
+        <v>11.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11008,14 +11013,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 10383-2023</t>
+          <t>A 42441-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44987</v>
+        <v>45905</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11028,7 +11033,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11065,14 +11070,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 34737-2021</t>
+          <t>A 22623-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44382.6680787037</v>
+        <v>45789</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11090,7 +11095,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11127,14 +11132,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58905-2025</t>
+          <t>A 7297-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45987.51020833333</v>
+        <v>44970</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11147,7 +11152,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11184,14 +11189,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 58915-2025</t>
+          <t>A 33227-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45987.52658564815</v>
+        <v>45127</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11203,8 +11208,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11241,14 +11251,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59298-2025</t>
+          <t>A 22742-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45988.80296296296</v>
+        <v>45789</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11260,8 +11270,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>7.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11298,14 +11313,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 42370-2025</t>
+          <t>A 38261-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45905</v>
+        <v>44812</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11317,13 +11332,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11360,14 +11370,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 59090-2025</t>
+          <t>A 54170-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45988.44700231482</v>
+        <v>44881</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11380,7 +11390,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11417,14 +11427,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59933-2025</t>
+          <t>A 42572-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45993.40327546297</v>
+        <v>45905</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11436,13 +11446,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11479,14 +11484,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59919-2025</t>
+          <t>A 24036-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45993.37708333333</v>
+        <v>45078</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11496,11 +11501,6 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>FORSHAGA</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -11541,14 +11541,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 29852-2022</t>
+          <t>A 39660-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44756.37423611111</v>
+        <v>44417</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.9</v>
+        <v>14.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11598,14 +11598,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59955-2025</t>
+          <t>A 34737-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45993.46239583333</v>
+        <v>44382.6680787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11619,11 +11619,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.6</v>
+        <v>7.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11660,14 +11660,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 40898-2024</t>
+          <t>A 60043-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45558</v>
+        <v>44902</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11717,14 +11717,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 53706-2022</t>
+          <t>A 42573-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44880</v>
+        <v>45905</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>17.7</v>
+        <v>5.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11779,14 +11779,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56748-2022</t>
+          <t>A 15563-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44894</v>
+        <v>44662</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11798,13 +11798,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>8.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11841,14 +11836,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 60850-2025</t>
+          <t>A 46015-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45999.50127314815</v>
+        <v>45924</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11861,7 +11856,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11898,14 +11893,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55137-2023</t>
+          <t>A 56280-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45237</v>
+        <v>45241</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11918,7 +11913,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11955,14 +11950,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60893-2025</t>
+          <t>A 6918-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45999.57299768519</v>
+        <v>45701.4422337963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11974,8 +11969,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12012,14 +12012,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 73264-2021</t>
+          <t>A 46740-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44550</v>
+        <v>45926.60765046296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12031,8 +12031,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12069,14 +12074,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 73266-2021</t>
+          <t>A 58714-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44550.84164351852</v>
+        <v>44489.4774537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12089,7 +12094,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12126,14 +12131,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 7299-2023</t>
+          <t>A 46767-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44970</v>
+        <v>45926.62878472222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12145,8 +12150,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12183,14 +12193,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61896-2025</t>
+          <t>A 46868-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46003.46021990741</v>
+        <v>45929.33350694444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12203,7 +12213,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12240,14 +12250,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 28517-2024</t>
+          <t>A 47893-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45478.305</v>
+        <v>45932</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12259,13 +12269,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12302,14 +12307,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 14988-2024</t>
+          <t>A 47734-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45399</v>
+        <v>45931.63662037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12321,8 +12326,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12359,14 +12369,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48630-2024</t>
+          <t>A 47917-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45593.46697916667</v>
+        <v>45932.52096064815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12379,7 +12389,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.5</v>
+        <v>0.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12416,14 +12426,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 62922-2023</t>
+          <t>A 47940-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45272</v>
+        <v>45932</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12436,7 +12446,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12473,14 +12483,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53074-2022</t>
+          <t>A 48869-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44876</v>
+        <v>45937.44954861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12492,8 +12502,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12530,14 +12545,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 50367-2024</t>
+          <t>A 49123-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45600.88394675926</v>
+        <v>45937.85078703704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12550,7 +12565,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12587,14 +12602,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 35850-2023</t>
+          <t>A 35572-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45148</v>
+        <v>45147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12612,7 +12627,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12649,14 +12664,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 2278-2022</t>
+          <t>A 28517-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44578</v>
+        <v>45478.305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12674,7 +12689,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12711,14 +12726,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 32680-2023</t>
+          <t>A 7919-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45121.67741898148</v>
+        <v>44973</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12730,13 +12745,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12773,14 +12783,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61457-2022</t>
+          <t>A 53585-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44916.42027777778</v>
+        <v>45614.66586805556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12793,7 +12803,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12830,14 +12840,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21745-2024</t>
+          <t>A 10383-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45442</v>
+        <v>44987</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12850,7 +12860,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12887,14 +12897,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 40968-2022</t>
+          <t>A 2812-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44823</v>
+        <v>44944</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12907,7 +12917,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>16.5</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12944,14 +12954,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 5971-2026</t>
+          <t>A 46300-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46052.54554398148</v>
+        <v>44847.77737268519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12964,7 +12974,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13001,14 +13011,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 22362-2024</t>
+          <t>A 51383-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45446.63490740741</v>
+        <v>45950</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13021,7 +13031,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13058,14 +13068,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 12484-2022</t>
+          <t>A 32795-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44638</v>
+        <v>45124</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13077,8 +13087,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13115,14 +13130,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 19069-2025</t>
+          <t>A 51123-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45765</v>
+        <v>45947.54222222222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13135,7 +13150,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13172,14 +13187,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 60341-2022</t>
+          <t>A 32822-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44910.61255787037</v>
+        <v>45124.57144675926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13193,11 +13208,11 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>11</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13234,14 +13249,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 63318-2023</t>
+          <t>A 32830-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45274</v>
+        <v>45124.58128472222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13253,8 +13268,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13291,14 +13311,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 61231-2022</t>
+          <t>A 51848-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44915</v>
+        <v>45952.35089120371</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13310,8 +13330,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>2.6</v>
+        <v>9.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13348,14 +13373,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 2818-2022</t>
+          <t>A 34861-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44581.41297453704</v>
+        <v>44796</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13368,7 +13393,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13405,14 +13430,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 7919-2023</t>
+          <t>A 18229-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44973</v>
+        <v>45761.85296296296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13462,14 +13487,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 33222-2023</t>
+          <t>A 1409-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45127</v>
+        <v>45667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13481,13 +13506,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13524,14 +13544,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 33229-2023</t>
+          <t>A 11196-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45127</v>
+        <v>45371.55340277778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13543,13 +13563,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13586,14 +13601,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 15553-2022</t>
+          <t>A 6118-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44662</v>
+        <v>45337</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13606,7 +13621,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13643,14 +13658,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 35940-2024</t>
+          <t>A 53291-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45533</v>
+        <v>45958.81872685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13663,7 +13678,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6.7</v>
+        <v>4.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13700,14 +13715,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 48590-2024</t>
+          <t>A 53678-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45593</v>
+        <v>45960.5640162037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13719,13 +13734,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13762,14 +13772,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 12320-2024</t>
+          <t>A 22582-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45378</v>
+        <v>45447</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13787,7 +13797,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13824,14 +13834,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 53596-2024</t>
+          <t>A 50635-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45614</v>
+        <v>45217.46574074074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13844,7 +13854,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13881,14 +13891,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 71625-2021</t>
+          <t>A 10989-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44542</v>
+        <v>45723</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13901,7 +13911,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13938,14 +13948,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 24036-2023</t>
+          <t>A 65062-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45078</v>
+        <v>45287</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13957,8 +13967,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.6</v>
+        <v>11.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13995,14 +14010,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50092-2024</t>
+          <t>A 28327-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45600</v>
+        <v>44747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14014,13 +14029,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14057,14 +14067,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 56928-2025</t>
+          <t>A 15663-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45978</v>
+        <v>45404</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14077,7 +14087,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14114,14 +14124,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 32830-2023</t>
+          <t>A 15149-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45124.58128472222</v>
+        <v>45744</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14133,13 +14143,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14176,14 +14181,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 29231-2023</t>
+          <t>A 9693-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45105.61543981481</v>
+        <v>45716</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14195,8 +14200,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14233,14 +14243,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 827-2026</t>
+          <t>A 55512-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46030</v>
+        <v>45971.60068287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14253,7 +14263,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14290,14 +14300,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 25008-2023</t>
+          <t>A 30859-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45085</v>
+        <v>45497</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14310,7 +14320,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14347,14 +14357,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38261-2022</t>
+          <t>A 58114-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44812</v>
+        <v>45632</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14367,7 +14377,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14404,14 +14414,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 34786-2024</t>
+          <t>A 6947-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45526</v>
+        <v>45701</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14429,7 +14439,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14466,14 +14476,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 33219-2023</t>
+          <t>A 50367-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45127</v>
+        <v>45600.88394675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14485,13 +14495,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14528,14 +14533,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 8399-2025</t>
+          <t>A 55421-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45709</v>
+        <v>45971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,13 +14552,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>13.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14590,14 +14590,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 55249-2023</t>
+          <t>A 55425-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45237.64636574074</v>
+        <v>45971</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14647,14 +14647,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 28321-2023</t>
+          <t>A 55437-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45099</v>
+        <v>45971</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14704,14 +14704,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 58114-2024</t>
+          <t>A 55440-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45632</v>
+        <v>45971</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14761,14 +14761,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 10960-2023</t>
+          <t>A 55417-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44991.57304398148</v>
+        <v>45971</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14818,14 +14818,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 48641-2024</t>
+          <t>A 55433-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45593</v>
+        <v>45971</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>7</v>
+        <v>14.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14875,14 +14875,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 60043-2022</t>
+          <t>A 21836-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44902</v>
+        <v>45784.31782407407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14932,14 +14932,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 10996-2025</t>
+          <t>A 59090-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45723</v>
+        <v>45988.44700231482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14989,14 +14989,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 70214-2021</t>
+          <t>A 35336-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44535</v>
+        <v>45530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15008,8 +15008,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15046,14 +15051,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 13545-2025</t>
+          <t>A 58905-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45736.53642361111</v>
+        <v>45987.51020833333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15066,7 +15071,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15103,14 +15108,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 11350-2024</t>
+          <t>A 58915-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45372.34391203704</v>
+        <v>45987.52658564815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15123,7 +15128,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15160,14 +15165,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 2843-2022</t>
+          <t>A 42370-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44581</v>
+        <v>45905</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15179,8 +15184,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15217,14 +15227,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 21295-2023</t>
+          <t>A 59298-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45062.65708333333</v>
+        <v>45988.80296296296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15236,13 +15246,8 @@
           <t>FORSHAGA</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15279,14 +15284,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 32795-2023</t>
+          <t>A 59933-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45124</v>
+        <v>45993.40327546297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15300,11 +15305,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15341,14 +15346,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 62802-2023</t>
+          <t>A 59919-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45271.80996527777</v>
+        <v>45993.37708333333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,8 +15365,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15398,14 +15408,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 35654-2024</t>
+          <t>A 22609-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45532.35637731481</v>
+        <v>45789</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,8 +15427,13 @@
           <t>FORSHAGA</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15455,14 +15470,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 23117-2023</t>
+          <t>A 59955-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45075.45097222222</v>
+    